--- a/sol_data.xlsx
+++ b/sol_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E367"/>
+  <dimension ref="A1:F367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6169 +463,7270 @@
           <t>volatility</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>market_cap_pct_change</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="B2" t="n">
-        <v>43.90258122942058</v>
+        <v>43.25208387360771</v>
       </c>
       <c r="C2" t="n">
-        <v>1018586521.131135</v>
+        <v>1075537996.038997</v>
       </c>
       <c r="D2" t="n">
-        <v>15322661204.9145</v>
+        <v>15065562430.29943</v>
       </c>
       <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44790</v>
+        <v>44791</v>
       </c>
       <c r="B3" t="n">
-        <v>43.25208387360771</v>
+        <v>40.5562855378095</v>
       </c>
       <c r="C3" t="n">
-        <v>1075537996.038997</v>
+        <v>1249877706.419423</v>
       </c>
       <c r="D3" t="n">
-        <v>15065562430.29943</v>
+        <v>14161164134.09857</v>
       </c>
       <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>-6.00308352499308</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="B4" t="n">
-        <v>40.5562855378095</v>
+        <v>39.618894866249</v>
       </c>
       <c r="C4" t="n">
-        <v>1249877706.419423</v>
+        <v>824971812.0861026</v>
       </c>
       <c r="D4" t="n">
-        <v>14161164134.09857</v>
+        <v>13863255686.50742</v>
       </c>
       <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>-2.103700266236042</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44792</v>
+        <v>44793</v>
       </c>
       <c r="B5" t="n">
-        <v>39.618894866249</v>
+        <v>35.98979542858258</v>
       </c>
       <c r="C5" t="n">
-        <v>824971812.0861026</v>
+        <v>1786764403.099564</v>
       </c>
       <c r="D5" t="n">
-        <v>13863255686.50742</v>
+        <v>12530469534.2066</v>
       </c>
       <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>-9.613803441553525</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44793</v>
+        <v>44794</v>
       </c>
       <c r="B6" t="n">
-        <v>35.98979542858258</v>
+        <v>35.23183017005089</v>
       </c>
       <c r="C6" t="n">
-        <v>1786764403.099564</v>
+        <v>1200537393.533252</v>
       </c>
       <c r="D6" t="n">
-        <v>12530469534.2066</v>
+        <v>12256688441.22113</v>
       </c>
       <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>-2.184922857344562</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44794</v>
+        <v>44795</v>
       </c>
       <c r="B7" t="n">
-        <v>35.23183017005089</v>
+        <v>36.53272408478192</v>
       </c>
       <c r="C7" t="n">
-        <v>1200537393.533252</v>
+        <v>991224706.6295438</v>
       </c>
       <c r="D7" t="n">
-        <v>12256688441.22113</v>
+        <v>12815310875.36842</v>
       </c>
       <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>4.557694656482902</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44795</v>
+        <v>44796</v>
       </c>
       <c r="B8" t="n">
-        <v>36.53272408478192</v>
+        <v>35.48979518227352</v>
       </c>
       <c r="C8" t="n">
-        <v>991224706.6295438</v>
+        <v>1122987607.712962</v>
       </c>
       <c r="D8" t="n">
-        <v>12815310875.36842</v>
+        <v>12352579320.92326</v>
       </c>
       <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>-3.610771201302232</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="B9" t="n">
-        <v>35.48979518227352</v>
+        <v>35.70506471942451</v>
       </c>
       <c r="C9" t="n">
-        <v>1122987607.712962</v>
+        <v>827899999.1174744</v>
       </c>
       <c r="D9" t="n">
-        <v>12352579320.92326</v>
+        <v>12481061524.74206</v>
       </c>
       <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>1.040124499351869</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44797</v>
+        <v>44798</v>
       </c>
       <c r="B10" t="n">
-        <v>35.70506471942451</v>
+        <v>34.98161284031775</v>
       </c>
       <c r="C10" t="n">
-        <v>827899999.1174744</v>
+        <v>908130561.79342</v>
       </c>
       <c r="D10" t="n">
-        <v>12481061524.74206</v>
+        <v>12227264266.32563</v>
       </c>
       <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>-2.033458916241249</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44798</v>
+        <v>44799</v>
       </c>
       <c r="B11" t="n">
-        <v>34.98161284031775</v>
+        <v>35.34736653928148</v>
       </c>
       <c r="C11" t="n">
-        <v>908130561.79342</v>
+        <v>656358314.0354196</v>
       </c>
       <c r="D11" t="n">
-        <v>12227264266.32563</v>
+        <v>12346020470.35311</v>
       </c>
       <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>0.9712410024091511</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44799</v>
+        <v>44800</v>
       </c>
       <c r="B12" t="n">
-        <v>35.34736653928148</v>
+        <v>31.78642232940313</v>
       </c>
       <c r="C12" t="n">
-        <v>656358314.0354196</v>
+        <v>1248900621.367377</v>
       </c>
       <c r="D12" t="n">
-        <v>12346020470.35311</v>
+        <v>11046201721.51646</v>
       </c>
       <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>-10.52824067445822</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44800</v>
+        <v>44801</v>
       </c>
       <c r="B13" t="n">
-        <v>31.78642232940313</v>
+        <v>31.63923191543007</v>
       </c>
       <c r="C13" t="n">
-        <v>1248900621.367377</v>
+        <v>698084660.9387999</v>
       </c>
       <c r="D13" t="n">
-        <v>11046201721.51646</v>
+        <v>11052608204.77869</v>
       </c>
       <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>0.0579971597816975</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44801</v>
+        <v>44802</v>
       </c>
       <c r="B14" t="n">
-        <v>31.63923191543007</v>
+        <v>30.63070824563315</v>
       </c>
       <c r="C14" t="n">
-        <v>698084660.9387999</v>
+        <v>505611658.5291166</v>
       </c>
       <c r="D14" t="n">
-        <v>11052608204.77869</v>
+        <v>10721767532.44316</v>
       </c>
       <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>-2.993326699054588</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44802</v>
+        <v>44803</v>
       </c>
       <c r="B15" t="n">
-        <v>30.63070824563315</v>
+        <v>32.4676226051912</v>
       </c>
       <c r="C15" t="n">
-        <v>505611658.5291166</v>
+        <v>829387148.7218318</v>
       </c>
       <c r="D15" t="n">
-        <v>10721767532.44316</v>
+        <v>11387115687.58702</v>
       </c>
       <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>6.205582737459836</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="B16" t="n">
-        <v>32.4676226051912</v>
+        <v>31.46046207025344</v>
       </c>
       <c r="C16" t="n">
-        <v>829387148.7218318</v>
+        <v>846296043.2180582</v>
       </c>
       <c r="D16" t="n">
-        <v>11387115687.58702</v>
+        <v>11032381033.17492</v>
       </c>
       <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>-3.115228334764297</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44804</v>
+        <v>44805</v>
       </c>
       <c r="B17" t="n">
-        <v>31.46046207025344</v>
+        <v>31.45350186531703</v>
       </c>
       <c r="C17" t="n">
-        <v>846296043.2180582</v>
+        <v>710498153.0277057</v>
       </c>
       <c r="D17" t="n">
-        <v>11032381033.17492</v>
+        <v>10982002954.90594</v>
       </c>
       <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>-0.4566383096947568</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="B18" t="n">
-        <v>31.45350186531703</v>
+        <v>31.62752044554708</v>
       </c>
       <c r="C18" t="n">
-        <v>710498153.0277057</v>
+        <v>654715113.9384351</v>
       </c>
       <c r="D18" t="n">
-        <v>10982002954.90594</v>
+        <v>11037789630.85967</v>
       </c>
       <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0.5079827075515908</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44806</v>
+        <v>44807</v>
       </c>
       <c r="B19" t="n">
-        <v>31.62752044554708</v>
+        <v>31.19646770140254</v>
       </c>
       <c r="C19" t="n">
-        <v>654715113.9384351</v>
+        <v>627140311.5505403</v>
       </c>
       <c r="D19" t="n">
-        <v>11037789630.85967</v>
+        <v>10904364506.21477</v>
       </c>
       <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>-1.208802931629271</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44807</v>
+        <v>44808</v>
       </c>
       <c r="B20" t="n">
-        <v>31.19646770140254</v>
+        <v>31.0762601048377</v>
       </c>
       <c r="C20" t="n">
-        <v>627140311.5505403</v>
+        <v>287508158.2938324</v>
       </c>
       <c r="D20" t="n">
-        <v>10904364506.21477</v>
+        <v>10881773797.62661</v>
       </c>
       <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>-0.2071712530820724</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44808</v>
+        <v>44809</v>
       </c>
       <c r="B21" t="n">
-        <v>31.0762601048377</v>
+        <v>32.14492440492364</v>
       </c>
       <c r="C21" t="n">
-        <v>287508158.2938324</v>
+        <v>370560789.6642585</v>
       </c>
       <c r="D21" t="n">
-        <v>10881773797.62661</v>
+        <v>11245569490.17638</v>
       </c>
       <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>3.34316536362036</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44809</v>
+        <v>44810</v>
       </c>
       <c r="B22" t="n">
-        <v>32.14492440492364</v>
+        <v>32.21580982933859</v>
       </c>
       <c r="C22" t="n">
-        <v>370560789.6642585</v>
+        <v>511686055.7599968</v>
       </c>
       <c r="D22" t="n">
-        <v>11245569490.17638</v>
+        <v>11264121877.82993</v>
       </c>
       <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0.1649750834740837</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44810</v>
+        <v>44811</v>
       </c>
       <c r="B23" t="n">
-        <v>32.21580982933859</v>
+        <v>30.93257105784699</v>
       </c>
       <c r="C23" t="n">
-        <v>511686055.7599968</v>
+        <v>1208999754.436581</v>
       </c>
       <c r="D23" t="n">
-        <v>11264121877.82993</v>
+        <v>10834953198.21636</v>
       </c>
       <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>-3.810050035575896</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44811</v>
+        <v>44812</v>
       </c>
       <c r="B24" t="n">
-        <v>30.93257105784699</v>
+        <v>32.75240078147267</v>
       </c>
       <c r="C24" t="n">
-        <v>1208999754.436581</v>
+        <v>796019432.9809626</v>
       </c>
       <c r="D24" t="n">
-        <v>10834953198.21636</v>
+        <v>11595827258.28411</v>
       </c>
       <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>7.022402830434049</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44812</v>
+        <v>44813</v>
       </c>
       <c r="B25" t="n">
-        <v>32.75240078147267</v>
+        <v>33.60651304711081</v>
       </c>
       <c r="C25" t="n">
-        <v>796019432.9809626</v>
+        <v>927246036.3578213</v>
       </c>
       <c r="D25" t="n">
-        <v>11595827258.28411</v>
+        <v>11847628650.711</v>
       </c>
       <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>2.171482782713952</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44813</v>
+        <v>44814</v>
       </c>
       <c r="B26" t="n">
-        <v>33.60651304711081</v>
+        <v>34.70744692938496</v>
       </c>
       <c r="C26" t="n">
-        <v>927246036.3578213</v>
+        <v>1098697449.024227</v>
       </c>
       <c r="D26" t="n">
-        <v>11847628650.711</v>
+        <v>12244442276.89431</v>
       </c>
       <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>3.349308438693299</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44814</v>
+        <v>44815</v>
       </c>
       <c r="B27" t="n">
-        <v>34.70744692938496</v>
+        <v>35.15110408808845</v>
       </c>
       <c r="C27" t="n">
-        <v>1098697449.024227</v>
+        <v>675183558.1129656</v>
       </c>
       <c r="D27" t="n">
-        <v>12244442276.89431</v>
+        <v>12419481830.60969</v>
       </c>
       <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>1.42954288776127</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44815</v>
+        <v>44816</v>
       </c>
       <c r="B28" t="n">
-        <v>35.15110408808845</v>
+        <v>34.90471667494537</v>
       </c>
       <c r="C28" t="n">
-        <v>675183558.1129656</v>
+        <v>712287831.9646752</v>
       </c>
       <c r="D28" t="n">
-        <v>12419481830.60969</v>
+        <v>12331013775.49605</v>
       </c>
       <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>-0.7123329001987533</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="B29" t="n">
-        <v>34.90471667494537</v>
+        <v>37.34461621459901</v>
       </c>
       <c r="C29" t="n">
-        <v>712287831.9646752</v>
+        <v>1608877258.549003</v>
       </c>
       <c r="D29" t="n">
-        <v>12331013775.49605</v>
+        <v>13183798412.03856</v>
       </c>
       <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>6.915770690623546</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="B30" t="n">
-        <v>37.34461621459901</v>
+        <v>33.05973266575832</v>
       </c>
       <c r="C30" t="n">
-        <v>1608877258.549003</v>
+        <v>1685408590.30727</v>
       </c>
       <c r="D30" t="n">
-        <v>13183798412.03856</v>
+        <v>11697896819.86432</v>
       </c>
       <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>-11.27066377787921</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44818</v>
+        <v>44819</v>
       </c>
       <c r="B31" t="n">
-        <v>33.05973266575832</v>
+        <v>34.07101051918571</v>
       </c>
       <c r="C31" t="n">
-        <v>1685408590.30727</v>
+        <v>938917179.6482323</v>
       </c>
       <c r="D31" t="n">
-        <v>11697896819.86432</v>
+        <v>12027439275.11505</v>
       </c>
       <c r="E31" t="n">
-        <v>3.524543688885704</v>
+        <v>3.051064774430214</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2.817108582212313</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44819</v>
+        <v>44820</v>
       </c>
       <c r="B32" t="n">
-        <v>34.07101051918571</v>
+        <v>33.06424838116686</v>
       </c>
       <c r="C32" t="n">
-        <v>938917179.6482323</v>
+        <v>1035640342.72632</v>
       </c>
       <c r="D32" t="n">
-        <v>12027439275.11505</v>
+        <v>11742374385.91165</v>
       </c>
       <c r="E32" t="n">
-        <v>3.051064774430222</v>
+        <v>2.535850313952936</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-2.370121209368359</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44820</v>
+        <v>44821</v>
       </c>
       <c r="B33" t="n">
-        <v>33.06424838116686</v>
+        <v>32.18223307870709</v>
       </c>
       <c r="C33" t="n">
-        <v>1035640342.72632</v>
+        <v>728064867.9128903</v>
       </c>
       <c r="D33" t="n">
-        <v>11742374385.91165</v>
+        <v>11380713338.49814</v>
       </c>
       <c r="E33" t="n">
-        <v>2.535850313952945</v>
+        <v>2.217883663314919</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-3.079965222769865</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44821</v>
+        <v>44822</v>
       </c>
       <c r="B34" t="n">
-        <v>32.18223307870709</v>
+        <v>33.76184563714559</v>
       </c>
       <c r="C34" t="n">
-        <v>728064867.9128903</v>
+        <v>477780407.4338617</v>
       </c>
       <c r="D34" t="n">
-        <v>11380713338.49814</v>
+        <v>11970489829.73424</v>
       </c>
       <c r="E34" t="n">
-        <v>2.217883663314929</v>
+        <v>1.906905062943081</v>
+      </c>
+      <c r="F34" t="n">
+        <v>5.182245380357986</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44822</v>
+        <v>44823</v>
       </c>
       <c r="B35" t="n">
-        <v>33.76184563714559</v>
+        <v>31.08875046830983</v>
       </c>
       <c r="C35" t="n">
-        <v>477780407.4338617</v>
+        <v>652419202.8586738</v>
       </c>
       <c r="D35" t="n">
-        <v>11970489829.73424</v>
+        <v>11014413847.32267</v>
       </c>
       <c r="E35" t="n">
-        <v>1.906905062943092</v>
+        <v>1.888759235160389</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-7.986941186288943</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44823</v>
+        <v>44824</v>
       </c>
       <c r="B36" t="n">
-        <v>31.08875046830983</v>
+        <v>32.71343099163381</v>
       </c>
       <c r="C36" t="n">
-        <v>652419202.8586738</v>
+        <v>963739018.810559</v>
       </c>
       <c r="D36" t="n">
-        <v>11014413847.32267</v>
+        <v>11598805636.58942</v>
       </c>
       <c r="E36" t="n">
-        <v>1.888759235160401</v>
+        <v>1.853449743188885</v>
+      </c>
+      <c r="F36" t="n">
+        <v>5.305700306592387</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="B37" t="n">
-        <v>32.71343099163381</v>
+        <v>31.40549350367098</v>
       </c>
       <c r="C37" t="n">
-        <v>963739018.810559</v>
+        <v>798987431.1913335</v>
       </c>
       <c r="D37" t="n">
-        <v>11598805636.58942</v>
+        <v>11136148382.13609</v>
       </c>
       <c r="E37" t="n">
-        <v>1.853449743188897</v>
+        <v>1.76704469379792</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-3.988835307265115</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44825</v>
+        <v>44826</v>
       </c>
       <c r="B38" t="n">
-        <v>31.40549350367098</v>
+        <v>30.82514946029703</v>
       </c>
       <c r="C38" t="n">
-        <v>798987431.1913335</v>
+        <v>1180925645.890963</v>
       </c>
       <c r="D38" t="n">
-        <v>11136148382.13609</v>
+        <v>10920166914.72252</v>
       </c>
       <c r="E38" t="n">
-        <v>1.767044693797932</v>
+        <v>1.745406611677577</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-1.939462909456513</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="B39" t="n">
-        <v>30.82514946029703</v>
+        <v>32.46791740152261</v>
       </c>
       <c r="C39" t="n">
-        <v>1180925645.890963</v>
+        <v>833383661.5669668</v>
       </c>
       <c r="D39" t="n">
-        <v>10920166914.72252</v>
+        <v>11489637349.23713</v>
       </c>
       <c r="E39" t="n">
-        <v>1.74540661167759</v>
+        <v>1.660389695732265</v>
+      </c>
+      <c r="F39" t="n">
+        <v>5.214851008795973</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44827</v>
+        <v>44828</v>
       </c>
       <c r="B40" t="n">
-        <v>32.46791740152261</v>
+        <v>33.71195119466151</v>
       </c>
       <c r="C40" t="n">
-        <v>833383661.5669668</v>
+        <v>969718528.5144931</v>
       </c>
       <c r="D40" t="n">
-        <v>11489637349.23713</v>
+        <v>11974606498.90307</v>
       </c>
       <c r="E40" t="n">
-        <v>1.660389695732279</v>
+        <v>1.616774147980661</v>
+      </c>
+      <c r="F40" t="n">
+        <v>4.220926517738555</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44828</v>
+        <v>44829</v>
       </c>
       <c r="B41" t="n">
-        <v>33.71195119466151</v>
+        <v>33.5038789488122</v>
       </c>
       <c r="C41" t="n">
-        <v>969718528.5144931</v>
+        <v>821677077.6160394</v>
       </c>
       <c r="D41" t="n">
-        <v>11974606498.90307</v>
+        <v>11877506512.45901</v>
       </c>
       <c r="E41" t="n">
-        <v>1.616774147980675</v>
+        <v>1.545898860012128</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.8108824824678007</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44829</v>
+        <v>44830</v>
       </c>
       <c r="B42" t="n">
-        <v>33.5038789488122</v>
+        <v>32.32786924066603</v>
       </c>
       <c r="C42" t="n">
-        <v>821677077.6160394</v>
+        <v>576312106.3719692</v>
       </c>
       <c r="D42" t="n">
-        <v>11877506512.45901</v>
+        <v>11474712536.43069</v>
       </c>
       <c r="E42" t="n">
-        <v>1.545898860012143</v>
+        <v>1.538833365667721</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-3.391233468117338</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44830</v>
+        <v>44831</v>
       </c>
       <c r="B43" t="n">
-        <v>32.32786924066603</v>
+        <v>33.85239531271168</v>
       </c>
       <c r="C43" t="n">
-        <v>576312106.3719692</v>
+        <v>908933850.0448053</v>
       </c>
       <c r="D43" t="n">
-        <v>11474712536.43069</v>
+        <v>11924970586.09745</v>
       </c>
       <c r="E43" t="n">
-        <v>1.538833365667736</v>
+        <v>1.54176062114638</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3.923915725446303</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44831</v>
+        <v>44832</v>
       </c>
       <c r="B44" t="n">
-        <v>33.85239531271168</v>
+        <v>32.76612155979491</v>
       </c>
       <c r="C44" t="n">
-        <v>908933850.0448053</v>
+        <v>1221276543.779197</v>
       </c>
       <c r="D44" t="n">
-        <v>11924970586.09745</v>
+        <v>11669868172.59171</v>
       </c>
       <c r="E44" t="n">
-        <v>1.541760621146395</v>
+        <v>1.490235834005511</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-2.139228869907173</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44832</v>
+        <v>44833</v>
       </c>
       <c r="B45" t="n">
-        <v>32.76612155979491</v>
+        <v>33.30329996439706</v>
       </c>
       <c r="C45" t="n">
-        <v>1221276543.779197</v>
+        <v>958564795.8003093</v>
       </c>
       <c r="D45" t="n">
-        <v>11669868172.59171</v>
+        <v>11817378025.54562</v>
       </c>
       <c r="E45" t="n">
-        <v>1.490235834005526</v>
+        <v>1.491718898391876</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.264023301482942</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="B46" t="n">
-        <v>33.30329996439706</v>
+        <v>33.93599567295436</v>
       </c>
       <c r="C46" t="n">
-        <v>958564795.8003093</v>
+        <v>949323509.3667252</v>
       </c>
       <c r="D46" t="n">
-        <v>11817378025.54562</v>
+        <v>12066578261.8937</v>
       </c>
       <c r="E46" t="n">
-        <v>1.491718898391891</v>
+        <v>1.482207304019588</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2.108760808103005</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44834</v>
+        <v>44835</v>
       </c>
       <c r="B47" t="n">
-        <v>33.93599567295436</v>
+        <v>33.24966351604033</v>
       </c>
       <c r="C47" t="n">
-        <v>949323509.3667252</v>
+        <v>1166717015.855989</v>
       </c>
       <c r="D47" t="n">
-        <v>12066578261.8937</v>
+        <v>11808862837.8495</v>
       </c>
       <c r="E47" t="n">
-        <v>1.482207304019603</v>
+        <v>1.457619724223692</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-2.135778830176449</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44835</v>
+        <v>44836</v>
       </c>
       <c r="B48" t="n">
-        <v>33.24966351604033</v>
+        <v>32.45579081734204</v>
       </c>
       <c r="C48" t="n">
-        <v>1166717015.855989</v>
+        <v>475812174.3197378</v>
       </c>
       <c r="D48" t="n">
-        <v>11808862837.8495</v>
+        <v>11538414123.40477</v>
       </c>
       <c r="E48" t="n">
-        <v>1.457619724223707</v>
+        <v>1.439138910807121</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-2.290218102778663</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44836</v>
+        <v>44837</v>
       </c>
       <c r="B49" t="n">
-        <v>32.45579081734204</v>
+        <v>32.09702548893108</v>
       </c>
       <c r="C49" t="n">
-        <v>475812174.3197378</v>
+        <v>518124769.2139249</v>
       </c>
       <c r="D49" t="n">
-        <v>11538414123.40477</v>
+        <v>11395149007.96318</v>
       </c>
       <c r="E49" t="n">
-        <v>1.439138910807137</v>
+        <v>1.409467198387767</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-1.241636102755117</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44837</v>
+        <v>44838</v>
       </c>
       <c r="B50" t="n">
-        <v>32.09702548893108</v>
+        <v>32.9839333048039</v>
       </c>
       <c r="C50" t="n">
-        <v>518124769.2139249</v>
+        <v>621968801.9772867</v>
       </c>
       <c r="D50" t="n">
-        <v>11395149007.96318</v>
+        <v>11735344819.59952</v>
       </c>
       <c r="E50" t="n">
-        <v>1.409467198387783</v>
+        <v>1.360818833342338</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2.985444169256612</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44838</v>
+        <v>44839</v>
       </c>
       <c r="B51" t="n">
-        <v>32.9839333048039</v>
+        <v>34.12979146381925</v>
       </c>
       <c r="C51" t="n">
-        <v>621968801.9772867</v>
+        <v>692957762.0497013</v>
       </c>
       <c r="D51" t="n">
-        <v>11735344819.59952</v>
+        <v>12125352215.94055</v>
       </c>
       <c r="E51" t="n">
-        <v>1.360818833342355</v>
+        <v>1.361724637673779</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3.323356938687194</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44839</v>
+        <v>44840</v>
       </c>
       <c r="B52" t="n">
-        <v>34.12979146381925</v>
+        <v>34.09322257643218</v>
       </c>
       <c r="C52" t="n">
-        <v>692957762.0497013</v>
+        <v>641193220.7004185</v>
       </c>
       <c r="D52" t="n">
-        <v>12125352215.94055</v>
+        <v>12104501989.14961</v>
       </c>
       <c r="E52" t="n">
-        <v>1.361724637673796</v>
+        <v>1.360335833865448</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.1719556382331566</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44840</v>
+        <v>44841</v>
       </c>
       <c r="B53" t="n">
-        <v>34.09322257643218</v>
+        <v>33.33775389191098</v>
       </c>
       <c r="C53" t="n">
-        <v>641193220.7004185</v>
+        <v>670556864.3795924</v>
       </c>
       <c r="D53" t="n">
-        <v>12104501989.14961</v>
+        <v>11847564337.73259</v>
       </c>
       <c r="E53" t="n">
-        <v>1.360335833865464</v>
+        <v>1.290250324600364</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-2.122661895940348</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44841</v>
+        <v>44842</v>
       </c>
       <c r="B54" t="n">
-        <v>33.33775389191098</v>
+        <v>32.91839237624644</v>
       </c>
       <c r="C54" t="n">
-        <v>670556864.3795924</v>
+        <v>672974282.6869308</v>
       </c>
       <c r="D54" t="n">
-        <v>11847564337.73259</v>
+        <v>11692923622.97277</v>
       </c>
       <c r="E54" t="n">
-        <v>1.290250324600381</v>
+        <v>1.288196726415846</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-1.305253217889812</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44842</v>
+        <v>44843</v>
       </c>
       <c r="B55" t="n">
-        <v>32.91839237624644</v>
+        <v>32.60000089346164</v>
       </c>
       <c r="C55" t="n">
-        <v>672974282.6869308</v>
+        <v>351714131.7663237</v>
       </c>
       <c r="D55" t="n">
-        <v>11692923622.97277</v>
+        <v>11634868896.09043</v>
       </c>
       <c r="E55" t="n">
-        <v>1.288196726415863</v>
+        <v>1.29305548130148</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.4964945359625661</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44843</v>
+        <v>44844</v>
       </c>
       <c r="B56" t="n">
-        <v>32.60000089346164</v>
+        <v>32.90519327468117</v>
       </c>
       <c r="C56" t="n">
-        <v>351714131.7663237</v>
+        <v>394694049.4182485</v>
       </c>
       <c r="D56" t="n">
-        <v>11634868896.09043</v>
+        <v>11733010112.9958</v>
       </c>
       <c r="E56" t="n">
-        <v>1.293055481301498</v>
+        <v>1.265403064901859</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.8435094351458172</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44844</v>
+        <v>44845</v>
       </c>
       <c r="B57" t="n">
-        <v>32.90519327468117</v>
+        <v>31.96971297778321</v>
       </c>
       <c r="C57" t="n">
-        <v>394694049.4182485</v>
+        <v>630989029.3279732</v>
       </c>
       <c r="D57" t="n">
-        <v>11733010112.9958</v>
+        <v>11448167353.52273</v>
       </c>
       <c r="E57" t="n">
-        <v>1.265403064901877</v>
+        <v>1.229670580605522</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-2.427704031019084</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44845</v>
+        <v>44846</v>
       </c>
       <c r="B58" t="n">
-        <v>31.96971297778321</v>
+        <v>30.78828821701152</v>
       </c>
       <c r="C58" t="n">
-        <v>630989029.3279732</v>
+        <v>720050451.2850903</v>
       </c>
       <c r="D58" t="n">
-        <v>11448167353.52273</v>
+        <v>10986691633.70407</v>
       </c>
       <c r="E58" t="n">
-        <v>1.229670580605541</v>
+        <v>1.25094893215637</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-4.031000819328989</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44846</v>
+        <v>44847</v>
       </c>
       <c r="B59" t="n">
-        <v>30.78828821701152</v>
+        <v>31.14122415032415</v>
       </c>
       <c r="C59" t="n">
-        <v>720050451.2850903</v>
+        <v>481852424.7749899</v>
       </c>
       <c r="D59" t="n">
-        <v>10986691633.70407</v>
+        <v>11138186203.67174</v>
       </c>
       <c r="E59" t="n">
-        <v>1.250948932156388</v>
+        <v>0.9866193264829539</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.378891617408518</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44847</v>
+        <v>44848</v>
       </c>
       <c r="B60" t="n">
-        <v>31.14122415032415</v>
+        <v>30.58269363666032</v>
       </c>
       <c r="C60" t="n">
-        <v>481852424.7749899</v>
+        <v>1268002433.750802</v>
       </c>
       <c r="D60" t="n">
-        <v>11138186203.67174</v>
+        <v>10936034776.85963</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9866193264829768</v>
+        <v>1.061241427542716</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-1.814940270485554</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44848</v>
+        <v>44849</v>
       </c>
       <c r="B61" t="n">
-        <v>30.58269363666032</v>
+        <v>30.03589921524538</v>
       </c>
       <c r="C61" t="n">
-        <v>1268002433.750802</v>
+        <v>800163982.9576544</v>
       </c>
       <c r="D61" t="n">
-        <v>10936034776.85963</v>
+        <v>10723795928.14396</v>
       </c>
       <c r="E61" t="n">
-        <v>1.061241427542737</v>
+        <v>1.131520314532723</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-1.940729460414325</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44849</v>
+        <v>44850</v>
       </c>
       <c r="B62" t="n">
-        <v>30.03589921524538</v>
+        <v>29.57674364236317</v>
       </c>
       <c r="C62" t="n">
-        <v>800163982.9576544</v>
+        <v>545155338.8042386</v>
       </c>
       <c r="D62" t="n">
-        <v>10723795928.14396</v>
+        <v>10608095633.11388</v>
       </c>
       <c r="E62" t="n">
-        <v>1.131520314532743</v>
+        <v>1.248864913337186</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-1.078911756670398</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="B63" t="n">
-        <v>29.57674364236317</v>
+        <v>30.16691102294472</v>
       </c>
       <c r="C63" t="n">
-        <v>545155338.8042386</v>
+        <v>598450021.1571373</v>
       </c>
       <c r="D63" t="n">
-        <v>10608095633.11388</v>
+        <v>10784111501.17859</v>
       </c>
       <c r="E63" t="n">
-        <v>1.248864913337204</v>
+        <v>1.314766776498924</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.659259815826619</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44851</v>
+        <v>44852</v>
       </c>
       <c r="B64" t="n">
-        <v>30.16691102294472</v>
+        <v>31.24475236760962</v>
       </c>
       <c r="C64" t="n">
-        <v>598450021.1571373</v>
+        <v>643752962.6927968</v>
       </c>
       <c r="D64" t="n">
-        <v>10784111501.17859</v>
+        <v>11181494599.0525</v>
       </c>
       <c r="E64" t="n">
-        <v>1.314766776498941</v>
+        <v>1.302249485325679</v>
+      </c>
+      <c r="F64" t="n">
+        <v>3.684894187439314</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44852</v>
+        <v>44853</v>
       </c>
       <c r="B65" t="n">
-        <v>31.24475236760962</v>
+        <v>30.20117255023985</v>
       </c>
       <c r="C65" t="n">
-        <v>643752962.6927968</v>
+        <v>685750091.5759565</v>
       </c>
       <c r="D65" t="n">
-        <v>11181494599.0525</v>
+        <v>10820701606.868</v>
       </c>
       <c r="E65" t="n">
-        <v>1.302249485325697</v>
+        <v>1.339620170653262</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-3.226697370269882</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44853</v>
+        <v>44854</v>
       </c>
       <c r="B66" t="n">
-        <v>30.20117255023985</v>
+        <v>28.89683788744345</v>
       </c>
       <c r="C66" t="n">
-        <v>685750091.5759565</v>
+        <v>721536356.0827088</v>
       </c>
       <c r="D66" t="n">
-        <v>10820701606.868</v>
+        <v>10362112405.2089</v>
       </c>
       <c r="E66" t="n">
-        <v>1.339620170653279</v>
+        <v>1.468441090853626</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-4.238072708409502</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44854</v>
+        <v>44855</v>
       </c>
       <c r="B67" t="n">
-        <v>28.89683788744345</v>
+        <v>28.06621768305956</v>
       </c>
       <c r="C67" t="n">
-        <v>721536356.0827088</v>
+        <v>853073860.6320565</v>
       </c>
       <c r="D67" t="n">
-        <v>10362112405.2089</v>
+        <v>10052442946.74621</v>
       </c>
       <c r="E67" t="n">
-        <v>1.468441090853642</v>
+        <v>1.640609504459777</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-2.988478085868085</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44855</v>
+        <v>44856</v>
       </c>
       <c r="B68" t="n">
-        <v>28.06621768305956</v>
+        <v>28.10622423501482</v>
       </c>
       <c r="C68" t="n">
-        <v>853073860.6320565</v>
+        <v>1004074184.599853</v>
       </c>
       <c r="D68" t="n">
-        <v>10052442946.74621</v>
+        <v>10070949099.13305</v>
       </c>
       <c r="E68" t="n">
-        <v>1.640609504459791</v>
+        <v>1.777404147077656</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.1840960698297867</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44856</v>
+        <v>44857</v>
       </c>
       <c r="B69" t="n">
-        <v>28.10622423501482</v>
+        <v>28.02334387972493</v>
       </c>
       <c r="C69" t="n">
-        <v>1004074184.599853</v>
+        <v>488911345.3582951</v>
       </c>
       <c r="D69" t="n">
-        <v>10070949099.13305</v>
+        <v>10044295675.71076</v>
       </c>
       <c r="E69" t="n">
-        <v>1.777404147077669</v>
+        <v>1.909926696127234</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.2646565200552287</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44857</v>
+        <v>44858</v>
       </c>
       <c r="B70" t="n">
-        <v>28.02334387972493</v>
+        <v>29.23668869260259</v>
       </c>
       <c r="C70" t="n">
-        <v>488911345.3582951</v>
+        <v>670006995.1267443</v>
       </c>
       <c r="D70" t="n">
-        <v>10044295675.71076</v>
+        <v>10480620512.61209</v>
       </c>
       <c r="E70" t="n">
-        <v>1.909926696127246</v>
+        <v>1.92736708945315</v>
+      </c>
+      <c r="F70" t="n">
+        <v>4.344006299580117</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44858</v>
+        <v>44859</v>
       </c>
       <c r="B71" t="n">
-        <v>29.23668869260259</v>
+        <v>28.27000912814364</v>
       </c>
       <c r="C71" t="n">
-        <v>670006995.1267443</v>
+        <v>739684192.5144422</v>
       </c>
       <c r="D71" t="n">
-        <v>10480620512.61209</v>
+        <v>10121680743.46951</v>
       </c>
       <c r="E71" t="n">
-        <v>1.927367089453162</v>
+        <v>1.986610117815724</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-3.424795017724758</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44859</v>
+        <v>44860</v>
       </c>
       <c r="B72" t="n">
-        <v>28.27000912814364</v>
+        <v>30.94126246793174</v>
       </c>
       <c r="C72" t="n">
-        <v>739684192.5144422</v>
+        <v>1346256624.926342</v>
       </c>
       <c r="D72" t="n">
-        <v>10121680743.46951</v>
+        <v>11077575224.18006</v>
       </c>
       <c r="E72" t="n">
-        <v>1.986610117815736</v>
+        <v>1.981414945862773</v>
+      </c>
+      <c r="F72" t="n">
+        <v>9.444029158174105</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44860</v>
+        <v>44861</v>
       </c>
       <c r="B73" t="n">
-        <v>30.94126246793174</v>
+        <v>31.282585848386</v>
       </c>
       <c r="C73" t="n">
-        <v>1346256624.926342</v>
+        <v>1240751124.786092</v>
       </c>
       <c r="D73" t="n">
-        <v>11077575224.18006</v>
+        <v>11203611590.84031</v>
       </c>
       <c r="E73" t="n">
-        <v>1.981414945862784</v>
+        <v>1.92633666595968</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1.137761325106057</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44861</v>
+        <v>44862</v>
       </c>
       <c r="B74" t="n">
-        <v>31.282585848386</v>
+        <v>30.64534001773438</v>
       </c>
       <c r="C74" t="n">
-        <v>1240751124.786092</v>
+        <v>1179536961.858918</v>
       </c>
       <c r="D74" t="n">
-        <v>11203611590.84031</v>
+        <v>11016715358.28903</v>
       </c>
       <c r="E74" t="n">
-        <v>1.926336665959692</v>
+        <v>1.909909993753748</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-1.668178435461642</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44862</v>
+        <v>44863</v>
       </c>
       <c r="B75" t="n">
-        <v>30.64534001773438</v>
+        <v>32.11387302905561</v>
       </c>
       <c r="C75" t="n">
-        <v>1179536961.858918</v>
+        <v>1011210916.498229</v>
       </c>
       <c r="D75" t="n">
-        <v>11016715358.28903</v>
+        <v>11523992959.01783</v>
       </c>
       <c r="E75" t="n">
-        <v>1.90990999375376</v>
+        <v>1.877664601786728</v>
+      </c>
+      <c r="F75" t="n">
+        <v>4.604617476543238</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44863</v>
+        <v>44864</v>
       </c>
       <c r="B76" t="n">
-        <v>32.11387302905561</v>
+        <v>32.83944699956292</v>
       </c>
       <c r="C76" t="n">
-        <v>1011210916.498229</v>
+        <v>1095984786.703381</v>
       </c>
       <c r="D76" t="n">
-        <v>11523992959.01783</v>
+        <v>11775325291.52717</v>
       </c>
       <c r="E76" t="n">
-        <v>1.87766460178674</v>
+        <v>1.832699979264626</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2.180948334515076</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44864</v>
+        <v>44865</v>
       </c>
       <c r="B77" t="n">
-        <v>32.83944699956292</v>
+        <v>32.90718815746148</v>
       </c>
       <c r="C77" t="n">
-        <v>1095984786.703381</v>
+        <v>704167456.2532895</v>
       </c>
       <c r="D77" t="n">
-        <v>11775325291.52717</v>
+        <v>11772898715.5274</v>
       </c>
       <c r="E77" t="n">
-        <v>1.832699979264638</v>
+        <v>1.82028070465235</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.02060729482791235</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44865</v>
+        <v>44866</v>
       </c>
       <c r="B78" t="n">
-        <v>32.90718815746148</v>
+        <v>32.60126938508655</v>
       </c>
       <c r="C78" t="n">
-        <v>704167456.2532895</v>
+        <v>1142703750.61761</v>
       </c>
       <c r="D78" t="n">
-        <v>11772898715.5274</v>
+        <v>11727290548.40968</v>
       </c>
       <c r="E78" t="n">
-        <v>1.820280704652363</v>
+        <v>1.824063891327375</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.3873996389484602</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44866</v>
+        <v>44867</v>
       </c>
       <c r="B79" t="n">
-        <v>32.60126938508655</v>
+        <v>32.2410111655722</v>
       </c>
       <c r="C79" t="n">
-        <v>1142703750.61761</v>
+        <v>1299519862.882003</v>
       </c>
       <c r="D79" t="n">
-        <v>11727290548.40968</v>
+        <v>11588937673.91348</v>
       </c>
       <c r="E79" t="n">
-        <v>1.824063891327387</v>
+        <v>1.826810596815751</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-1.179751400590601</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44867</v>
+        <v>44868</v>
       </c>
       <c r="B80" t="n">
-        <v>32.2410111655722</v>
+        <v>30.78836855720497</v>
       </c>
       <c r="C80" t="n">
-        <v>1299519862.882003</v>
+        <v>1780701025.102764</v>
       </c>
       <c r="D80" t="n">
-        <v>11588937673.91348</v>
+        <v>11076265328.7699</v>
       </c>
       <c r="E80" t="n">
-        <v>1.826810596815763</v>
+        <v>1.794987682222341</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-4.423807941409541</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44868</v>
+        <v>44869</v>
       </c>
       <c r="B81" t="n">
-        <v>30.78836855720497</v>
+        <v>30.82660043805922</v>
       </c>
       <c r="C81" t="n">
-        <v>1780701025.102764</v>
+        <v>1419473857.644456</v>
       </c>
       <c r="D81" t="n">
-        <v>11076265328.7699</v>
+        <v>11061246430.4311</v>
       </c>
       <c r="E81" t="n">
-        <v>1.794987682222354</v>
+        <v>1.700832345448193</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.1355953283259659</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44869</v>
+        <v>44870</v>
       </c>
       <c r="B82" t="n">
-        <v>30.82660043805922</v>
+        <v>33.78843206020886</v>
       </c>
       <c r="C82" t="n">
-        <v>1419473857.644456</v>
+        <v>2002856945.822331</v>
       </c>
       <c r="D82" t="n">
-        <v>11061246430.4311</v>
+        <v>12137630163.18167</v>
       </c>
       <c r="E82" t="n">
-        <v>1.700832345448206</v>
+        <v>1.682394400401621</v>
+      </c>
+      <c r="F82" t="n">
+        <v>9.73112514507668</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44870</v>
+        <v>44871</v>
       </c>
       <c r="B83" t="n">
-        <v>33.78843206020886</v>
+        <v>36.71840210565971</v>
       </c>
       <c r="C83" t="n">
-        <v>2002856945.822331</v>
+        <v>3501844329.574087</v>
       </c>
       <c r="D83" t="n">
-        <v>12137630163.18167</v>
+        <v>13202283372.1165</v>
       </c>
       <c r="E83" t="n">
-        <v>1.682394400401635</v>
+        <v>1.940074059048053</v>
+      </c>
+      <c r="F83" t="n">
+        <v>8.77150806723661</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44871</v>
+        <v>44872</v>
       </c>
       <c r="B84" t="n">
-        <v>36.71840210565971</v>
+        <v>32.77319825330046</v>
       </c>
       <c r="C84" t="n">
-        <v>3501844329.574087</v>
+        <v>2458440631.199437</v>
       </c>
       <c r="D84" t="n">
-        <v>13202283372.1165</v>
+        <v>11783689545.40174</v>
       </c>
       <c r="E84" t="n">
-        <v>1.940074059048064</v>
+        <v>1.935507574091663</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-10.74506421904914</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44872</v>
+        <v>44873</v>
       </c>
       <c r="B85" t="n">
-        <v>32.77319825330046</v>
+        <v>29.54931719524218</v>
       </c>
       <c r="C85" t="n">
-        <v>2458440631.199437</v>
+        <v>3400112554.363026</v>
       </c>
       <c r="D85" t="n">
-        <v>11783689545.40174</v>
+        <v>10655109386.65207</v>
       </c>
       <c r="E85" t="n">
-        <v>1.935507574091675</v>
+        <v>1.932813131618993</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-9.577477023654835</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44873</v>
+        <v>44874</v>
       </c>
       <c r="B86" t="n">
-        <v>29.54931719524218</v>
+        <v>24.22811065725259</v>
       </c>
       <c r="C86" t="n">
-        <v>3400112554.363026</v>
+        <v>5868071366.150859</v>
       </c>
       <c r="D86" t="n">
-        <v>10655109386.65207</v>
+        <v>8815290464.791733</v>
       </c>
       <c r="E86" t="n">
-        <v>1.932813131619004</v>
+        <v>2.256101075517917</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-17.2670111126698</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44874</v>
+        <v>44875</v>
       </c>
       <c r="B87" t="n">
-        <v>24.22811065725259</v>
+        <v>14.00407006466583</v>
       </c>
       <c r="C87" t="n">
-        <v>5868071366.150859</v>
+        <v>4375833758.942842</v>
       </c>
       <c r="D87" t="n">
-        <v>8815290464.791733</v>
+        <v>5120135551.789889</v>
       </c>
       <c r="E87" t="n">
-        <v>2.256101075517927</v>
+        <v>3.775854519523699</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-41.91756275939279</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44875</v>
+        <v>44876</v>
       </c>
       <c r="B88" t="n">
-        <v>14.00407006466583</v>
+        <v>17.83559802154213</v>
       </c>
       <c r="C88" t="n">
-        <v>4375833758.942842</v>
+        <v>4179359302.113928</v>
       </c>
       <c r="D88" t="n">
-        <v>5120135551.789889</v>
+        <v>6419997387.603283</v>
       </c>
       <c r="E88" t="n">
-        <v>3.775854519523705</v>
+        <v>4.384324394145765</v>
+      </c>
+      <c r="F88" t="n">
+        <v>25.38725435421314</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44876</v>
+        <v>44877</v>
       </c>
       <c r="B89" t="n">
-        <v>17.83559802154213</v>
+        <v>16.62539193943823</v>
       </c>
       <c r="C89" t="n">
-        <v>4179359302.113928</v>
+        <v>2174804309.633887</v>
       </c>
       <c r="D89" t="n">
-        <v>6419997387.603283</v>
+        <v>5963504846.885816</v>
       </c>
       <c r="E89" t="n">
-        <v>4.384324394145771</v>
+        <v>4.975693461160418</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-7.110478605473158</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44877</v>
+        <v>44878</v>
       </c>
       <c r="B90" t="n">
-        <v>16.62539193943823</v>
+        <v>14.70548017812339</v>
       </c>
       <c r="C90" t="n">
-        <v>2174804309.633887</v>
+        <v>770041818.9233199</v>
       </c>
       <c r="D90" t="n">
-        <v>5963504846.885816</v>
+        <v>5331217054.927404</v>
       </c>
       <c r="E90" t="n">
-        <v>4.975693461160422</v>
+        <v>5.622644966361138</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-10.60262057619684</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44878</v>
+        <v>44879</v>
       </c>
       <c r="B91" t="n">
-        <v>14.70548017812339</v>
+        <v>13.25255722248109</v>
       </c>
       <c r="C91" t="n">
-        <v>770041818.9233199</v>
+        <v>782848284.1010079</v>
       </c>
       <c r="D91" t="n">
-        <v>5331217054.927404</v>
+        <v>4816392214.34615</v>
       </c>
       <c r="E91" t="n">
-        <v>5.622644966361142</v>
+        <v>6.276090197294125</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-9.656797599441658</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44879</v>
+        <v>44880</v>
       </c>
       <c r="B92" t="n">
-        <v>13.25255722248109</v>
+        <v>14.09661543502551</v>
       </c>
       <c r="C92" t="n">
-        <v>782848284.1010079</v>
+        <v>1300493081.080165</v>
       </c>
       <c r="D92" t="n">
-        <v>4816392214.34615</v>
+        <v>5121041157.026807</v>
       </c>
       <c r="E92" t="n">
-        <v>6.276090197294128</v>
+        <v>6.766181465539199</v>
+      </c>
+      <c r="F92" t="n">
+        <v>6.32525195463165</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44880</v>
+        <v>44881</v>
       </c>
       <c r="B93" t="n">
-        <v>14.09661543502551</v>
+        <v>14.35523917546698</v>
       </c>
       <c r="C93" t="n">
-        <v>1300493081.080165</v>
+        <v>811376855.5993807</v>
       </c>
       <c r="D93" t="n">
-        <v>5121041157.026807</v>
+        <v>5205583202.097879</v>
       </c>
       <c r="E93" t="n">
-        <v>6.766181465539202</v>
+        <v>7.160902089860699</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1.650876110516486</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44881</v>
+        <v>44882</v>
       </c>
       <c r="B94" t="n">
-        <v>14.35523917546698</v>
+        <v>14.35561933326262</v>
       </c>
       <c r="C94" t="n">
-        <v>811376855.5993807</v>
+        <v>478085250.6656857</v>
       </c>
       <c r="D94" t="n">
-        <v>5205583202.097879</v>
+        <v>5186877452.360098</v>
       </c>
       <c r="E94" t="n">
-        <v>7.160902089860701</v>
+        <v>7.475806189092342</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-0.3593401356113746</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44882</v>
+        <v>44883</v>
       </c>
       <c r="B95" t="n">
-        <v>14.35561933326262</v>
+        <v>13.6648684030464</v>
       </c>
       <c r="C95" t="n">
-        <v>478085250.6656857</v>
+        <v>651561392.8174475</v>
       </c>
       <c r="D95" t="n">
-        <v>5186877452.360098</v>
+        <v>4954608939.395693</v>
       </c>
       <c r="E95" t="n">
-        <v>7.475806189092345</v>
+        <v>7.794496022018243</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-4.478002711606766</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44883</v>
+        <v>44884</v>
       </c>
       <c r="B96" t="n">
-        <v>13.6648684030464</v>
+        <v>13.29763113703325</v>
       </c>
       <c r="C96" t="n">
-        <v>651561392.8174475</v>
+        <v>343052461.9175693</v>
       </c>
       <c r="D96" t="n">
-        <v>4954608939.395693</v>
+        <v>4831754494.869416</v>
       </c>
       <c r="E96" t="n">
-        <v>7.794496022018246</v>
+        <v>8.103568951299614</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-2.479599218203099</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44884</v>
+        <v>44885</v>
       </c>
       <c r="B97" t="n">
-        <v>13.29763113703325</v>
+        <v>12.8846816204462</v>
       </c>
       <c r="C97" t="n">
-        <v>343052461.9175693</v>
+        <v>300941946.4407269</v>
       </c>
       <c r="D97" t="n">
-        <v>4831754494.869416</v>
+        <v>4683383043.293358</v>
       </c>
       <c r="E97" t="n">
-        <v>8.103568951299618</v>
+        <v>8.400226926879341</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-3.070757252538514</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44885</v>
+        <v>44886</v>
       </c>
       <c r="B98" t="n">
-        <v>12.8846816204462</v>
+        <v>12.34545378191367</v>
       </c>
       <c r="C98" t="n">
-        <v>300941946.4407269</v>
+        <v>487321298.8382488</v>
       </c>
       <c r="D98" t="n">
-        <v>4683383043.293358</v>
+        <v>4470695233.321518</v>
       </c>
       <c r="E98" t="n">
-        <v>8.400226926879345</v>
+        <v>8.680861967599659</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-4.541328522688537</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44886</v>
+        <v>44887</v>
       </c>
       <c r="B99" t="n">
-        <v>12.34545378191367</v>
+        <v>11.9181341004265</v>
       </c>
       <c r="C99" t="n">
-        <v>487321298.8382488</v>
+        <v>484804704.0939548</v>
       </c>
       <c r="D99" t="n">
-        <v>4470695233.321518</v>
+        <v>4319145655.912079</v>
       </c>
       <c r="E99" t="n">
-        <v>8.680861967599661</v>
+        <v>8.941427288887658</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-3.389843626107447</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="B100" t="n">
-        <v>11.9181341004265</v>
+        <v>12.43518958219904</v>
       </c>
       <c r="C100" t="n">
-        <v>484804704.0939548</v>
+        <v>523436176.5272796</v>
       </c>
       <c r="D100" t="n">
-        <v>4319145655.912079</v>
+        <v>4530165523.577384</v>
       </c>
       <c r="E100" t="n">
-        <v>8.941427288887661</v>
+        <v>9.115995485058816</v>
+      </c>
+      <c r="F100" t="n">
+        <v>4.885685375682103</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44888</v>
+        <v>44889</v>
       </c>
       <c r="B101" t="n">
-        <v>12.43518958219904</v>
+        <v>14.41547582162108</v>
       </c>
       <c r="C101" t="n">
-        <v>523436176.5272796</v>
+        <v>846044003.9379725</v>
       </c>
       <c r="D101" t="n">
-        <v>4530165523.577384</v>
+        <v>5242384046.294304</v>
       </c>
       <c r="E101" t="n">
-        <v>9.115995485058818</v>
+        <v>9.204797171741127</v>
+      </c>
+      <c r="F101" t="n">
+        <v>15.72168873322966</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="B102" t="n">
-        <v>14.41547582162108</v>
+        <v>14.59250390329501</v>
       </c>
       <c r="C102" t="n">
-        <v>846044003.9379725</v>
+        <v>618848577.7768759</v>
       </c>
       <c r="D102" t="n">
-        <v>5242384046.294304</v>
+        <v>5295975306.296668</v>
       </c>
       <c r="E102" t="n">
-        <v>9.204797171741131</v>
+        <v>9.19101797683115</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1.022268867162568</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44890</v>
+        <v>44891</v>
       </c>
       <c r="B103" t="n">
-        <v>14.59250390329501</v>
+        <v>14.07560537222766</v>
       </c>
       <c r="C103" t="n">
-        <v>618848577.7768759</v>
+        <v>360308376.5548972</v>
       </c>
       <c r="D103" t="n">
-        <v>5295975306.296668</v>
+        <v>5120779702.054626</v>
       </c>
       <c r="E103" t="n">
-        <v>9.191017976831152</v>
+        <v>9.145957142468337</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-3.30808952288244</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44891</v>
+        <v>44892</v>
       </c>
       <c r="B104" t="n">
-        <v>14.07560537222766</v>
+        <v>14.16518922335178</v>
       </c>
       <c r="C104" t="n">
-        <v>360308376.5548972</v>
+        <v>375214637.0139425</v>
       </c>
       <c r="D104" t="n">
-        <v>5120779702.054626</v>
+        <v>5142450538.968229</v>
       </c>
       <c r="E104" t="n">
-        <v>9.145957142468339</v>
+        <v>9.084616429061834</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.4231940871213036</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44892</v>
+        <v>44893</v>
       </c>
       <c r="B105" t="n">
-        <v>14.16518922335178</v>
+        <v>14.10642830697051</v>
       </c>
       <c r="C105" t="n">
-        <v>375214637.0139425</v>
+        <v>255763021.7576761</v>
       </c>
       <c r="D105" t="n">
-        <v>5142450538.968229</v>
+        <v>5138320693.997138</v>
       </c>
       <c r="E105" t="n">
-        <v>9.084616429061835</v>
+        <v>8.928556369634894</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-0.08030889047538903</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="B106" t="n">
-        <v>14.10642830697051</v>
+        <v>13.34310297729933</v>
       </c>
       <c r="C106" t="n">
-        <v>255763021.7576761</v>
+        <v>503946286.2775735</v>
       </c>
       <c r="D106" t="n">
-        <v>5138320693.997138</v>
+        <v>4848821246.040962</v>
       </c>
       <c r="E106" t="n">
-        <v>8.928556369634896</v>
+        <v>8.709792512928388</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-5.634125723106087</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="B107" t="n">
-        <v>13.34310297729933</v>
+        <v>13.37408532950732</v>
       </c>
       <c r="C107" t="n">
-        <v>503946286.2775735</v>
+        <v>298911192.2227095</v>
       </c>
       <c r="D107" t="n">
-        <v>4848821246.040962</v>
+        <v>4865903266.783448</v>
       </c>
       <c r="E107" t="n">
-        <v>8.70979251292839</v>
+        <v>8.429222889290795</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.3522922350753577</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="B108" t="n">
-        <v>13.37408532950732</v>
+        <v>14.14710483919421</v>
       </c>
       <c r="C108" t="n">
-        <v>298911192.2227095</v>
+        <v>302419321.5309636</v>
       </c>
       <c r="D108" t="n">
-        <v>4865903266.783448</v>
+        <v>5160133742.783542</v>
       </c>
       <c r="E108" t="n">
-        <v>8.429222889290797</v>
+        <v>8.087379816982823</v>
+      </c>
+      <c r="F108" t="n">
+        <v>6.046780214654612</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44896</v>
+        <v>44897</v>
       </c>
       <c r="B109" t="n">
-        <v>14.14710483919421</v>
+        <v>13.50918141404997</v>
       </c>
       <c r="C109" t="n">
-        <v>302419321.5309636</v>
+        <v>268679954.0516648</v>
       </c>
       <c r="D109" t="n">
-        <v>5160133742.783542</v>
+        <v>4905910344.469534</v>
       </c>
       <c r="E109" t="n">
-        <v>8.087379816982825</v>
+        <v>7.714841469197697</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-4.92668234945538</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44897</v>
+        <v>44898</v>
       </c>
       <c r="B110" t="n">
-        <v>13.50918141404997</v>
+        <v>13.76546320710277</v>
       </c>
       <c r="C110" t="n">
-        <v>268679954.0516648</v>
+        <v>285026800.2964149</v>
       </c>
       <c r="D110" t="n">
-        <v>4905910344.469534</v>
+        <v>5000690502.576446</v>
       </c>
       <c r="E110" t="n">
-        <v>7.714841469197698</v>
+        <v>7.360134466987658</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1.931958626470998</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44898</v>
+        <v>44899</v>
       </c>
       <c r="B111" t="n">
-        <v>13.76546320710277</v>
+        <v>13.33439706523369</v>
       </c>
       <c r="C111" t="n">
-        <v>285026800.2964149</v>
+        <v>197683828.1947198</v>
       </c>
       <c r="D111" t="n">
-        <v>5000690502.576446</v>
+        <v>4863696934.396812</v>
       </c>
       <c r="E111" t="n">
-        <v>7.36013446698766</v>
+        <v>6.944058925539355</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-2.739493038192453</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44899</v>
+        <v>44900</v>
       </c>
       <c r="B112" t="n">
-        <v>13.33439706523369</v>
+        <v>13.77680995818705</v>
       </c>
       <c r="C112" t="n">
-        <v>197683828.1947198</v>
+        <v>173958273.4033194</v>
       </c>
       <c r="D112" t="n">
-        <v>4863696934.396812</v>
+        <v>5008063958.883705</v>
       </c>
       <c r="E112" t="n">
-        <v>6.944058925539358</v>
+        <v>6.180560984597517</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2.968256995330165</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44900</v>
+        <v>44901</v>
       </c>
       <c r="B113" t="n">
-        <v>13.77680995818705</v>
+        <v>13.87360844499421</v>
       </c>
       <c r="C113" t="n">
-        <v>173958273.4033194</v>
+        <v>383499016.8014849</v>
       </c>
       <c r="D113" t="n">
-        <v>5008063958.883705</v>
+        <v>5053925412.5079</v>
       </c>
       <c r="E113" t="n">
-        <v>6.18056098459752</v>
+        <v>4.821861644938465</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.915752154938887</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44901</v>
+        <v>44902</v>
       </c>
       <c r="B114" t="n">
-        <v>13.87360844499421</v>
+        <v>14.2977078768985</v>
       </c>
       <c r="C114" t="n">
-        <v>383499016.8014849</v>
+        <v>333400205.3605979</v>
       </c>
       <c r="D114" t="n">
-        <v>5053925412.5079</v>
+        <v>5195420302.808301</v>
       </c>
       <c r="E114" t="n">
-        <v>4.821861644938468</v>
+        <v>3.539247607108336</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2.799702780539981</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44902</v>
+        <v>44903</v>
       </c>
       <c r="B115" t="n">
-        <v>14.2977078768985</v>
+        <v>13.53682603430191</v>
       </c>
       <c r="C115" t="n">
-        <v>333400205.3605979</v>
+        <v>272839148.557638</v>
       </c>
       <c r="D115" t="n">
-        <v>5195420302.808301</v>
+        <v>4939250221.600364</v>
       </c>
       <c r="E115" t="n">
-        <v>3.53924760710834</v>
+        <v>2.190272080095371</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-4.930690228651347</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44903</v>
+        <v>44904</v>
       </c>
       <c r="B116" t="n">
-        <v>13.53682603430191</v>
+        <v>13.69315435169355</v>
       </c>
       <c r="C116" t="n">
-        <v>272839148.557638</v>
+        <v>236384884.0596055</v>
       </c>
       <c r="D116" t="n">
-        <v>4939250221.600364</v>
+        <v>5016573038.668547</v>
       </c>
       <c r="E116" t="n">
-        <v>2.190272080095378</v>
+        <v>1.125625255966841</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1.565476815287359</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44904</v>
+        <v>44905</v>
       </c>
       <c r="B117" t="n">
-        <v>13.69315435169355</v>
+        <v>13.61294224548676</v>
       </c>
       <c r="C117" t="n">
-        <v>236384884.0596055</v>
+        <v>257533932.1898586</v>
       </c>
       <c r="D117" t="n">
-        <v>5016573038.668547</v>
+        <v>4985978110.515763</v>
       </c>
       <c r="E117" t="n">
-        <v>1.125625255966855</v>
+        <v>1.126955433320232</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-0.6098770598365166</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44905</v>
+        <v>44906</v>
       </c>
       <c r="B118" t="n">
-        <v>13.61294224548676</v>
+        <v>13.58588106044847</v>
       </c>
       <c r="C118" t="n">
-        <v>257533932.1898586</v>
+        <v>123957064.3412863</v>
       </c>
       <c r="D118" t="n">
-        <v>4985978110.515763</v>
+        <v>4967608679.209892</v>
       </c>
       <c r="E118" t="n">
-        <v>1.126955433320246</v>
+        <v>0.8499419063164716</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-0.3684218201264966</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44906</v>
+        <v>44907</v>
       </c>
       <c r="B119" t="n">
-        <v>13.58588106044847</v>
+        <v>13.43947528747435</v>
       </c>
       <c r="C119" t="n">
-        <v>123957064.3412863</v>
+        <v>132233094.8149639</v>
       </c>
       <c r="D119" t="n">
-        <v>4967608679.209892</v>
+        <v>4920995808.77367</v>
       </c>
       <c r="E119" t="n">
-        <v>0.84994190631649</v>
+        <v>0.6585321859154787</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-0.9383361984872773</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44907</v>
+        <v>44908</v>
       </c>
       <c r="B120" t="n">
-        <v>13.43947528747435</v>
+        <v>13.3239567808878</v>
       </c>
       <c r="C120" t="n">
-        <v>132233094.8149639</v>
+        <v>250950456.2868181</v>
       </c>
       <c r="D120" t="n">
-        <v>4920995808.77367</v>
+        <v>4889774456.96242</v>
       </c>
       <c r="E120" t="n">
-        <v>0.6585321859155024</v>
+        <v>0.6310078534316645</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-0.6344519082008948</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44908</v>
+        <v>44909</v>
       </c>
       <c r="B121" t="n">
-        <v>13.3239567808878</v>
+        <v>13.82805931346774</v>
       </c>
       <c r="C121" t="n">
-        <v>250950456.2868181</v>
+        <v>388863061.3096085</v>
       </c>
       <c r="D121" t="n">
-        <v>4889774456.96242</v>
+        <v>5067860068.029484</v>
       </c>
       <c r="E121" t="n">
-        <v>0.6310078534316894</v>
+        <v>0.6282200974393645</v>
+      </c>
+      <c r="F121" t="n">
+        <v>3.642000518316202</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44909</v>
+        <v>44910</v>
       </c>
       <c r="B122" t="n">
-        <v>13.82805931346774</v>
+        <v>14.14913260895013</v>
       </c>
       <c r="C122" t="n">
-        <v>388863061.3096085</v>
+        <v>531056515.2151283</v>
       </c>
       <c r="D122" t="n">
-        <v>5067860068.029484</v>
+        <v>5187094164.825271</v>
       </c>
       <c r="E122" t="n">
-        <v>0.6282200974393894</v>
+        <v>0.6296127530093615</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2.352750375804047</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44910</v>
+        <v>44911</v>
       </c>
       <c r="B123" t="n">
-        <v>14.14913260895013</v>
+        <v>13.99445500184834</v>
       </c>
       <c r="C123" t="n">
-        <v>531056515.2151283</v>
+        <v>320493477.5260672</v>
       </c>
       <c r="D123" t="n">
-        <v>5187094164.825271</v>
+        <v>5134598270.270708</v>
       </c>
       <c r="E123" t="n">
-        <v>0.6296127530093864</v>
+        <v>0.6188353000977665</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-1.012048227513351</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44911</v>
+        <v>44912</v>
       </c>
       <c r="B124" t="n">
-        <v>13.99445500184834</v>
+        <v>12.27226283287941</v>
       </c>
       <c r="C124" t="n">
-        <v>320493477.5260672</v>
+        <v>416039758.0609483</v>
       </c>
       <c r="D124" t="n">
-        <v>5134598270.270708</v>
+        <v>4487828854.561585</v>
       </c>
       <c r="E124" t="n">
-        <v>0.6188353000977919</v>
+        <v>0.6504631245558317</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-12.59630026858992</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44912</v>
+        <v>44913</v>
       </c>
       <c r="B125" t="n">
-        <v>12.27226283287941</v>
+        <v>12.52581506501805</v>
       </c>
       <c r="C125" t="n">
-        <v>416039758.0609483</v>
+        <v>277076734.499642</v>
       </c>
       <c r="D125" t="n">
-        <v>4487828854.561585</v>
+        <v>4589791879.193693</v>
       </c>
       <c r="E125" t="n">
-        <v>0.6504631245558559</v>
+        <v>0.6767602333858543</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2.271990040985394</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44913</v>
+        <v>44914</v>
       </c>
       <c r="B126" t="n">
-        <v>12.52581506501805</v>
+        <v>12.41658046313826</v>
       </c>
       <c r="C126" t="n">
-        <v>277076734.499642</v>
+        <v>127947867.9923484</v>
       </c>
       <c r="D126" t="n">
-        <v>4589791879.193693</v>
+        <v>4577684410.907368</v>
       </c>
       <c r="E126" t="n">
-        <v>0.6767602333858775</v>
+        <v>0.7052878530035476</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-0.2637912263780517</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="B127" t="n">
-        <v>12.41658046313826</v>
+        <v>11.93566235433142</v>
       </c>
       <c r="C127" t="n">
-        <v>127947867.9923484</v>
+        <v>240138137.9481924</v>
       </c>
       <c r="D127" t="n">
-        <v>4577684410.907368</v>
+        <v>4386451838.861884</v>
       </c>
       <c r="E127" t="n">
-        <v>0.7052878530035698</v>
+        <v>0.7530965459921198</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-4.177495757239813</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="B128" t="n">
-        <v>11.93566235433142</v>
+        <v>12.28054982283715</v>
       </c>
       <c r="C128" t="n">
-        <v>240138137.9481924</v>
+        <v>203088901.0244321</v>
       </c>
       <c r="D128" t="n">
-        <v>4386451838.861884</v>
+        <v>4505699073.905926</v>
       </c>
       <c r="E128" t="n">
-        <v>0.7530965459921407</v>
+        <v>0.756493317507917</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2.718535149242207</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44916</v>
+        <v>44917</v>
       </c>
       <c r="B129" t="n">
-        <v>12.28054982283715</v>
+        <v>12.11942877913921</v>
       </c>
       <c r="C129" t="n">
-        <v>203088901.0244321</v>
+        <v>189500696.8576461</v>
       </c>
       <c r="D129" t="n">
-        <v>4505699073.905926</v>
+        <v>4442285590.081545</v>
       </c>
       <c r="E129" t="n">
-        <v>0.7564933175079377</v>
+        <v>0.7431438829398026</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-1.407406104673758</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44917</v>
+        <v>44918</v>
       </c>
       <c r="B130" t="n">
-        <v>12.11942877913921</v>
+        <v>11.79471228911481</v>
       </c>
       <c r="C130" t="n">
-        <v>189500696.8576461</v>
+        <v>205996063.5882995</v>
       </c>
       <c r="D130" t="n">
-        <v>4442285590.081545</v>
+        <v>4304981639.738414</v>
       </c>
       <c r="E130" t="n">
-        <v>0.7431438829398237</v>
+        <v>0.7819135826551833</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-3.090840234353565</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44918</v>
+        <v>44919</v>
       </c>
       <c r="B131" t="n">
-        <v>11.79471228911481</v>
+        <v>11.800554937017</v>
       </c>
       <c r="C131" t="n">
-        <v>205996063.5882995</v>
+        <v>177437763.3952436</v>
       </c>
       <c r="D131" t="n">
-        <v>4304981639.738414</v>
+        <v>4327532615.708606</v>
       </c>
       <c r="E131" t="n">
-        <v>0.7819135826552033</v>
+        <v>0.8148088803162661</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.5238344285148244</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44919</v>
+        <v>44920</v>
       </c>
       <c r="B132" t="n">
-        <v>11.800554937017</v>
+        <v>11.47031969396851</v>
       </c>
       <c r="C132" t="n">
-        <v>177437763.3952436</v>
+        <v>226479857.4665806</v>
       </c>
       <c r="D132" t="n">
-        <v>4327532615.708606</v>
+        <v>4207271979.819264</v>
       </c>
       <c r="E132" t="n">
-        <v>0.8148088803162854</v>
+        <v>0.8500194081765723</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-2.778965442173797</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44920</v>
+        <v>44921</v>
       </c>
       <c r="B133" t="n">
-        <v>11.47031969396851</v>
+        <v>11.40096665370274</v>
       </c>
       <c r="C133" t="n">
-        <v>226479857.4665806</v>
+        <v>112713128.3584248</v>
       </c>
       <c r="D133" t="n">
-        <v>4207271979.819264</v>
+        <v>4185139946.609006</v>
       </c>
       <c r="E133" t="n">
-        <v>0.8500194081765907</v>
+        <v>0.8994431249715864</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-0.5260423694122163</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44921</v>
+        <v>44922</v>
       </c>
       <c r="B134" t="n">
-        <v>11.40096665370274</v>
+        <v>11.30130646651787</v>
       </c>
       <c r="C134" t="n">
-        <v>112713128.3584248</v>
+        <v>151024935.728432</v>
       </c>
       <c r="D134" t="n">
-        <v>4185139946.609006</v>
+        <v>4147178331.195879</v>
       </c>
       <c r="E134" t="n">
-        <v>0.8994431249716038</v>
+        <v>0.9403956478991237</v>
+      </c>
+      <c r="F134" t="n">
+        <v>-0.9070572525032516</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44922</v>
+        <v>44923</v>
       </c>
       <c r="B135" t="n">
-        <v>11.30130646651787</v>
+        <v>11.08034890352517</v>
       </c>
       <c r="C135" t="n">
-        <v>151024935.728432</v>
+        <v>260619507.5239311</v>
       </c>
       <c r="D135" t="n">
-        <v>4147178331.195879</v>
+        <v>4063717880.57174</v>
       </c>
       <c r="E135" t="n">
-        <v>0.9403956478991403</v>
+        <v>0.9862344663894188</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-2.012463510342266</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44923</v>
+        <v>44924</v>
       </c>
       <c r="B136" t="n">
-        <v>11.08034890352517</v>
+        <v>9.770824845767208</v>
       </c>
       <c r="C136" t="n">
-        <v>260619507.5239311</v>
+        <v>524688006.4445435</v>
       </c>
       <c r="D136" t="n">
-        <v>4063717880.57174</v>
+        <v>3585609635.800174</v>
       </c>
       <c r="E136" t="n">
-        <v>0.9862344663894347</v>
+        <v>1.142435041169463</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-11.76529126338611</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44924</v>
+        <v>44925</v>
       </c>
       <c r="B137" t="n">
-        <v>9.770824845767208</v>
+        <v>9.597795220448539</v>
       </c>
       <c r="C137" t="n">
-        <v>524688006.4445435</v>
+        <v>838317810.1546487</v>
       </c>
       <c r="D137" t="n">
-        <v>3585609635.800174</v>
+        <v>3537484124.794323</v>
       </c>
       <c r="E137" t="n">
-        <v>1.142435041169477</v>
+        <v>1.281891655870669</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-1.342184897244414</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44925</v>
+        <v>44926</v>
       </c>
       <c r="B138" t="n">
-        <v>9.597795220448539</v>
+        <v>9.888231243760044</v>
       </c>
       <c r="C138" t="n">
-        <v>838317810.1546487</v>
+        <v>996392621.605559</v>
       </c>
       <c r="D138" t="n">
-        <v>3537484124.794323</v>
+        <v>3630516626.225645</v>
       </c>
       <c r="E138" t="n">
-        <v>1.281891655870681</v>
+        <v>1.352416026870108</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2.629905835598079</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44926</v>
+        <v>44927</v>
       </c>
       <c r="B139" t="n">
-        <v>9.888231243760044</v>
+        <v>9.961462943297743</v>
       </c>
       <c r="C139" t="n">
-        <v>996392621.605559</v>
+        <v>328903351.5201616</v>
       </c>
       <c r="D139" t="n">
-        <v>3630516626.225645</v>
+        <v>3663707629.852621</v>
       </c>
       <c r="E139" t="n">
-        <v>1.35241602687012</v>
+        <v>1.421631888049683</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.9142226036706447</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44927</v>
+        <v>44928</v>
       </c>
       <c r="B140" t="n">
-        <v>9.961462943297743</v>
+        <v>9.973949402565085</v>
       </c>
       <c r="C140" t="n">
-        <v>328903351.5201616</v>
+        <v>220369604.5270944</v>
       </c>
       <c r="D140" t="n">
-        <v>3663707629.852621</v>
+        <v>3670345897.629763</v>
       </c>
       <c r="E140" t="n">
-        <v>1.421631888049694</v>
+        <v>1.469393017582538</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.1811898887087215</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44928</v>
+        <v>44929</v>
       </c>
       <c r="B141" t="n">
-        <v>9.973949402565085</v>
+        <v>11.26637743011235</v>
       </c>
       <c r="C141" t="n">
-        <v>220369604.5270944</v>
+        <v>612350127.506016</v>
       </c>
       <c r="D141" t="n">
-        <v>3670345897.629763</v>
+        <v>4150541190.495974</v>
       </c>
       <c r="E141" t="n">
-        <v>1.469393017582549</v>
+        <v>1.469379349102352</v>
+      </c>
+      <c r="F141" t="n">
+        <v>13.0831073217462</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44929</v>
+        <v>44930</v>
       </c>
       <c r="B142" t="n">
-        <v>11.26637743011235</v>
+        <v>13.35539239265287</v>
       </c>
       <c r="C142" t="n">
-        <v>612350127.506016</v>
+        <v>1332758654.081999</v>
       </c>
       <c r="D142" t="n">
-        <v>4150541190.495974</v>
+        <v>4897985570.664733</v>
       </c>
       <c r="E142" t="n">
-        <v>1.469379349102362</v>
+        <v>1.456391373841793</v>
+      </c>
+      <c r="F142" t="n">
+        <v>18.00835953345743</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44930</v>
+        <v>44931</v>
       </c>
       <c r="B143" t="n">
-        <v>13.35539239265287</v>
+        <v>13.45629270224321</v>
       </c>
       <c r="C143" t="n">
-        <v>1332758654.081999</v>
+        <v>1282105634.643746</v>
       </c>
       <c r="D143" t="n">
-        <v>4897985570.664733</v>
+        <v>4953205509.879085</v>
       </c>
       <c r="E143" t="n">
-        <v>1.456391373841804</v>
+        <v>1.442289367849566</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1.127401018595853</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44931</v>
+        <v>44932</v>
       </c>
       <c r="B144" t="n">
-        <v>13.45629270224321</v>
+        <v>13.4384801751579</v>
       </c>
       <c r="C144" t="n">
-        <v>1282105634.643746</v>
+        <v>597269711.7742606</v>
       </c>
       <c r="D144" t="n">
-        <v>4953205509.879085</v>
+        <v>4943576397.427822</v>
       </c>
       <c r="E144" t="n">
-        <v>1.442289367849577</v>
+        <v>1.408096765903274</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-0.1944016340944765</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44932</v>
+        <v>44933</v>
       </c>
       <c r="B145" t="n">
-        <v>13.4384801751579</v>
+        <v>13.52449342211224</v>
       </c>
       <c r="C145" t="n">
-        <v>597269711.7742606</v>
+        <v>488298544.7133179</v>
       </c>
       <c r="D145" t="n">
-        <v>4943576397.427822</v>
+        <v>4984816083.874325</v>
       </c>
       <c r="E145" t="n">
-        <v>1.408096765903285</v>
+        <v>1.40769750183049</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.8342075277315342</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44933</v>
+        <v>44934</v>
       </c>
       <c r="B146" t="n">
-        <v>13.52449342211224</v>
+        <v>13.08890414842435</v>
       </c>
       <c r="C146" t="n">
-        <v>488298544.7133179</v>
+        <v>206848508.9148826</v>
       </c>
       <c r="D146" t="n">
-        <v>4984816083.874325</v>
+        <v>4837378850.913317</v>
       </c>
       <c r="E146" t="n">
-        <v>1.407697501830501</v>
+        <v>1.389934920779325</v>
+      </c>
+      <c r="F146" t="n">
+        <v>-2.957726633846358</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44934</v>
+        <v>44935</v>
       </c>
       <c r="B147" t="n">
-        <v>13.08890414842435</v>
+        <v>14.36607114609102</v>
       </c>
       <c r="C147" t="n">
-        <v>206848508.9148826</v>
+        <v>641916931.2187709</v>
       </c>
       <c r="D147" t="n">
-        <v>4837378850.913317</v>
+        <v>5151917607.84378</v>
       </c>
       <c r="E147" t="n">
-        <v>1.389934920779337</v>
+        <v>1.422958869766295</v>
+      </c>
+      <c r="F147" t="n">
+        <v>6.502256007322571</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="B148" t="n">
-        <v>14.36607114609102</v>
+        <v>16.30229977994874</v>
       </c>
       <c r="C148" t="n">
-        <v>641916931.2187709</v>
+        <v>1889438468.28863</v>
       </c>
       <c r="D148" t="n">
-        <v>5151917607.84378</v>
+        <v>6031956017.044448</v>
       </c>
       <c r="E148" t="n">
-        <v>1.422958869766306</v>
+        <v>1.589924516793803</v>
+      </c>
+      <c r="F148" t="n">
+        <v>17.08176403793438</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="B149" t="n">
-        <v>16.30229977994874</v>
+        <v>16.20319360841163</v>
       </c>
       <c r="C149" t="n">
-        <v>1889438468.28863</v>
+        <v>854036815.4897147</v>
       </c>
       <c r="D149" t="n">
-        <v>6031956017.044448</v>
+        <v>6001548952.666129</v>
       </c>
       <c r="E149" t="n">
-        <v>1.589924516793813</v>
+        <v>1.731722027946125</v>
+      </c>
+      <c r="F149" t="n">
+        <v>-0.50409957056049</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="B150" t="n">
-        <v>16.20319360841163</v>
+        <v>16.46340402724883</v>
       </c>
       <c r="C150" t="n">
-        <v>854036815.4897147</v>
+        <v>749738092.7270372</v>
       </c>
       <c r="D150" t="n">
-        <v>6001548952.666129</v>
+        <v>6106281178.181655</v>
       </c>
       <c r="E150" t="n">
-        <v>1.731722027946134</v>
+        <v>1.878365568274927</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1.745086582506339</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44938</v>
+        <v>44939</v>
       </c>
       <c r="B151" t="n">
-        <v>16.46340402724883</v>
+        <v>16.61574768833509</v>
       </c>
       <c r="C151" t="n">
-        <v>749738092.7270372</v>
+        <v>948123277.6083641</v>
       </c>
       <c r="D151" t="n">
-        <v>6106281178.181655</v>
+        <v>6160624328.048672</v>
       </c>
       <c r="E151" t="n">
-        <v>1.878365568274935</v>
+        <v>2.010583871078243</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.8899549215190206</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44939</v>
+        <v>44940</v>
       </c>
       <c r="B152" t="n">
-        <v>16.61574768833509</v>
+        <v>18.27973459369657</v>
       </c>
       <c r="C152" t="n">
-        <v>948123277.6083641</v>
+        <v>1221076768.198037</v>
       </c>
       <c r="D152" t="n">
-        <v>6160624328.048672</v>
+        <v>6767551967.350333</v>
       </c>
       <c r="E152" t="n">
-        <v>2.01058387107825</v>
+        <v>2.248162171804098</v>
+      </c>
+      <c r="F152" t="n">
+        <v>9.85172292584673</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44940</v>
+        <v>44941</v>
       </c>
       <c r="B153" t="n">
-        <v>18.27973459369657</v>
+        <v>24.30286202025229</v>
       </c>
       <c r="C153" t="n">
-        <v>1221076768.198037</v>
+        <v>4130184710.826154</v>
       </c>
       <c r="D153" t="n">
-        <v>6767551967.350333</v>
+        <v>9066218089.522646</v>
       </c>
       <c r="E153" t="n">
-        <v>2.248162171804105</v>
+        <v>3.081264808597886</v>
+      </c>
+      <c r="F153" t="n">
+        <v>33.96599144361352</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44941</v>
+        <v>44942</v>
       </c>
       <c r="B154" t="n">
-        <v>24.30286202025229</v>
+        <v>22.83752328678119</v>
       </c>
       <c r="C154" t="n">
-        <v>4130184710.826154</v>
+        <v>1967106481.943411</v>
       </c>
       <c r="D154" t="n">
-        <v>9066218089.522646</v>
+        <v>8465167529.981883</v>
       </c>
       <c r="E154" t="n">
-        <v>3.081264808597891</v>
+        <v>3.553873100580875</v>
+      </c>
+      <c r="F154" t="n">
+        <v>-6.629562112953868</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="B155" t="n">
-        <v>22.83752328678119</v>
+        <v>23.58595194500377</v>
       </c>
       <c r="C155" t="n">
-        <v>1967106481.943411</v>
+        <v>1775938541.45958</v>
       </c>
       <c r="D155" t="n">
-        <v>8465167529.981883</v>
+        <v>8762954564.82465</v>
       </c>
       <c r="E155" t="n">
-        <v>3.553873100580879</v>
+        <v>4.002491361691853</v>
+      </c>
+      <c r="F155" t="n">
+        <v>3.517792575138845</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44943</v>
+        <v>44944</v>
       </c>
       <c r="B156" t="n">
-        <v>23.58595194500377</v>
+        <v>22.88158744195828</v>
       </c>
       <c r="C156" t="n">
-        <v>1775938541.45958</v>
+        <v>1033549762.133645</v>
       </c>
       <c r="D156" t="n">
-        <v>8762954564.82465</v>
+        <v>8525510205.462621</v>
       </c>
       <c r="E156" t="n">
-        <v>4.002491361691857</v>
+        <v>4.321450642850785</v>
+      </c>
+      <c r="F156" t="n">
+        <v>-2.709638143225734</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44944</v>
+        <v>44945</v>
       </c>
       <c r="B157" t="n">
-        <v>22.88158744195828</v>
+        <v>20.85763434507722</v>
       </c>
       <c r="C157" t="n">
-        <v>1033549762.133645</v>
+        <v>1543991743.304109</v>
       </c>
       <c r="D157" t="n">
-        <v>8525510205.462621</v>
+        <v>7710048711.615839</v>
       </c>
       <c r="E157" t="n">
-        <v>4.321450642850789</v>
+        <v>4.468670049705555</v>
+      </c>
+      <c r="F157" t="n">
+        <v>-9.564958274570879</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44945</v>
+        <v>44946</v>
       </c>
       <c r="B158" t="n">
-        <v>20.85763434507722</v>
+        <v>21.41456003084829</v>
       </c>
       <c r="C158" t="n">
-        <v>1543991743.304109</v>
+        <v>898504341.2684329</v>
       </c>
       <c r="D158" t="n">
-        <v>7710048711.615839</v>
+        <v>7934995923.191625</v>
       </c>
       <c r="E158" t="n">
-        <v>4.468670049705558</v>
+        <v>4.624750402003527</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2.917584829741515</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44946</v>
+        <v>44947</v>
       </c>
       <c r="B159" t="n">
-        <v>21.41456003084829</v>
+        <v>25.57583487231888</v>
       </c>
       <c r="C159" t="n">
-        <v>898504341.2684329</v>
+        <v>1527407710.515736</v>
       </c>
       <c r="D159" t="n">
-        <v>7934995923.191625</v>
+        <v>9489394201.957804</v>
       </c>
       <c r="E159" t="n">
-        <v>4.62475040200353</v>
+        <v>4.998598007615989</v>
+      </c>
+      <c r="F159" t="n">
+        <v>19.58915031352615</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44947</v>
+        <v>44948</v>
       </c>
       <c r="B160" t="n">
-        <v>25.57583487231888</v>
+        <v>24.66528659481628</v>
       </c>
       <c r="C160" t="n">
-        <v>1527407710.515736</v>
+        <v>2096626033.253557</v>
       </c>
       <c r="D160" t="n">
-        <v>9489394201.957804</v>
+        <v>9143727538.633389</v>
       </c>
       <c r="E160" t="n">
-        <v>4.998598007615992</v>
+        <v>5.243025838348873</v>
+      </c>
+      <c r="F160" t="n">
+        <v>-3.642663124407863</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44948</v>
+        <v>44949</v>
       </c>
       <c r="B161" t="n">
-        <v>24.66528659481628</v>
+        <v>24.27183489555519</v>
       </c>
       <c r="C161" t="n">
-        <v>2096626033.253557</v>
+        <v>970991825.3141448</v>
       </c>
       <c r="D161" t="n">
-        <v>9143727538.633389</v>
+        <v>9004757973.453108</v>
       </c>
       <c r="E161" t="n">
-        <v>5.243025838348876</v>
+        <v>5.420796548103502</v>
+      </c>
+      <c r="F161" t="n">
+        <v>-1.519834931575959</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44949</v>
+        <v>44950</v>
       </c>
       <c r="B162" t="n">
-        <v>24.27183489555519</v>
+        <v>24.42662802224712</v>
       </c>
       <c r="C162" t="n">
-        <v>970991825.3141448</v>
+        <v>917151760.5324672</v>
       </c>
       <c r="D162" t="n">
-        <v>9004757973.453108</v>
+        <v>9057978593.358006</v>
       </c>
       <c r="E162" t="n">
-        <v>5.420796548103506</v>
+        <v>5.558544801598756</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.591027766229768</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44950</v>
+        <v>44951</v>
       </c>
       <c r="B163" t="n">
-        <v>24.42662802224712</v>
+        <v>22.78934007599917</v>
       </c>
       <c r="C163" t="n">
-        <v>917151760.5324672</v>
+        <v>855305584.5316638</v>
       </c>
       <c r="D163" t="n">
-        <v>9057978593.358006</v>
+        <v>8470454667.826591</v>
       </c>
       <c r="E163" t="n">
-        <v>5.558544801598758</v>
+        <v>5.589088008635018</v>
+      </c>
+      <c r="F163" t="n">
+        <v>-6.486258710770532</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44951</v>
+        <v>44952</v>
       </c>
       <c r="B164" t="n">
-        <v>22.78934007599917</v>
+        <v>24.66040314512689</v>
       </c>
       <c r="C164" t="n">
-        <v>855305584.5316638</v>
+        <v>1389562422.60669</v>
       </c>
       <c r="D164" t="n">
-        <v>8470454667.826591</v>
+        <v>9151912233.305305</v>
       </c>
       <c r="E164" t="n">
-        <v>5.589088008635021</v>
+        <v>5.663330857912741</v>
+      </c>
+      <c r="F164" t="n">
+        <v>8.045112006408583</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44952</v>
+        <v>44953</v>
       </c>
       <c r="B165" t="n">
-        <v>24.66040314512689</v>
+        <v>24.36322901881959</v>
       </c>
       <c r="C165" t="n">
-        <v>1389562422.60669</v>
+        <v>811737989.6856995</v>
       </c>
       <c r="D165" t="n">
-        <v>9151912233.305305</v>
+        <v>9052529628.297161</v>
       </c>
       <c r="E165" t="n">
-        <v>5.663330857912744</v>
+        <v>5.679778223588011</v>
+      </c>
+      <c r="F165" t="n">
+        <v>-1.085921744818252</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44953</v>
+        <v>44954</v>
       </c>
       <c r="B166" t="n">
-        <v>24.36322901881959</v>
+        <v>24.41374757472799</v>
       </c>
       <c r="C166" t="n">
-        <v>811737989.6856995</v>
+        <v>702646248.4944212</v>
       </c>
       <c r="D166" t="n">
-        <v>9052529628.297161</v>
+        <v>9066608034.902922</v>
       </c>
       <c r="E166" t="n">
-        <v>5.679778223588015</v>
+        <v>5.599984116091241</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.1555190337268142</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44954</v>
+        <v>44955</v>
       </c>
       <c r="B167" t="n">
-        <v>24.41374757472799</v>
+        <v>23.98617581420092</v>
       </c>
       <c r="C167" t="n">
-        <v>702646248.4944212</v>
+        <v>522601581.6915137</v>
       </c>
       <c r="D167" t="n">
-        <v>9066608034.902922</v>
+        <v>8888774937.513983</v>
       </c>
       <c r="E167" t="n">
-        <v>5.599984116091244</v>
+        <v>5.449522007029864</v>
+      </c>
+      <c r="F167" t="n">
+        <v>-1.961407140403004</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44955</v>
+        <v>44956</v>
       </c>
       <c r="B168" t="n">
-        <v>23.98617581420092</v>
+        <v>26.17767635651779</v>
       </c>
       <c r="C168" t="n">
-        <v>522601581.6915137</v>
+        <v>1086841729.860023</v>
       </c>
       <c r="D168" t="n">
-        <v>8888774937.513983</v>
+        <v>9723380871.434278</v>
       </c>
       <c r="E168" t="n">
-        <v>5.449522007029866</v>
+        <v>5.351150905678343</v>
+      </c>
+      <c r="F168" t="n">
+        <v>9.389437124771206</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44956</v>
+        <v>44957</v>
       </c>
       <c r="B169" t="n">
-        <v>26.17767635651779</v>
+        <v>23.96333533972271</v>
       </c>
       <c r="C169" t="n">
-        <v>1086841729.860023</v>
+        <v>1111636437.09002</v>
       </c>
       <c r="D169" t="n">
-        <v>9723380871.434278</v>
+        <v>8894199458.026251</v>
       </c>
       <c r="E169" t="n">
-        <v>5.351150905678346</v>
+        <v>5.11861888159754</v>
+      </c>
+      <c r="F169" t="n">
+        <v>-8.527706816916215</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44957</v>
+        <v>44958</v>
       </c>
       <c r="B170" t="n">
-        <v>23.96333533972271</v>
+        <v>23.96139131737035</v>
       </c>
       <c r="C170" t="n">
-        <v>1111636437.09002</v>
+        <v>636667495.0187764</v>
       </c>
       <c r="D170" t="n">
-        <v>8894199458.026251</v>
+        <v>8896873315.819334</v>
       </c>
       <c r="E170" t="n">
-        <v>5.118618881597544</v>
+        <v>4.829420018737602</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.03006293939888938</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44958</v>
+        <v>44959</v>
       </c>
       <c r="B171" t="n">
-        <v>23.96139131737035</v>
+        <v>24.98330584026986</v>
       </c>
       <c r="C171" t="n">
-        <v>636667495.0187764</v>
+        <v>1017077833.87465</v>
       </c>
       <c r="D171" t="n">
-        <v>8896873315.819334</v>
+        <v>9295594682.001568</v>
       </c>
       <c r="E171" t="n">
-        <v>4.829420018737606</v>
+        <v>4.599983792538102</v>
+      </c>
+      <c r="F171" t="n">
+        <v>4.481589790351137</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44959</v>
+        <v>44960</v>
       </c>
       <c r="B172" t="n">
-        <v>24.98330584026986</v>
+        <v>24.31948995599126</v>
       </c>
       <c r="C172" t="n">
-        <v>1017077833.87465</v>
+        <v>1066576080.927437</v>
       </c>
       <c r="D172" t="n">
-        <v>9295594682.001568</v>
+        <v>9062290851.692661</v>
       </c>
       <c r="E172" t="n">
-        <v>4.599983792538105</v>
+        <v>4.433776159677924</v>
+      </c>
+      <c r="F172" t="n">
+        <v>-2.50983221934834</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44960</v>
+        <v>44961</v>
       </c>
       <c r="B173" t="n">
-        <v>24.31948995599126</v>
+        <v>24.68649699930336</v>
       </c>
       <c r="C173" t="n">
-        <v>1066576080.927437</v>
+        <v>781139212.0640733</v>
       </c>
       <c r="D173" t="n">
-        <v>9062290851.692661</v>
+        <v>9209669774.762846</v>
       </c>
       <c r="E173" t="n">
-        <v>4.433776159677928</v>
+        <v>4.244426375564625</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1.626287717775665</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44961</v>
+        <v>44962</v>
       </c>
       <c r="B174" t="n">
-        <v>24.68649699930336</v>
+        <v>24.35202066343691</v>
       </c>
       <c r="C174" t="n">
-        <v>781139212.0640733</v>
+        <v>350243684.4482565</v>
       </c>
       <c r="D174" t="n">
-        <v>9209669774.762846</v>
+        <v>9084646376.720587</v>
       </c>
       <c r="E174" t="n">
-        <v>4.244426375564629</v>
+        <v>4.000989852767278</v>
+      </c>
+      <c r="F174" t="n">
+        <v>-1.35752313709292</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44962</v>
+        <v>44963</v>
       </c>
       <c r="B175" t="n">
-        <v>24.35202066343691</v>
+        <v>23.513631913468</v>
       </c>
       <c r="C175" t="n">
-        <v>350243684.4482565</v>
+        <v>638580954.9262303</v>
       </c>
       <c r="D175" t="n">
-        <v>9084646376.720587</v>
+        <v>8775453234.400503</v>
       </c>
       <c r="E175" t="n">
-        <v>4.000989852767282</v>
+        <v>3.697505111915915</v>
+      </c>
+      <c r="F175" t="n">
+        <v>-3.403469210561583</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44963</v>
+        <v>44964</v>
       </c>
       <c r="B176" t="n">
-        <v>23.513631913468</v>
+        <v>22.71695247215991</v>
       </c>
       <c r="C176" t="n">
-        <v>638580954.9262303</v>
+        <v>463322357.8684989</v>
       </c>
       <c r="D176" t="n">
-        <v>8775453234.400503</v>
+        <v>8463616399.329708</v>
       </c>
       <c r="E176" t="n">
-        <v>3.697505111915919</v>
+        <v>3.285332714133139</v>
+      </c>
+      <c r="F176" t="n">
+        <v>-3.55351258494967</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="B177" t="n">
-        <v>22.71695247215991</v>
+        <v>23.90420986102095</v>
       </c>
       <c r="C177" t="n">
-        <v>463322357.8684989</v>
+        <v>707393494.1668731</v>
       </c>
       <c r="D177" t="n">
-        <v>8463616399.329708</v>
+        <v>8928209652.21195</v>
       </c>
       <c r="E177" t="n">
-        <v>3.285332714133144</v>
+        <v>2.922769444224137</v>
+      </c>
+      <c r="F177" t="n">
+        <v>5.489299502267575</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44965</v>
+        <v>44966</v>
       </c>
       <c r="B178" t="n">
-        <v>23.90420986102095</v>
+        <v>23.20655514024452</v>
       </c>
       <c r="C178" t="n">
-        <v>707393494.1668731</v>
+        <v>581769819.4598817</v>
       </c>
       <c r="D178" t="n">
-        <v>8928209652.21195</v>
+        <v>8681217220.957706</v>
       </c>
       <c r="E178" t="n">
-        <v>2.922769444224142</v>
+        <v>2.660393199947682</v>
+      </c>
+      <c r="F178" t="n">
+        <v>-2.76642732278416</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="B179" t="n">
-        <v>23.20655514024452</v>
+        <v>20.43768298122834</v>
       </c>
       <c r="C179" t="n">
-        <v>581769819.4598817</v>
+        <v>808728417.656008</v>
       </c>
       <c r="D179" t="n">
-        <v>8681217220.957706</v>
+        <v>7674814944.971446</v>
       </c>
       <c r="E179" t="n">
-        <v>2.660393199947688</v>
+        <v>2.388778788811176</v>
+      </c>
+      <c r="F179" t="n">
+        <v>-11.59287056608445</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44967</v>
+        <v>44968</v>
       </c>
       <c r="B180" t="n">
-        <v>20.43768298122834</v>
+        <v>20.12384392696828</v>
       </c>
       <c r="C180" t="n">
-        <v>808728417.656008</v>
+        <v>684166038.4850869</v>
       </c>
       <c r="D180" t="n">
-        <v>7674814944.971446</v>
+        <v>7582538971.715706</v>
       </c>
       <c r="E180" t="n">
-        <v>2.388778788811182</v>
+        <v>2.116782436640806</v>
+      </c>
+      <c r="F180" t="n">
+        <v>-1.20232180081683</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44968</v>
+        <v>44969</v>
       </c>
       <c r="B181" t="n">
-        <v>20.12384392696828</v>
+        <v>20.84493733301781</v>
       </c>
       <c r="C181" t="n">
-        <v>684166038.4850869</v>
+        <v>278031093.4530366</v>
       </c>
       <c r="D181" t="n">
-        <v>7582538971.715706</v>
+        <v>7825374946.872857</v>
       </c>
       <c r="E181" t="n">
-        <v>2.116782436640813</v>
+        <v>1.775917106750175</v>
+      </c>
+      <c r="F181" t="n">
+        <v>3.20256811159132</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44969</v>
+        <v>44970</v>
       </c>
       <c r="B182" t="n">
-        <v>20.84493733301781</v>
+        <v>21.44076791086341</v>
       </c>
       <c r="C182" t="n">
-        <v>278031093.4530366</v>
+        <v>544548720.7939905</v>
       </c>
       <c r="D182" t="n">
-        <v>7825374946.872857</v>
+        <v>8057257217.572684</v>
       </c>
       <c r="E182" t="n">
-        <v>1.775917106750184</v>
+        <v>1.543241730471399</v>
+      </c>
+      <c r="F182" t="n">
+        <v>2.963209715497284</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44970</v>
+        <v>44971</v>
       </c>
       <c r="B183" t="n">
-        <v>21.44076791086341</v>
+        <v>20.78474470990155</v>
       </c>
       <c r="C183" t="n">
-        <v>544548720.7939905</v>
+        <v>723121577.9813033</v>
       </c>
       <c r="D183" t="n">
-        <v>8057257217.572684</v>
+        <v>7804126001.846962</v>
       </c>
       <c r="E183" t="n">
-        <v>1.543241730471409</v>
+        <v>1.608903800785109</v>
+      </c>
+      <c r="F183" t="n">
+        <v>-3.14165489434356</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="B184" t="n">
-        <v>20.78474470990155</v>
+        <v>21.84521831785152</v>
       </c>
       <c r="C184" t="n">
-        <v>723121577.9813033</v>
+        <v>850945955.5827794</v>
       </c>
       <c r="D184" t="n">
-        <v>7804126001.846962</v>
+        <v>8222948441.256965</v>
       </c>
       <c r="E184" t="n">
-        <v>1.608903800785118</v>
+        <v>1.629619356633271</v>
+      </c>
+      <c r="F184" t="n">
+        <v>5.366679616793513</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="B185" t="n">
-        <v>21.84521831785152</v>
+        <v>23.88919593660295</v>
       </c>
       <c r="C185" t="n">
-        <v>850945955.5827794</v>
+        <v>831022310.6845816</v>
       </c>
       <c r="D185" t="n">
-        <v>8222948441.256965</v>
+        <v>8975776575.308781</v>
       </c>
       <c r="E185" t="n">
-        <v>1.629619356633281</v>
+        <v>1.632359339455885</v>
+      </c>
+      <c r="F185" t="n">
+        <v>9.155209222456694</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44973</v>
+        <v>44974</v>
       </c>
       <c r="B186" t="n">
-        <v>23.88919593660295</v>
+        <v>22.34460084623935</v>
       </c>
       <c r="C186" t="n">
-        <v>831022310.6845816</v>
+        <v>956362734.2974708</v>
       </c>
       <c r="D186" t="n">
-        <v>8975776575.308781</v>
+        <v>8400837292.390615</v>
       </c>
       <c r="E186" t="n">
-        <v>1.632359339455895</v>
+        <v>1.640204002856319</v>
+      </c>
+      <c r="F186" t="n">
+        <v>-6.405454481785455</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44974</v>
+        <v>44975</v>
       </c>
       <c r="B187" t="n">
-        <v>22.34460084623935</v>
+        <v>23.19397076095484</v>
       </c>
       <c r="C187" t="n">
-        <v>956362734.2974708</v>
+        <v>666303722.2640171</v>
       </c>
       <c r="D187" t="n">
-        <v>8400837292.390615</v>
+        <v>8757810457.777061</v>
       </c>
       <c r="E187" t="n">
-        <v>1.640204002856328</v>
+        <v>1.574520131080616</v>
+      </c>
+      <c r="F187" t="n">
+        <v>4.249256984298322</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44975</v>
+        <v>44976</v>
       </c>
       <c r="B188" t="n">
-        <v>23.19397076095484</v>
+        <v>23.45134176118436</v>
       </c>
       <c r="C188" t="n">
-        <v>666303722.2640171</v>
+        <v>411412105.6730705</v>
       </c>
       <c r="D188" t="n">
-        <v>8757810457.777061</v>
+        <v>8864240990.711231</v>
       </c>
       <c r="E188" t="n">
-        <v>1.574520131080626</v>
+        <v>1.530354436821231</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1.215264174159625</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44976</v>
+        <v>44977</v>
       </c>
       <c r="B189" t="n">
-        <v>23.45134176118436</v>
+        <v>24.81053402596124</v>
       </c>
       <c r="C189" t="n">
-        <v>411412105.6730705</v>
+        <v>1082089933.532258</v>
       </c>
       <c r="D189" t="n">
-        <v>8864240990.711231</v>
+        <v>9416249238.487823</v>
       </c>
       <c r="E189" t="n">
-        <v>1.530354436821242</v>
+        <v>1.499648173515749</v>
+      </c>
+      <c r="F189" t="n">
+        <v>6.227360564260809</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44977</v>
+        <v>44978</v>
       </c>
       <c r="B190" t="n">
-        <v>24.81053402596124</v>
+        <v>26.03500765229307</v>
       </c>
       <c r="C190" t="n">
-        <v>1082089933.532258</v>
+        <v>1528181094.565899</v>
       </c>
       <c r="D190" t="n">
-        <v>9416249238.487823</v>
+        <v>9849428455.392427</v>
       </c>
       <c r="E190" t="n">
-        <v>1.499648173515759</v>
+        <v>1.558634544182415</v>
+      </c>
+      <c r="F190" t="n">
+        <v>4.600337203629179</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44978</v>
+        <v>44979</v>
       </c>
       <c r="B191" t="n">
-        <v>26.03500765229307</v>
+        <v>24.92100975933338</v>
       </c>
       <c r="C191" t="n">
-        <v>1528181094.565899</v>
+        <v>971104096.0161645</v>
       </c>
       <c r="D191" t="n">
-        <v>9849428455.392427</v>
+        <v>9410006572.060625</v>
       </c>
       <c r="E191" t="n">
-        <v>1.558634544182425</v>
+        <v>1.574671073050776</v>
+      </c>
+      <c r="F191" t="n">
+        <v>-4.461394743074909</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44979</v>
+        <v>44980</v>
       </c>
       <c r="B192" t="n">
-        <v>24.92100975933338</v>
+        <v>24.17008033584799</v>
       </c>
       <c r="C192" t="n">
-        <v>971104096.0161645</v>
+        <v>1006550896.112941</v>
       </c>
       <c r="D192" t="n">
-        <v>9410006572.060625</v>
+        <v>9148040150.612829</v>
       </c>
       <c r="E192" t="n">
-        <v>1.574671073050786</v>
+        <v>1.570070444425965</v>
+      </c>
+      <c r="F192" t="n">
+        <v>-2.78391326766555</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44980</v>
+        <v>44981</v>
       </c>
       <c r="B193" t="n">
-        <v>24.17008033584799</v>
+        <v>23.92438702728231</v>
       </c>
       <c r="C193" t="n">
-        <v>1006550896.112941</v>
+        <v>617535605.1973163</v>
       </c>
       <c r="D193" t="n">
-        <v>9148040150.612829</v>
+        <v>9024298203.902431</v>
       </c>
       <c r="E193" t="n">
-        <v>1.570070444425975</v>
+        <v>1.566616108071662</v>
+      </c>
+      <c r="F193" t="n">
+        <v>-1.352660730310729</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44981</v>
+        <v>44982</v>
       </c>
       <c r="B194" t="n">
-        <v>23.92438702728231</v>
+        <v>23.05835270436486</v>
       </c>
       <c r="C194" t="n">
-        <v>617535605.1973163</v>
+        <v>649161438.3791043</v>
       </c>
       <c r="D194" t="n">
-        <v>9024298203.902431</v>
+        <v>8723841537.761139</v>
       </c>
       <c r="E194" t="n">
-        <v>1.566616108071672</v>
+        <v>1.553447244317488</v>
+      </c>
+      <c r="F194" t="n">
+        <v>-3.329418635693626</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44982</v>
+        <v>44983</v>
       </c>
       <c r="B195" t="n">
-        <v>23.05835270436486</v>
+        <v>22.41035440900556</v>
       </c>
       <c r="C195" t="n">
-        <v>649161438.3791043</v>
+        <v>582781483.0965183</v>
       </c>
       <c r="D195" t="n">
-        <v>8723841537.761139</v>
+        <v>8461125692.332631</v>
       </c>
       <c r="E195" t="n">
-        <v>1.553447244317498</v>
+        <v>1.55524332223705</v>
+      </c>
+      <c r="F195" t="n">
+        <v>-3.011469709661074</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44983</v>
+        <v>44984</v>
       </c>
       <c r="B196" t="n">
-        <v>22.41035440900556</v>
+        <v>23.2309130687567</v>
       </c>
       <c r="C196" t="n">
-        <v>582781483.0965183</v>
+        <v>447765032.4162541</v>
       </c>
       <c r="D196" t="n">
-        <v>8461125692.332631</v>
+        <v>8789815699.846401</v>
       </c>
       <c r="E196" t="n">
-        <v>1.55524332223706</v>
+        <v>1.543493247919767</v>
+      </c>
+      <c r="F196" t="n">
+        <v>3.884707773714147</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B197" t="n">
-        <v>23.2309130687567</v>
+        <v>22.69357814391332</v>
       </c>
       <c r="C197" t="n">
-        <v>447765032.4162541</v>
+        <v>515693154.2203986</v>
       </c>
       <c r="D197" t="n">
-        <v>8789815699.846401</v>
+        <v>8589782940.913688</v>
       </c>
       <c r="E197" t="n">
-        <v>1.543493247919777</v>
+        <v>1.54334459533486</v>
+      </c>
+      <c r="F197" t="n">
+        <v>-2.275733254978363</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44985</v>
+        <v>44986</v>
       </c>
       <c r="B198" t="n">
-        <v>22.69357814391332</v>
+        <v>21.91575068402077</v>
       </c>
       <c r="C198" t="n">
-        <v>515693154.2203986</v>
+        <v>353854572.7492246</v>
       </c>
       <c r="D198" t="n">
-        <v>8589782940.913688</v>
+        <v>8278729498.564519</v>
       </c>
       <c r="E198" t="n">
-        <v>1.54334459533487</v>
+        <v>1.464729223257151</v>
+      </c>
+      <c r="F198" t="n">
+        <v>-3.621202590202843</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="B199" t="n">
-        <v>21.91575068402077</v>
+        <v>22.50579765032775</v>
       </c>
       <c r="C199" t="n">
-        <v>353854572.7492246</v>
+        <v>368841392.139484</v>
       </c>
       <c r="D199" t="n">
-        <v>8278729498.564519</v>
+        <v>8530663779.645123</v>
       </c>
       <c r="E199" t="n">
-        <v>1.464729223257162</v>
+        <v>1.461715572659537</v>
+      </c>
+      <c r="F199" t="n">
+        <v>3.043151501982133</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B200" t="n">
-        <v>22.50579765032775</v>
+        <v>21.97401655702821</v>
       </c>
       <c r="C200" t="n">
-        <v>368841392.139484</v>
+        <v>331963626.2796516</v>
       </c>
       <c r="D200" t="n">
-        <v>8530663779.645123</v>
+        <v>8328272221.796302</v>
       </c>
       <c r="E200" t="n">
-        <v>1.461715572659548</v>
+        <v>1.467410683125103</v>
+      </c>
+      <c r="F200" t="n">
+        <v>-2.37251828318148</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44988</v>
+        <v>44989</v>
       </c>
       <c r="B201" t="n">
-        <v>21.97401655702821</v>
+        <v>21.40676922520903</v>
       </c>
       <c r="C201" t="n">
-        <v>331963626.2796516</v>
+        <v>498070582.6226286</v>
       </c>
       <c r="D201" t="n">
-        <v>8328272221.796302</v>
+        <v>8106249844.53406</v>
       </c>
       <c r="E201" t="n">
-        <v>1.467410683125114</v>
+        <v>1.4506441213957</v>
+      </c>
+      <c r="F201" t="n">
+        <v>-2.665887609691442</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44989</v>
+        <v>44990</v>
       </c>
       <c r="B202" t="n">
-        <v>21.40676922520903</v>
+        <v>20.9555346664232</v>
       </c>
       <c r="C202" t="n">
-        <v>498070582.6226286</v>
+        <v>254558509.3651262</v>
       </c>
       <c r="D202" t="n">
-        <v>8106249844.53406</v>
+        <v>7946564768.282082</v>
       </c>
       <c r="E202" t="n">
-        <v>1.450644121395711</v>
+        <v>1.469985910799248</v>
+      </c>
+      <c r="F202" t="n">
+        <v>-1.969900747133424</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44990</v>
+        <v>44991</v>
       </c>
       <c r="B203" t="n">
-        <v>20.9555346664232</v>
+        <v>21.0025706847439</v>
       </c>
       <c r="C203" t="n">
-        <v>254558509.3651262</v>
+        <v>269435912.6971506</v>
       </c>
       <c r="D203" t="n">
-        <v>7946564768.282082</v>
+        <v>8013062334.53546</v>
       </c>
       <c r="E203" t="n">
-        <v>1.469985910799259</v>
+        <v>1.462970186428871</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.8368089632742493</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="B204" t="n">
-        <v>21.0025706847439</v>
+        <v>20.63096433265358</v>
       </c>
       <c r="C204" t="n">
-        <v>269435912.6971506</v>
+        <v>325982714.8101539</v>
       </c>
       <c r="D204" t="n">
-        <v>8013062334.53546</v>
+        <v>7891217439.147805</v>
       </c>
       <c r="E204" t="n">
-        <v>1.462970186428882</v>
+        <v>1.47594883787365</v>
+      </c>
+      <c r="F204" t="n">
+        <v>-1.520578404370021</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="B205" t="n">
-        <v>20.63096433265358</v>
+        <v>20.27274215506894</v>
       </c>
       <c r="C205" t="n">
-        <v>325982714.8101539</v>
+        <v>397969144.7396385</v>
       </c>
       <c r="D205" t="n">
-        <v>7891217439.147805</v>
+        <v>7742957402.802464</v>
       </c>
       <c r="E205" t="n">
-        <v>1.47594883787366</v>
+        <v>1.522970398192159</v>
+      </c>
+      <c r="F205" t="n">
+        <v>-1.878798011696314</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44993</v>
+        <v>44994</v>
       </c>
       <c r="B206" t="n">
-        <v>20.27274215506894</v>
+        <v>18.42791642650986</v>
       </c>
       <c r="C206" t="n">
-        <v>397969144.7396385</v>
+        <v>654065004.8333755</v>
       </c>
       <c r="D206" t="n">
-        <v>7742957402.802464</v>
+        <v>7066726944.332695</v>
       </c>
       <c r="E206" t="n">
-        <v>1.52297039819217</v>
+        <v>1.6910379173461</v>
+      </c>
+      <c r="F206" t="n">
+        <v>-8.7334906198117</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44994</v>
+        <v>44995</v>
       </c>
       <c r="B207" t="n">
-        <v>18.42791642650986</v>
+        <v>17.33306211644664</v>
       </c>
       <c r="C207" t="n">
-        <v>654065004.8333755</v>
+        <v>817533089.0492163</v>
       </c>
       <c r="D207" t="n">
-        <v>7066726944.332695</v>
+        <v>6615095595.211864</v>
       </c>
       <c r="E207" t="n">
-        <v>1.691037917346109</v>
+        <v>1.893205882552432</v>
+      </c>
+      <c r="F207" t="n">
+        <v>-6.390955143427846</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44995</v>
+        <v>44996</v>
       </c>
       <c r="B208" t="n">
-        <v>17.33306211644664</v>
+        <v>18.21269818761554</v>
       </c>
       <c r="C208" t="n">
-        <v>817533089.0492163</v>
+        <v>988470037.0370774</v>
       </c>
       <c r="D208" t="n">
-        <v>6615095595.211864</v>
+        <v>7004462520.100822</v>
       </c>
       <c r="E208" t="n">
-        <v>1.89320588255244</v>
+        <v>2.009276981399061</v>
+      </c>
+      <c r="F208" t="n">
+        <v>5.886036252760896</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44996</v>
+        <v>44997</v>
       </c>
       <c r="B209" t="n">
-        <v>18.21269818761554</v>
+        <v>18.06848161278419</v>
       </c>
       <c r="C209" t="n">
-        <v>988470037.0370774</v>
+        <v>671121164.8535483</v>
       </c>
       <c r="D209" t="n">
-        <v>7004462520.100822</v>
+        <v>6928931920.550202</v>
       </c>
       <c r="E209" t="n">
-        <v>2.009276981399069</v>
+        <v>2.11424443043127</v>
+      </c>
+      <c r="F209" t="n">
+        <v>-1.078321132190641</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44997</v>
+        <v>44998</v>
       </c>
       <c r="B210" t="n">
-        <v>18.06848161278419</v>
+        <v>20.33815687662464</v>
       </c>
       <c r="C210" t="n">
-        <v>671121164.8535483</v>
+        <v>766795515.8276222</v>
       </c>
       <c r="D210" t="n">
-        <v>6928931920.550202</v>
+        <v>7755318676.394037</v>
       </c>
       <c r="E210" t="n">
-        <v>2.114244430431277</v>
+        <v>2.10852099382482</v>
+      </c>
+      <c r="F210" t="n">
+        <v>11.92661098881478</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44998</v>
+        <v>44999</v>
       </c>
       <c r="B211" t="n">
-        <v>20.33815687662464</v>
+        <v>20.37708065182474</v>
       </c>
       <c r="C211" t="n">
-        <v>766795515.8276222</v>
+        <v>1115385621.147573</v>
       </c>
       <c r="D211" t="n">
-        <v>7755318676.394037</v>
+        <v>7821977632.749297</v>
       </c>
       <c r="E211" t="n">
-        <v>2.108520993824827</v>
+        <v>2.118070990688783</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.8595256898747294</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="B212" t="n">
-        <v>20.37708065182474</v>
+        <v>20.97993475540768</v>
       </c>
       <c r="C212" t="n">
-        <v>1115385621.147573</v>
+        <v>1216812986.385543</v>
       </c>
       <c r="D212" t="n">
-        <v>7821977632.749297</v>
+        <v>8029661085.939712</v>
       </c>
       <c r="E212" t="n">
-        <v>2.118070990688791</v>
+        <v>2.12283836774706</v>
+      </c>
+      <c r="F212" t="n">
+        <v>2.655127167851767</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="B213" t="n">
-        <v>20.97993475540768</v>
+        <v>19.33640003111709</v>
       </c>
       <c r="C213" t="n">
-        <v>1216812986.385543</v>
+        <v>891834503.6819715</v>
       </c>
       <c r="D213" t="n">
-        <v>8029661085.939712</v>
+        <v>7414057337.321378</v>
       </c>
       <c r="E213" t="n">
-        <v>2.122838367747067</v>
+        <v>2.163712987989142</v>
+      </c>
+      <c r="F213" t="n">
+        <v>-7.666621816657782</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="B214" t="n">
-        <v>19.33640003111709</v>
+        <v>19.83281185840033</v>
       </c>
       <c r="C214" t="n">
-        <v>891834503.6819715</v>
+        <v>505612446.9622918</v>
       </c>
       <c r="D214" t="n">
-        <v>7414057337.321378</v>
+        <v>7607669118.344841</v>
       </c>
       <c r="E214" t="n">
-        <v>2.163712987989149</v>
+        <v>2.192956669972817</v>
+      </c>
+      <c r="F214" t="n">
+        <v>2.611414671004053</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45002</v>
+        <v>45003</v>
       </c>
       <c r="B215" t="n">
-        <v>19.83281185840033</v>
+        <v>21.64462764006549</v>
       </c>
       <c r="C215" t="n">
-        <v>505612446.9622918</v>
+        <v>746567229.3004439</v>
       </c>
       <c r="D215" t="n">
-        <v>7607669118.344841</v>
+        <v>8298944866.274058</v>
       </c>
       <c r="E215" t="n">
-        <v>2.192956669972824</v>
+        <v>2.154470957212514</v>
+      </c>
+      <c r="F215" t="n">
+        <v>9.086564323128909</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45003</v>
+        <v>45004</v>
       </c>
       <c r="B216" t="n">
-        <v>21.64462764006549</v>
+        <v>21.3174625685989</v>
       </c>
       <c r="C216" t="n">
-        <v>746567229.3004439</v>
+        <v>984171481.0742199</v>
       </c>
       <c r="D216" t="n">
-        <v>8298944866.274058</v>
+        <v>8167246753.172318</v>
       </c>
       <c r="E216" t="n">
-        <v>2.154470957212522</v>
+        <v>2.15118872379056</v>
+      </c>
+      <c r="F216" t="n">
+        <v>-1.586925991482913</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45004</v>
+        <v>45005</v>
       </c>
       <c r="B217" t="n">
-        <v>21.3174625685989</v>
+        <v>22.02211123221922</v>
       </c>
       <c r="C217" t="n">
-        <v>984171481.0742199</v>
+        <v>671444269.1507742</v>
       </c>
       <c r="D217" t="n">
-        <v>8167246753.172318</v>
+        <v>8495353255.962753</v>
       </c>
       <c r="E217" t="n">
-        <v>2.151188723790567</v>
+        <v>2.132072073125129</v>
+      </c>
+      <c r="F217" t="n">
+        <v>4.017345290357399</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45005</v>
+        <v>45006</v>
       </c>
       <c r="B218" t="n">
-        <v>22.02211123221922</v>
+        <v>22.32202408394599</v>
       </c>
       <c r="C218" t="n">
-        <v>671444269.1507742</v>
+        <v>1214980639.461544</v>
       </c>
       <c r="D218" t="n">
-        <v>8495353255.962753</v>
+        <v>8570996250.733115</v>
       </c>
       <c r="E218" t="n">
-        <v>2.132072073125136</v>
+        <v>2.107636932375994</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0.8904043480154167</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45006</v>
+        <v>45007</v>
       </c>
       <c r="B219" t="n">
-        <v>22.32202408394599</v>
+        <v>22.74020634944038</v>
       </c>
       <c r="C219" t="n">
-        <v>1214980639.461544</v>
+        <v>725964027.5931699</v>
       </c>
       <c r="D219" t="n">
-        <v>8570996250.733115</v>
+        <v>8718952337.679441</v>
       </c>
       <c r="E219" t="n">
-        <v>2.107636932376001</v>
+        <v>2.029214146826194</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1.726241414860863</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45007</v>
+        <v>45008</v>
       </c>
       <c r="B220" t="n">
-        <v>22.74020634944038</v>
+        <v>21.57806806886043</v>
       </c>
       <c r="C220" t="n">
-        <v>725964027.5931699</v>
+        <v>914736382.9514166</v>
       </c>
       <c r="D220" t="n">
-        <v>8718952337.679441</v>
+        <v>8277163932.31642</v>
       </c>
       <c r="E220" t="n">
-        <v>2.029214146826202</v>
+        <v>1.837466258405186</v>
+      </c>
+      <c r="F220" t="n">
+        <v>-5.066989567700797</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="B221" t="n">
-        <v>21.57806806886043</v>
+        <v>22.306155317676</v>
       </c>
       <c r="C221" t="n">
-        <v>914736382.9514166</v>
+        <v>538469214.2199258</v>
       </c>
       <c r="D221" t="n">
-        <v>8277163932.31642</v>
+        <v>8543484776.055639</v>
       </c>
       <c r="E221" t="n">
-        <v>1.837466258405195</v>
+        <v>1.718962943179599</v>
+      </c>
+      <c r="F221" t="n">
+        <v>3.217537382574087</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45009</v>
+        <v>45010</v>
       </c>
       <c r="B222" t="n">
-        <v>22.306155317676</v>
+        <v>20.77377095038958</v>
       </c>
       <c r="C222" t="n">
-        <v>538469214.2199258</v>
+        <v>635693408.6530313</v>
       </c>
       <c r="D222" t="n">
-        <v>8543484776.055639</v>
+        <v>7977960408.113832</v>
       </c>
       <c r="E222" t="n">
-        <v>1.718962943179608</v>
+        <v>1.628304632243558</v>
+      </c>
+      <c r="F222" t="n">
+        <v>-6.61936414432166</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45010</v>
+        <v>45011</v>
       </c>
       <c r="B223" t="n">
-        <v>20.77377095038958</v>
+        <v>20.59369885640721</v>
       </c>
       <c r="C223" t="n">
-        <v>635693408.6530313</v>
+        <v>387073479.3743038</v>
       </c>
       <c r="D223" t="n">
-        <v>7977960408.113832</v>
+        <v>7901578024.349372</v>
       </c>
       <c r="E223" t="n">
-        <v>1.628304632243568</v>
+        <v>1.541728831032534</v>
+      </c>
+      <c r="F223" t="n">
+        <v>-0.9574174332424246</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45011</v>
+        <v>45012</v>
       </c>
       <c r="B224" t="n">
-        <v>20.59369885640721</v>
+        <v>20.98228938237426</v>
       </c>
       <c r="C224" t="n">
-        <v>387073479.3743038</v>
+        <v>326327791.3432938</v>
       </c>
       <c r="D224" t="n">
-        <v>7901578024.349372</v>
+        <v>8079229951.395789</v>
       </c>
       <c r="E224" t="n">
-        <v>1.541728831032544</v>
+        <v>1.492359844507934</v>
+      </c>
+      <c r="F224" t="n">
+        <v>2.248309470576237</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45012</v>
+        <v>45013</v>
       </c>
       <c r="B225" t="n">
-        <v>20.98228938237426</v>
+        <v>19.9575402149083</v>
       </c>
       <c r="C225" t="n">
-        <v>326327791.3432938</v>
+        <v>406232834.8456671</v>
       </c>
       <c r="D225" t="n">
-        <v>8079229951.395789</v>
+        <v>7655291926.183579</v>
       </c>
       <c r="E225" t="n">
-        <v>1.492359844507944</v>
+        <v>1.476102083240983</v>
+      </c>
+      <c r="F225" t="n">
+        <v>-5.247257817423168</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45013</v>
+        <v>45014</v>
       </c>
       <c r="B226" t="n">
-        <v>19.9575402149083</v>
+        <v>20.49934051770488</v>
       </c>
       <c r="C226" t="n">
-        <v>406232834.8456671</v>
+        <v>400868517.6234316</v>
       </c>
       <c r="D226" t="n">
-        <v>7655291926.183579</v>
+        <v>7878765558.475471</v>
       </c>
       <c r="E226" t="n">
-        <v>1.476102083240994</v>
+        <v>1.407313374432351</v>
+      </c>
+      <c r="F226" t="n">
+        <v>2.919204577000389</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45014</v>
+        <v>45015</v>
       </c>
       <c r="B227" t="n">
-        <v>20.49934051770488</v>
+        <v>21.13233391276909</v>
       </c>
       <c r="C227" t="n">
-        <v>400868517.6234316</v>
+        <v>422168351.8303799</v>
       </c>
       <c r="D227" t="n">
-        <v>7878765558.475471</v>
+        <v>8122141676.472303</v>
       </c>
       <c r="E227" t="n">
-        <v>1.407313374432362</v>
+        <v>1.361731084907895</v>
+      </c>
+      <c r="F227" t="n">
+        <v>3.089013325634804</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="B228" t="n">
-        <v>21.13233391276909</v>
+        <v>20.5744047759753</v>
       </c>
       <c r="C228" t="n">
-        <v>422168351.8303799</v>
+        <v>532520991.0410864</v>
       </c>
       <c r="D228" t="n">
-        <v>8122141676.472303</v>
+        <v>7919320174.471215</v>
       </c>
       <c r="E228" t="n">
-        <v>1.361731084907907</v>
+        <v>1.342824612157489</v>
+      </c>
+      <c r="F228" t="n">
+        <v>-2.497143119143175</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45016</v>
+        <v>45017</v>
       </c>
       <c r="B229" t="n">
-        <v>20.5744047759753</v>
+        <v>21.20540185151934</v>
       </c>
       <c r="C229" t="n">
-        <v>532520991.0410864</v>
+        <v>415947399.7233951</v>
       </c>
       <c r="D229" t="n">
-        <v>7919320174.471215</v>
+        <v>8194996259.08917</v>
       </c>
       <c r="E229" t="n">
-        <v>1.3428246121575</v>
+        <v>1.301884649400938</v>
+      </c>
+      <c r="F229" t="n">
+        <v>3.481057446150837</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45017</v>
+        <v>45018</v>
       </c>
       <c r="B230" t="n">
-        <v>21.20540185151934</v>
+        <v>21.08350021631067</v>
       </c>
       <c r="C230" t="n">
-        <v>415947399.7233951</v>
+        <v>251948585.428472</v>
       </c>
       <c r="D230" t="n">
-        <v>8194996259.08917</v>
+        <v>8133720019.793032</v>
       </c>
       <c r="E230" t="n">
-        <v>1.30188464940095</v>
+        <v>1.2800731688228</v>
+      </c>
+      <c r="F230" t="n">
+        <v>-0.7477274834405967</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45018</v>
+        <v>45019</v>
       </c>
       <c r="B231" t="n">
-        <v>21.08350021631067</v>
+        <v>20.56543936884106</v>
       </c>
       <c r="C231" t="n">
-        <v>251948585.428472</v>
+        <v>250939723.334805</v>
       </c>
       <c r="D231" t="n">
-        <v>8133720019.793032</v>
+        <v>7929638196.330592</v>
       </c>
       <c r="E231" t="n">
-        <v>1.280073168822813</v>
+        <v>1.270902458534744</v>
+      </c>
+      <c r="F231" t="n">
+        <v>-2.50908345708748</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45019</v>
+        <v>45020</v>
       </c>
       <c r="B232" t="n">
-        <v>20.56543936884106</v>
+        <v>20.43669029505687</v>
       </c>
       <c r="C232" t="n">
-        <v>250939723.334805</v>
+        <v>529752910.7331683</v>
       </c>
       <c r="D232" t="n">
-        <v>7929638196.330592</v>
+        <v>7900168640.993755</v>
       </c>
       <c r="E232" t="n">
-        <v>1.270902458534756</v>
+        <v>1.268988316677973</v>
+      </c>
+      <c r="F232" t="n">
+        <v>-0.3716380824345</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45020</v>
+        <v>45021</v>
       </c>
       <c r="B233" t="n">
-        <v>20.43669029505687</v>
+        <v>20.92110064061127</v>
       </c>
       <c r="C233" t="n">
-        <v>529752910.7331683</v>
+        <v>348472966.7851743</v>
       </c>
       <c r="D233" t="n">
-        <v>7900168640.993755</v>
+        <v>8093519489.19683</v>
       </c>
       <c r="E233" t="n">
-        <v>1.268988316677985</v>
+        <v>1.268076786867652</v>
+      </c>
+      <c r="F233" t="n">
+        <v>2.447426846052148</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45021</v>
+        <v>45022</v>
       </c>
       <c r="B234" t="n">
-        <v>20.92110064061127</v>
+        <v>20.98237435520511</v>
       </c>
       <c r="C234" t="n">
-        <v>348472966.7851743</v>
+        <v>361878192.5535392</v>
       </c>
       <c r="D234" t="n">
-        <v>8093519489.19683</v>
+        <v>8139780743.430709</v>
       </c>
       <c r="E234" t="n">
-        <v>1.268076786867664</v>
+        <v>1.270481937411235</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0.5715838986442012</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45022</v>
+        <v>45023</v>
       </c>
       <c r="B235" t="n">
-        <v>20.98237435520511</v>
+        <v>20.60900252710118</v>
       </c>
       <c r="C235" t="n">
-        <v>361878192.5535392</v>
+        <v>271953094.7888084</v>
       </c>
       <c r="D235" t="n">
-        <v>8139780743.430709</v>
+        <v>7980951367.926036</v>
       </c>
       <c r="E235" t="n">
-        <v>1.270481937411247</v>
+        <v>1.26933761973656</v>
+      </c>
+      <c r="F235" t="n">
+        <v>-1.951273388203456</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45023</v>
+        <v>45024</v>
       </c>
       <c r="B236" t="n">
-        <v>20.60900252710118</v>
+        <v>20.4837853004106</v>
       </c>
       <c r="C236" t="n">
-        <v>271953094.7888084</v>
+        <v>208769926.082166</v>
       </c>
       <c r="D236" t="n">
-        <v>7980951367.926036</v>
+        <v>7945861961.167704</v>
       </c>
       <c r="E236" t="n">
-        <v>1.269337619736572</v>
+        <v>1.203385071876447</v>
+      </c>
+      <c r="F236" t="n">
+        <v>-0.4396644602966737</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45024</v>
+        <v>45025</v>
       </c>
       <c r="B237" t="n">
-        <v>20.4837853004106</v>
+        <v>20.0425813045983</v>
       </c>
       <c r="C237" t="n">
-        <v>208769926.082166</v>
+        <v>229345793.2886606</v>
       </c>
       <c r="D237" t="n">
-        <v>7945861961.167704</v>
+        <v>7779827678.559762</v>
       </c>
       <c r="E237" t="n">
-        <v>1.20338507187646</v>
+        <v>1.036747061769712</v>
+      </c>
+      <c r="F237" t="n">
+        <v>-2.089569179773942</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45025</v>
+        <v>45026</v>
       </c>
       <c r="B238" t="n">
-        <v>20.0425813045983</v>
+        <v>20.30433669084828</v>
       </c>
       <c r="C238" t="n">
-        <v>229345793.2886606</v>
+        <v>195652671.4096762</v>
       </c>
       <c r="D238" t="n">
-        <v>7779827678.559762</v>
+        <v>7886462397.659908</v>
       </c>
       <c r="E238" t="n">
-        <v>1.036747061769727</v>
+        <v>0.9259910494532901</v>
+      </c>
+      <c r="F238" t="n">
+        <v>1.370656568576933</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="B239" t="n">
-        <v>20.30433669084828</v>
+        <v>20.87512314634827</v>
       </c>
       <c r="C239" t="n">
-        <v>195652671.4096762</v>
+        <v>243051082.7697442</v>
       </c>
       <c r="D239" t="n">
-        <v>7886462397.659908</v>
+        <v>8111384994.393847</v>
       </c>
       <c r="E239" t="n">
-        <v>0.925991049453307</v>
+        <v>0.7689249171501381</v>
+      </c>
+      <c r="F239" t="n">
+        <v>2.852008738425971</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45027</v>
+        <v>45028</v>
       </c>
       <c r="B240" t="n">
-        <v>20.87512314634827</v>
+        <v>23.00565469011411</v>
       </c>
       <c r="C240" t="n">
-        <v>243051082.7697442</v>
+        <v>1081779112.364908</v>
       </c>
       <c r="D240" t="n">
-        <v>8111384994.393847</v>
+        <v>9019417673.037657</v>
       </c>
       <c r="E240" t="n">
-        <v>0.7689249171501585</v>
+        <v>0.8521667901842044</v>
+      </c>
+      <c r="F240" t="n">
+        <v>11.19454543547609</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45028</v>
+        <v>45029</v>
       </c>
       <c r="B241" t="n">
-        <v>23.00565469011411</v>
+        <v>23.83053266642169</v>
       </c>
       <c r="C241" t="n">
-        <v>1081779112.364908</v>
+        <v>1370531367.925179</v>
       </c>
       <c r="D241" t="n">
-        <v>9019417673.037657</v>
+        <v>9350156509.874369</v>
       </c>
       <c r="E241" t="n">
-        <v>0.8521667901842227</v>
+        <v>0.9896762238729975</v>
+      </c>
+      <c r="F241" t="n">
+        <v>3.666964418616647</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45029</v>
+        <v>45030</v>
       </c>
       <c r="B242" t="n">
-        <v>23.83053266642169</v>
+        <v>24.42771024521707</v>
       </c>
       <c r="C242" t="n">
-        <v>1370531367.925179</v>
+        <v>666066820.0916648</v>
       </c>
       <c r="D242" t="n">
-        <v>9350156509.874369</v>
+        <v>9566762973.066217</v>
       </c>
       <c r="E242" t="n">
-        <v>0.9896762238730133</v>
+        <v>1.160876633516956</v>
+      </c>
+      <c r="F242" t="n">
+        <v>2.316607887398447</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45030</v>
+        <v>45031</v>
       </c>
       <c r="B243" t="n">
-        <v>24.42771024521707</v>
+        <v>24.77371399717611</v>
       </c>
       <c r="C243" t="n">
-        <v>666066820.0916648</v>
+        <v>825834920.5602269</v>
       </c>
       <c r="D243" t="n">
-        <v>9566762973.066217</v>
+        <v>9705804479.0832</v>
       </c>
       <c r="E243" t="n">
-        <v>1.16087663351697</v>
+        <v>1.27650189802293</v>
+      </c>
+      <c r="F243" t="n">
+        <v>1.453380902280466</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45031</v>
+        <v>45032</v>
       </c>
       <c r="B244" t="n">
-        <v>24.77371399717611</v>
+        <v>24.07608696896133</v>
       </c>
       <c r="C244" t="n">
-        <v>825834920.5602269</v>
+        <v>387945854.0047914</v>
       </c>
       <c r="D244" t="n">
-        <v>9705804479.0832</v>
+        <v>9451805831.229778</v>
       </c>
       <c r="E244" t="n">
-        <v>1.276501898022943</v>
+        <v>1.331440565756459</v>
+      </c>
+      <c r="F244" t="n">
+        <v>-2.616976762728018</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="B245" t="n">
-        <v>24.07608696896133</v>
+        <v>25.29576468229363</v>
       </c>
       <c r="C245" t="n">
-        <v>387945854.0047914</v>
+        <v>514890126.1842095</v>
       </c>
       <c r="D245" t="n">
-        <v>9451805831.229778</v>
+        <v>9920073717.128748</v>
       </c>
       <c r="E245" t="n">
-        <v>1.331440565756471</v>
+        <v>1.49818399960238</v>
+      </c>
+      <c r="F245" t="n">
+        <v>4.954268996425659</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45033</v>
+        <v>45034</v>
       </c>
       <c r="B246" t="n">
-        <v>25.29576468229363</v>
+        <v>24.58247227174104</v>
       </c>
       <c r="C246" t="n">
-        <v>514890126.1842095</v>
+        <v>910595768.7039962</v>
       </c>
       <c r="D246" t="n">
-        <v>9920073717.128748</v>
+        <v>9623598168.573133</v>
       </c>
       <c r="E246" t="n">
-        <v>1.49818399960239</v>
+        <v>1.588515648541445</v>
+      </c>
+      <c r="F246" t="n">
+        <v>-2.988642594900248</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="B247" t="n">
-        <v>24.58247227174104</v>
+        <v>24.82883195630819</v>
       </c>
       <c r="C247" t="n">
-        <v>910595768.7039962</v>
+        <v>558944406.0314553</v>
       </c>
       <c r="D247" t="n">
-        <v>9623598168.573133</v>
+        <v>9739599132.263357</v>
       </c>
       <c r="E247" t="n">
-        <v>1.588515648541455</v>
+        <v>1.68390179814167</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1.20538037497282</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45035</v>
+        <v>45036</v>
       </c>
       <c r="B248" t="n">
-        <v>24.82883195630819</v>
+        <v>22.66921834829298</v>
       </c>
       <c r="C248" t="n">
-        <v>558944406.0314553</v>
+        <v>974039298.9106188</v>
       </c>
       <c r="D248" t="n">
-        <v>9739599132.263357</v>
+        <v>8903451124.568312</v>
       </c>
       <c r="E248" t="n">
-        <v>1.683901798141679</v>
+        <v>1.68837624109765</v>
+      </c>
+      <c r="F248" t="n">
+        <v>-8.585035136869489</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45036</v>
+        <v>45037</v>
       </c>
       <c r="B249" t="n">
-        <v>22.66921834829298</v>
+        <v>22.17878507364592</v>
       </c>
       <c r="C249" t="n">
-        <v>974039298.9106188</v>
+        <v>712597030.0493151</v>
       </c>
       <c r="D249" t="n">
-        <v>8903451124.568312</v>
+        <v>8697671636.546442</v>
       </c>
       <c r="E249" t="n">
-        <v>1.68837624109766</v>
+        <v>1.681509871421859</v>
+      </c>
+      <c r="F249" t="n">
+        <v>-2.311232859514878</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45037</v>
+        <v>45038</v>
       </c>
       <c r="B250" t="n">
-        <v>22.17878507364592</v>
+        <v>21.25632997578999</v>
       </c>
       <c r="C250" t="n">
-        <v>712597030.0493151</v>
+        <v>527655622.1631929</v>
       </c>
       <c r="D250" t="n">
-        <v>8697671636.546442</v>
+        <v>8333890309.334352</v>
       </c>
       <c r="E250" t="n">
-        <v>1.681509871421868</v>
+        <v>1.684344326348333</v>
+      </c>
+      <c r="F250" t="n">
+        <v>-4.182513923422104</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45038</v>
+        <v>45039</v>
       </c>
       <c r="B251" t="n">
-        <v>21.25632997578999</v>
+        <v>21.85149833032492</v>
       </c>
       <c r="C251" t="n">
-        <v>527655622.1631929</v>
+        <v>249197740.8361164</v>
       </c>
       <c r="D251" t="n">
-        <v>8333890309.334352</v>
+        <v>8584446324.231401</v>
       </c>
       <c r="E251" t="n">
-        <v>1.684344326348342</v>
+        <v>1.682066005421491</v>
+      </c>
+      <c r="F251" t="n">
+        <v>3.006471234885533</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>45039</v>
+        <v>45040</v>
       </c>
       <c r="B252" t="n">
-        <v>21.85149833032492</v>
+        <v>21.49927294670662</v>
       </c>
       <c r="C252" t="n">
-        <v>249197740.8361164</v>
+        <v>348355516.8754679</v>
       </c>
       <c r="D252" t="n">
-        <v>8584446324.231401</v>
+        <v>8420199212.273126</v>
       </c>
       <c r="E252" t="n">
-        <v>1.6820660054215</v>
+        <v>1.671589381067351</v>
+      </c>
+      <c r="F252" t="n">
+        <v>-1.913310489165199</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>45040</v>
+        <v>45041</v>
       </c>
       <c r="B253" t="n">
-        <v>21.49927294670662</v>
+        <v>21.38812362334193</v>
       </c>
       <c r="C253" t="n">
-        <v>348355516.8754679</v>
+        <v>401676853.0626663</v>
       </c>
       <c r="D253" t="n">
-        <v>8420199212.273126</v>
+        <v>8399117356.571699</v>
       </c>
       <c r="E253" t="n">
-        <v>1.67158938106736</v>
+        <v>1.657218344903741</v>
+      </c>
+      <c r="F253" t="n">
+        <v>-0.2503724100814342</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>45041</v>
+        <v>45042</v>
       </c>
       <c r="B254" t="n">
-        <v>21.38812362334193</v>
+        <v>21.93961247225034</v>
       </c>
       <c r="C254" t="n">
-        <v>401676853.0626663</v>
+        <v>409777211.6820076</v>
       </c>
       <c r="D254" t="n">
-        <v>8399117356.571699</v>
+        <v>8617142936.350363</v>
       </c>
       <c r="E254" t="n">
-        <v>1.65721834490375</v>
+        <v>1.648584358492921</v>
+      </c>
+      <c r="F254" t="n">
+        <v>2.595815375862975</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="B255" t="n">
-        <v>21.93961247225034</v>
+        <v>21.25624752923348</v>
       </c>
       <c r="C255" t="n">
-        <v>409777211.6820076</v>
+        <v>778775424.108569</v>
       </c>
       <c r="D255" t="n">
-        <v>8617142936.350363</v>
+        <v>8354008434.670635</v>
       </c>
       <c r="E255" t="n">
-        <v>1.648584358492931</v>
+        <v>1.612218241670154</v>
+      </c>
+      <c r="F255" t="n">
+        <v>-3.053616536517301</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="B256" t="n">
-        <v>21.25624752923348</v>
+        <v>22.33786402367974</v>
       </c>
       <c r="C256" t="n">
-        <v>778775424.108569</v>
+        <v>588617917.5009629</v>
       </c>
       <c r="D256" t="n">
-        <v>8354008434.670635</v>
+        <v>8756193576.97448</v>
       </c>
       <c r="E256" t="n">
-        <v>1.612218241670164</v>
+        <v>1.589863468307469</v>
+      </c>
+      <c r="F256" t="n">
+        <v>4.814277426806313</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>45044</v>
+        <v>45045</v>
       </c>
       <c r="B257" t="n">
-        <v>22.33786402367974</v>
+        <v>23.37481818901612</v>
       </c>
       <c r="C257" t="n">
-        <v>588617917.5009629</v>
+        <v>571324657.1728787</v>
       </c>
       <c r="D257" t="n">
-        <v>8756193576.97448</v>
+        <v>9208471390.321592</v>
       </c>
       <c r="E257" t="n">
-        <v>1.589863468307479</v>
+        <v>1.59967781109846</v>
+      </c>
+      <c r="F257" t="n">
+        <v>5.165233150354664</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>45045</v>
+        <v>45046</v>
       </c>
       <c r="B258" t="n">
-        <v>23.37481818901612</v>
+        <v>23.12840167422879</v>
       </c>
       <c r="C258" t="n">
-        <v>571324657.1728787</v>
+        <v>419332790.7905331</v>
       </c>
       <c r="D258" t="n">
-        <v>9208471390.321592</v>
+        <v>9092156212.487627</v>
       </c>
       <c r="E258" t="n">
-        <v>1.59967781109847</v>
+        <v>1.584204002671314</v>
+      </c>
+      <c r="F258" t="n">
+        <v>-1.263132314840187</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>45046</v>
+        <v>45047</v>
       </c>
       <c r="B259" t="n">
-        <v>23.12840167422879</v>
+        <v>22.9983216157083</v>
       </c>
       <c r="C259" t="n">
-        <v>419332790.7905331</v>
+        <v>425241774.7039137</v>
       </c>
       <c r="D259" t="n">
-        <v>9092156212.487627</v>
+        <v>9057154980.365274</v>
       </c>
       <c r="E259" t="n">
-        <v>1.584204002671324</v>
+        <v>1.580230247485024</v>
+      </c>
+      <c r="F259" t="n">
+        <v>-0.384960743132412</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>45047</v>
+        <v>45048</v>
       </c>
       <c r="B260" t="n">
-        <v>22.9983216157083</v>
+        <v>22.00748575266789</v>
       </c>
       <c r="C260" t="n">
-        <v>425241774.7039137</v>
+        <v>505839771.4145269</v>
       </c>
       <c r="D260" t="n">
-        <v>9057154980.365274</v>
+        <v>8651811979.929995</v>
       </c>
       <c r="E260" t="n">
-        <v>1.580230247485034</v>
+        <v>1.565984731769352</v>
+      </c>
+      <c r="F260" t="n">
+        <v>-4.475389913433192</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>45048</v>
+        <v>45049</v>
       </c>
       <c r="B261" t="n">
-        <v>22.00748575266789</v>
+        <v>22.26282466237854</v>
       </c>
       <c r="C261" t="n">
-        <v>505839771.4145269</v>
+        <v>326717891.1492143</v>
       </c>
       <c r="D261" t="n">
-        <v>8651811979.929995</v>
+        <v>8773546966.16016</v>
       </c>
       <c r="E261" t="n">
-        <v>1.565984731769362</v>
+        <v>1.532802038673539</v>
+      </c>
+      <c r="F261" t="n">
+        <v>1.407046136838841</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>45049</v>
+        <v>45050</v>
       </c>
       <c r="B262" t="n">
-        <v>22.26282466237854</v>
+        <v>22.21964186016809</v>
       </c>
       <c r="C262" t="n">
-        <v>326717891.1492143</v>
+        <v>493483012.2385331</v>
       </c>
       <c r="D262" t="n">
-        <v>8773546966.16016</v>
+        <v>8762010269.841459</v>
       </c>
       <c r="E262" t="n">
-        <v>1.532802038673549</v>
+        <v>1.491230839048263</v>
+      </c>
+      <c r="F262" t="n">
+        <v>-0.1314940965518097</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>45050</v>
+        <v>45051</v>
       </c>
       <c r="B263" t="n">
-        <v>22.21964186016809</v>
+        <v>21.74180097380086</v>
       </c>
       <c r="C263" t="n">
-        <v>493483012.2385331</v>
+        <v>330851121.9196332</v>
       </c>
       <c r="D263" t="n">
-        <v>8762010269.841459</v>
+        <v>8571042186.731829</v>
       </c>
       <c r="E263" t="n">
-        <v>1.491230839048274</v>
+        <v>1.470929342138953</v>
+      </c>
+      <c r="F263" t="n">
+        <v>-2.179500790668276</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>45051</v>
+        <v>45052</v>
       </c>
       <c r="B264" t="n">
-        <v>21.74180097380086</v>
+        <v>22.81860623219127</v>
       </c>
       <c r="C264" t="n">
-        <v>330851121.9196332</v>
+        <v>495492869.2605281</v>
       </c>
       <c r="D264" t="n">
-        <v>8571042186.731829</v>
+        <v>8999007584.2166</v>
       </c>
       <c r="E264" t="n">
-        <v>1.470929342138964</v>
+        <v>1.447597301708326</v>
+      </c>
+      <c r="F264" t="n">
+        <v>4.993154719822424</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>45052</v>
+        <v>45053</v>
       </c>
       <c r="B265" t="n">
-        <v>22.81860623219127</v>
+        <v>21.98670640634124</v>
       </c>
       <c r="C265" t="n">
-        <v>495492869.2605281</v>
+        <v>387964991.341857</v>
       </c>
       <c r="D265" t="n">
-        <v>8999007584.2166</v>
+        <v>8661587000.942377</v>
       </c>
       <c r="E265" t="n">
-        <v>1.447597301708337</v>
+        <v>1.407870216433491</v>
+      </c>
+      <c r="F265" t="n">
+        <v>-3.749531046801502</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>45053</v>
+        <v>45054</v>
       </c>
       <c r="B266" t="n">
-        <v>21.98670640634124</v>
+        <v>22.00245228581782</v>
       </c>
       <c r="C266" t="n">
-        <v>387964991.341857</v>
+        <v>341580978.5898679</v>
       </c>
       <c r="D266" t="n">
-        <v>8661587000.942377</v>
+        <v>8705466133.769728</v>
       </c>
       <c r="E266" t="n">
-        <v>1.407870216433502</v>
+        <v>1.358772848192499</v>
+      </c>
+      <c r="F266" t="n">
+        <v>0.5065946093086193</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>45054</v>
+        <v>45055</v>
       </c>
       <c r="B267" t="n">
-        <v>22.00245228581782</v>
+        <v>20.65668464098513</v>
       </c>
       <c r="C267" t="n">
-        <v>341580978.5898679</v>
+        <v>647060628.2950592</v>
       </c>
       <c r="D267" t="n">
-        <v>8705466133.769728</v>
+        <v>8146997991.830378</v>
       </c>
       <c r="E267" t="n">
-        <v>1.35877284819251</v>
+        <v>1.323627507893604</v>
+      </c>
+      <c r="F267" t="n">
+        <v>-6.415143466849793</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>45055</v>
+        <v>45056</v>
       </c>
       <c r="B268" t="n">
-        <v>20.65668464098513</v>
+        <v>20.65698116755869</v>
       </c>
       <c r="C268" t="n">
-        <v>647060628.2950592</v>
+        <v>318980320.9668151</v>
       </c>
       <c r="D268" t="n">
-        <v>8146997991.830378</v>
+        <v>8164794903.556</v>
       </c>
       <c r="E268" t="n">
-        <v>1.323627507893616</v>
+        <v>1.304089111022042</v>
+      </c>
+      <c r="F268" t="n">
+        <v>0.2184474789789892</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="B269" t="n">
-        <v>20.65698116755869</v>
+        <v>20.97570462762637</v>
       </c>
       <c r="C269" t="n">
-        <v>318980320.9668151</v>
+        <v>525984506.4658383</v>
       </c>
       <c r="D269" t="n">
-        <v>8164794903.556</v>
+        <v>8287539919.545623</v>
       </c>
       <c r="E269" t="n">
-        <v>1.304089111022054</v>
+        <v>1.299629756766595</v>
+      </c>
+      <c r="F269" t="n">
+        <v>1.503344755618596</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="B270" t="n">
-        <v>20.97570462762637</v>
+        <v>20.25440267119237</v>
       </c>
       <c r="C270" t="n">
-        <v>525984506.4658383</v>
+        <v>428549097.3925601</v>
       </c>
       <c r="D270" t="n">
-        <v>8287539919.545623</v>
+        <v>8015037356.982577</v>
       </c>
       <c r="E270" t="n">
-        <v>1.299629756766607</v>
+        <v>1.365488531716268</v>
+      </c>
+      <c r="F270" t="n">
+        <v>-3.288099547132994</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>45058</v>
+        <v>45059</v>
       </c>
       <c r="B271" t="n">
-        <v>20.25440267119237</v>
+        <v>20.92016230381876</v>
       </c>
       <c r="C271" t="n">
-        <v>428549097.3925601</v>
+        <v>397702422.4083055</v>
       </c>
       <c r="D271" t="n">
-        <v>8015037356.982577</v>
+        <v>8274505085.732654</v>
       </c>
       <c r="E271" t="n">
-        <v>1.36548853171628</v>
+        <v>1.371748973164798</v>
+      </c>
+      <c r="F271" t="n">
+        <v>3.237261627034482</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>45059</v>
+        <v>45060</v>
       </c>
       <c r="B272" t="n">
-        <v>20.92016230381876</v>
+        <v>20.89958266751842</v>
       </c>
       <c r="C272" t="n">
-        <v>397702422.4083055</v>
+        <v>252119905.3845561</v>
       </c>
       <c r="D272" t="n">
-        <v>8274505085.732654</v>
+        <v>8297710532.113992</v>
       </c>
       <c r="E272" t="n">
-        <v>1.37174897316481</v>
+        <v>1.343953163048711</v>
+      </c>
+      <c r="F272" t="n">
+        <v>0.280445128027651</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>45060</v>
+        <v>45061</v>
       </c>
       <c r="B273" t="n">
-        <v>20.89958266751842</v>
+        <v>20.93696153670559</v>
       </c>
       <c r="C273" t="n">
-        <v>252119905.3845561</v>
+        <v>211874592.4417572</v>
       </c>
       <c r="D273" t="n">
-        <v>8297710532.113992</v>
+        <v>8280978190.929416</v>
       </c>
       <c r="E273" t="n">
-        <v>1.343953163048722</v>
+        <v>1.280984028136334</v>
+      </c>
+      <c r="F273" t="n">
+        <v>-0.2016500951656286</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="B274" t="n">
-        <v>20.93696153670559</v>
+        <v>21.03774829176559</v>
       </c>
       <c r="C274" t="n">
-        <v>211874592.4417572</v>
+        <v>339745928.0609949</v>
       </c>
       <c r="D274" t="n">
-        <v>8280978190.929416</v>
+        <v>8316882669.84985</v>
       </c>
       <c r="E274" t="n">
-        <v>1.280984028136346</v>
+        <v>1.244406382654065</v>
+      </c>
+      <c r="F274" t="n">
+        <v>0.4335777500267035</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="B275" t="n">
-        <v>21.03774829176559</v>
+        <v>20.68621271782943</v>
       </c>
       <c r="C275" t="n">
-        <v>339745928.0609949</v>
+        <v>338232379.0015512</v>
       </c>
       <c r="D275" t="n">
-        <v>8316882669.84985</v>
+        <v>8187913902.158279</v>
       </c>
       <c r="E275" t="n">
-        <v>1.244406382654077</v>
+        <v>1.109005585043765</v>
+      </c>
+      <c r="F275" t="n">
+        <v>-1.550686390696654</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>45063</v>
+        <v>45064</v>
       </c>
       <c r="B276" t="n">
-        <v>20.68621271782943</v>
+        <v>21.05820535989317</v>
       </c>
       <c r="C276" t="n">
-        <v>338232379.0015512</v>
+        <v>332798485.4910487</v>
       </c>
       <c r="D276" t="n">
-        <v>8187913902.158279</v>
+        <v>8341868800.046011</v>
       </c>
       <c r="E276" t="n">
-        <v>1.109005585043779</v>
+        <v>0.9973926230872596</v>
+      </c>
+      <c r="F276" t="n">
+        <v>1.880270111867577</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>45064</v>
+        <v>45065</v>
       </c>
       <c r="B277" t="n">
-        <v>21.05820535989317</v>
+        <v>20.34519578780548</v>
       </c>
       <c r="C277" t="n">
-        <v>332798485.4910487</v>
+        <v>325479692.1659412</v>
       </c>
       <c r="D277" t="n">
-        <v>8341868800.046011</v>
+        <v>8061536789.167275</v>
       </c>
       <c r="E277" t="n">
-        <v>0.9973926230872754</v>
+        <v>0.8523908521737136</v>
+      </c>
+      <c r="F277" t="n">
+        <v>-3.360542075142559</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>45065</v>
+        <v>45066</v>
       </c>
       <c r="B278" t="n">
-        <v>20.34519578780548</v>
+        <v>20.35152684718045</v>
       </c>
       <c r="C278" t="n">
-        <v>325479692.1659412</v>
+        <v>159063269.0098726</v>
       </c>
       <c r="D278" t="n">
-        <v>8061536789.167275</v>
+        <v>8059779103.665763</v>
       </c>
       <c r="E278" t="n">
-        <v>0.8523908521737319</v>
+        <v>0.8613319125018726</v>
+      </c>
+      <c r="F278" t="n">
+        <v>-0.02180335520982624</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>45066</v>
+        <v>45067</v>
       </c>
       <c r="B279" t="n">
-        <v>20.35152684718045</v>
+        <v>20.26968481348177</v>
       </c>
       <c r="C279" t="n">
-        <v>159063269.0098726</v>
+        <v>129666227.9274796</v>
       </c>
       <c r="D279" t="n">
-        <v>8059779103.665763</v>
+        <v>8022997471.517465</v>
       </c>
       <c r="E279" t="n">
-        <v>0.8613319125018909</v>
+        <v>0.8848232968883134</v>
+      </c>
+      <c r="F279" t="n">
+        <v>-0.4563603006386252</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>45067</v>
+        <v>45068</v>
       </c>
       <c r="B280" t="n">
-        <v>20.26968481348177</v>
+        <v>19.63080078288757</v>
       </c>
       <c r="C280" t="n">
-        <v>129666227.9274796</v>
+        <v>236865558.0071539</v>
       </c>
       <c r="D280" t="n">
-        <v>8022997471.517465</v>
+        <v>7783712425.51017</v>
       </c>
       <c r="E280" t="n">
-        <v>0.8848232968883311</v>
+        <v>0.9480253666365607</v>
+      </c>
+      <c r="F280" t="n">
+        <v>-2.982489360825347</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>45068</v>
+        <v>45069</v>
       </c>
       <c r="B281" t="n">
-        <v>19.63080078288757</v>
+        <v>19.55876278970925</v>
       </c>
       <c r="C281" t="n">
-        <v>236865558.0071539</v>
+        <v>245317080.6497422</v>
       </c>
       <c r="D281" t="n">
-        <v>7783712425.51017</v>
+        <v>7749799385.59985</v>
       </c>
       <c r="E281" t="n">
-        <v>0.9480253666365772</v>
+        <v>1.005213621820529</v>
+      </c>
+      <c r="F281" t="n">
+        <v>-0.4356923541930291</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>45069</v>
+        <v>45070</v>
       </c>
       <c r="B282" t="n">
-        <v>19.55876278970925</v>
+        <v>20.04690938871374</v>
       </c>
       <c r="C282" t="n">
-        <v>245317080.6497422</v>
+        <v>293341170.1322027</v>
       </c>
       <c r="D282" t="n">
-        <v>7749799385.59985</v>
+        <v>7940043369.313906</v>
       </c>
       <c r="E282" t="n">
-        <v>1.005213621820545</v>
+        <v>1.033515647756988</v>
+      </c>
+      <c r="F282" t="n">
+        <v>2.454824625106489</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>45070</v>
+        <v>45071</v>
       </c>
       <c r="B283" t="n">
-        <v>20.04690938871374</v>
+        <v>19.21432312733281</v>
       </c>
       <c r="C283" t="n">
-        <v>293341170.1322027</v>
+        <v>317110913.7217349</v>
       </c>
       <c r="D283" t="n">
-        <v>7940043369.313906</v>
+        <v>7619548993.269599</v>
       </c>
       <c r="E283" t="n">
-        <v>1.033515647757003</v>
+        <v>1.102813250373852</v>
+      </c>
+      <c r="F283" t="n">
+        <v>-4.036431051282785</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>45071</v>
+        <v>45072</v>
       </c>
       <c r="B284" t="n">
-        <v>19.21432312733281</v>
+        <v>19.25614469626469</v>
       </c>
       <c r="C284" t="n">
-        <v>317110913.7217349</v>
+        <v>231050352.9216551</v>
       </c>
       <c r="D284" t="n">
-        <v>7619548993.269599</v>
+        <v>7626215765.408768</v>
       </c>
       <c r="E284" t="n">
-        <v>1.102813250373866</v>
+        <v>1.152851441068713</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0.08749562664480681</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>45072</v>
+        <v>45073</v>
       </c>
       <c r="B285" t="n">
-        <v>19.25614469626469</v>
+        <v>19.36699951306376</v>
       </c>
       <c r="C285" t="n">
-        <v>231050352.9216551</v>
+        <v>181186113.2108402</v>
       </c>
       <c r="D285" t="n">
-        <v>7626215765.408768</v>
+        <v>7676617783.529346</v>
       </c>
       <c r="E285" t="n">
-        <v>1.152851441068727</v>
+        <v>1.198289313311046</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0.6609046959986653</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>45073</v>
+        <v>45074</v>
       </c>
       <c r="B286" t="n">
-        <v>19.36699951306376</v>
+        <v>20.40523160062174</v>
       </c>
       <c r="C286" t="n">
-        <v>181186113.2108402</v>
+        <v>209249088.6518294</v>
       </c>
       <c r="D286" t="n">
-        <v>7676617783.529346</v>
+        <v>8089935112.023952</v>
       </c>
       <c r="E286" t="n">
-        <v>1.198289313311059</v>
+        <v>1.18127869984629</v>
+      </c>
+      <c r="F286" t="n">
+        <v>5.38410716997535</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>45074</v>
+        <v>45075</v>
       </c>
       <c r="B287" t="n">
-        <v>20.40523160062174</v>
+        <v>20.81512281670048</v>
       </c>
       <c r="C287" t="n">
-        <v>209249088.6518294</v>
+        <v>319936574.8104172</v>
       </c>
       <c r="D287" t="n">
-        <v>8089935112.023952</v>
+        <v>8259241871.664162</v>
       </c>
       <c r="E287" t="n">
-        <v>1.181278699846303</v>
+        <v>1.095848718768795</v>
+      </c>
+      <c r="F287" t="n">
+        <v>2.09280738715163</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>45075</v>
+        <v>45076</v>
       </c>
       <c r="B288" t="n">
-        <v>20.81512281670048</v>
+        <v>20.57365784393182</v>
       </c>
       <c r="C288" t="n">
-        <v>319936574.8104172</v>
+        <v>263476675.879753</v>
       </c>
       <c r="D288" t="n">
-        <v>8259241871.664162</v>
+        <v>8162528825.077333</v>
       </c>
       <c r="E288" t="n">
-        <v>1.095848718768809</v>
+        <v>1.017195665713745</v>
+      </c>
+      <c r="F288" t="n">
+        <v>-1.170967603196504</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>45076</v>
+        <v>45077</v>
       </c>
       <c r="B289" t="n">
-        <v>20.57365784393182</v>
+        <v>21.24838739611184</v>
       </c>
       <c r="C289" t="n">
-        <v>263476675.879753</v>
+        <v>390015607.5685315</v>
       </c>
       <c r="D289" t="n">
-        <v>8162528825.077333</v>
+        <v>8420948536.256156</v>
       </c>
       <c r="E289" t="n">
-        <v>1.01719566571376</v>
+        <v>0.9377217087423473</v>
+      </c>
+      <c r="F289" t="n">
+        <v>3.165927088488707</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="B290" t="n">
-        <v>21.24838739611184</v>
+        <v>20.82042686685682</v>
       </c>
       <c r="C290" t="n">
-        <v>390015607.5685315</v>
+        <v>264038937.441645</v>
       </c>
       <c r="D290" t="n">
-        <v>8420948536.256156</v>
+        <v>8253719265.038129</v>
       </c>
       <c r="E290" t="n">
-        <v>0.937721708742364</v>
+        <v>0.9099446619861938</v>
+      </c>
+      <c r="F290" t="n">
+        <v>-1.985872143714285</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>45078</v>
+        <v>45079</v>
       </c>
       <c r="B291" t="n">
-        <v>20.82042686685682</v>
+        <v>20.51288856056659</v>
       </c>
       <c r="C291" t="n">
-        <v>264038937.441645</v>
+        <v>229620968.9783873</v>
       </c>
       <c r="D291" t="n">
-        <v>8253719265.038129</v>
+        <v>8135209555.988281</v>
       </c>
       <c r="E291" t="n">
-        <v>0.9099446619862112</v>
+        <v>0.8657844914801681</v>
+      </c>
+      <c r="F291" t="n">
+        <v>-1.435834019117199</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>45079</v>
+        <v>45080</v>
       </c>
       <c r="B292" t="n">
-        <v>20.51288856056659</v>
+        <v>21.25712616962741</v>
       </c>
       <c r="C292" t="n">
-        <v>229620968.9783873</v>
+        <v>262878676.0490332</v>
       </c>
       <c r="D292" t="n">
-        <v>8135209555.988281</v>
+        <v>8440560224.313393</v>
       </c>
       <c r="E292" t="n">
-        <v>0.8657844914801862</v>
+        <v>0.8247317087115531</v>
+      </c>
+      <c r="F292" t="n">
+        <v>3.753445639274822</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>45080</v>
+        <v>45081</v>
       </c>
       <c r="B293" t="n">
-        <v>21.25712616962741</v>
+        <v>21.14820626773287</v>
       </c>
       <c r="C293" t="n">
-        <v>262878676.0490332</v>
+        <v>159566542.1656225</v>
       </c>
       <c r="D293" t="n">
-        <v>8440560224.313393</v>
+        <v>8395562285.774495</v>
       </c>
       <c r="E293" t="n">
-        <v>0.8247317087115722</v>
+        <v>0.8051899845560241</v>
+      </c>
+      <c r="F293" t="n">
+        <v>-0.5331155437915069</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>45081</v>
+        <v>45082</v>
       </c>
       <c r="B294" t="n">
-        <v>21.14820626773287</v>
+        <v>21.86975012003668</v>
       </c>
       <c r="C294" t="n">
-        <v>159566542.1656225</v>
+        <v>372653389.2570282</v>
       </c>
       <c r="D294" t="n">
-        <v>8395562285.774495</v>
+        <v>8705745044.414808</v>
       </c>
       <c r="E294" t="n">
-        <v>0.8051899845560436</v>
+        <v>0.7327303944848887</v>
+      </c>
+      <c r="F294" t="n">
+        <v>3.694603745193925</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>45082</v>
+        <v>45083</v>
       </c>
       <c r="B295" t="n">
-        <v>21.86975012003668</v>
+        <v>20.08249725551102</v>
       </c>
       <c r="C295" t="n">
-        <v>372653389.2570282</v>
+        <v>663116037.0576035</v>
       </c>
       <c r="D295" t="n">
-        <v>8705745044.414808</v>
+        <v>7993273614.350522</v>
       </c>
       <c r="E295" t="n">
-        <v>0.7327303944849102</v>
+        <v>0.6920923518784958</v>
+      </c>
+      <c r="F295" t="n">
+        <v>-8.18392252965614</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="B296" t="n">
-        <v>20.08249725551102</v>
+        <v>20.39931636636719</v>
       </c>
       <c r="C296" t="n">
-        <v>663116037.0576035</v>
+        <v>490820421.9838052</v>
       </c>
       <c r="D296" t="n">
-        <v>7993273614.350522</v>
+        <v>8102758544.84506</v>
       </c>
       <c r="E296" t="n">
-        <v>0.6920923518785185</v>
+        <v>0.6367082191704462</v>
+      </c>
+      <c r="F296" t="n">
+        <v>1.369713283653606</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="B297" t="n">
-        <v>20.39931636636719</v>
+        <v>18.64940911323256</v>
       </c>
       <c r="C297" t="n">
-        <v>490820421.9838052</v>
+        <v>412771478.2639247</v>
       </c>
       <c r="D297" t="n">
-        <v>8102758544.84506</v>
+        <v>7429398031.748883</v>
       </c>
       <c r="E297" t="n">
-        <v>0.6367082191704708</v>
+        <v>0.7205495834289162</v>
+      </c>
+      <c r="F297" t="n">
+        <v>-8.310262602167329</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="B298" t="n">
-        <v>18.64940911323256</v>
+        <v>18.91886786249937</v>
       </c>
       <c r="C298" t="n">
-        <v>412771478.2639247</v>
+        <v>295929574.2718655</v>
       </c>
       <c r="D298" t="n">
-        <v>7429398031.748883</v>
+        <v>7533243369.330318</v>
       </c>
       <c r="E298" t="n">
-        <v>0.720549583428938</v>
+        <v>0.7707636247794593</v>
+      </c>
+      <c r="F298" t="n">
+        <v>1.397762471975006</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>45086</v>
+        <v>45087</v>
       </c>
       <c r="B299" t="n">
-        <v>18.91886786249937</v>
+        <v>17.319852048307</v>
       </c>
       <c r="C299" t="n">
-        <v>295929574.2718655</v>
+        <v>511958399.0593868</v>
       </c>
       <c r="D299" t="n">
-        <v>7533243369.330318</v>
+        <v>6890419608.144915</v>
       </c>
       <c r="E299" t="n">
-        <v>0.7707636247794796</v>
+        <v>0.9435665198276144</v>
+      </c>
+      <c r="F299" t="n">
+        <v>-8.533160680862872</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>45087</v>
+        <v>45088</v>
       </c>
       <c r="B300" t="n">
-        <v>17.319852048307</v>
+        <v>15.71229103059596</v>
       </c>
       <c r="C300" t="n">
-        <v>511958399.0593868</v>
+        <v>1409006890.343342</v>
       </c>
       <c r="D300" t="n">
-        <v>6890419608.144915</v>
+        <v>6262620811.883113</v>
       </c>
       <c r="E300" t="n">
-        <v>0.9435665198276311</v>
+        <v>1.257112320107197</v>
+      </c>
+      <c r="F300" t="n">
+        <v>-9.111183817016077</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>45088</v>
+        <v>45089</v>
       </c>
       <c r="B301" t="n">
-        <v>15.71229103059596</v>
+        <v>15.55216571530083</v>
       </c>
       <c r="C301" t="n">
-        <v>1409006890.343342</v>
+        <v>495437298.9730397</v>
       </c>
       <c r="D301" t="n">
-        <v>6262620811.883113</v>
+        <v>6191248338.350977</v>
       </c>
       <c r="E301" t="n">
-        <v>1.257112320107209</v>
+        <v>1.497019708603397</v>
+      </c>
+      <c r="F301" t="n">
+        <v>-1.139658230571916</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>45089</v>
+        <v>45090</v>
       </c>
       <c r="B302" t="n">
-        <v>15.55216571530083</v>
+        <v>15.2191214416983</v>
       </c>
       <c r="C302" t="n">
-        <v>495437298.9730397</v>
+        <v>431328719.2938907</v>
       </c>
       <c r="D302" t="n">
-        <v>6191248338.350977</v>
+        <v>6067764743.466437</v>
       </c>
       <c r="E302" t="n">
-        <v>1.497019708603407</v>
+        <v>1.713882765367907</v>
+      </c>
+      <c r="F302" t="n">
+        <v>-1.994486218871805</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>45090</v>
+        <v>45091</v>
       </c>
       <c r="B303" t="n">
-        <v>15.2191214416983</v>
+        <v>14.99608413716872</v>
       </c>
       <c r="C303" t="n">
-        <v>431328719.2938907</v>
+        <v>403335227.9525269</v>
       </c>
       <c r="D303" t="n">
-        <v>6067764743.466437</v>
+        <v>5975770710.188687</v>
       </c>
       <c r="E303" t="n">
-        <v>1.713882765367916</v>
+        <v>1.903764414151241</v>
+      </c>
+      <c r="F303" t="n">
+        <v>-1.516110745341703</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="B304" t="n">
-        <v>14.99608413716872</v>
+        <v>14.51189131658925</v>
       </c>
       <c r="C304" t="n">
-        <v>403335227.9525269</v>
+        <v>327310831.8267112</v>
       </c>
       <c r="D304" t="n">
-        <v>5975770710.188687</v>
+        <v>5789069977.260347</v>
       </c>
       <c r="E304" t="n">
-        <v>1.90376441415125</v>
+        <v>2.090848630469561</v>
+      </c>
+      <c r="F304" t="n">
+        <v>-3.124295458827009</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="B305" t="n">
-        <v>14.51189131658925</v>
+        <v>14.74177482609667</v>
       </c>
       <c r="C305" t="n">
-        <v>327310831.8267112</v>
+        <v>371929576.6978071</v>
       </c>
       <c r="D305" t="n">
-        <v>5789069977.260347</v>
+        <v>5880524857.505803</v>
       </c>
       <c r="E305" t="n">
-        <v>2.090848630469569</v>
+        <v>2.234306313130589</v>
+      </c>
+      <c r="F305" t="n">
+        <v>1.579785364569664</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>45093</v>
+        <v>45094</v>
       </c>
       <c r="B306" t="n">
-        <v>14.74177482609667</v>
+        <v>15.30565284380576</v>
       </c>
       <c r="C306" t="n">
-        <v>371929576.6978071</v>
+        <v>256057658.1759769</v>
       </c>
       <c r="D306" t="n">
-        <v>5880524857.505803</v>
+        <v>6109552126.06054</v>
       </c>
       <c r="E306" t="n">
-        <v>2.234306313130595</v>
+        <v>2.308589955454066</v>
+      </c>
+      <c r="F306" t="n">
+        <v>3.894673929698822</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>45094</v>
+        <v>45095</v>
       </c>
       <c r="B307" t="n">
-        <v>15.30565284380576</v>
+        <v>15.62635427265325</v>
       </c>
       <c r="C307" t="n">
-        <v>256057658.1759769</v>
+        <v>218008809.3119914</v>
       </c>
       <c r="D307" t="n">
-        <v>6109552126.06054</v>
+        <v>6246219926.833057</v>
       </c>
       <c r="E307" t="n">
-        <v>2.308589955454072</v>
+        <v>2.369271870726742</v>
+      </c>
+      <c r="F307" t="n">
+        <v>2.236952855996677</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>45095</v>
+        <v>45096</v>
       </c>
       <c r="B308" t="n">
-        <v>15.62635427265325</v>
+        <v>15.43448523389727</v>
       </c>
       <c r="C308" t="n">
-        <v>218008809.3119914</v>
+        <v>155673889.3726953</v>
       </c>
       <c r="D308" t="n">
-        <v>6246219926.833057</v>
+        <v>6170109454.954071</v>
       </c>
       <c r="E308" t="n">
-        <v>2.369271870726749</v>
+        <v>2.426155861282385</v>
+      </c>
+      <c r="F308" t="n">
+        <v>-1.218504515859653</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>45096</v>
+        <v>45097</v>
       </c>
       <c r="B309" t="n">
-        <v>15.43448523389727</v>
+        <v>16.03876225311688</v>
       </c>
       <c r="C309" t="n">
-        <v>155673889.3726953</v>
+        <v>150009939.3579197</v>
       </c>
       <c r="D309" t="n">
-        <v>6170109454.954071</v>
+        <v>6382655003.177078</v>
       </c>
       <c r="E309" t="n">
-        <v>2.426155861282391</v>
+        <v>2.449539477659239</v>
+      </c>
+      <c r="F309" t="n">
+        <v>3.444761389967743</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="B310" t="n">
-        <v>16.03876225311688</v>
+        <v>16.62514340302664</v>
       </c>
       <c r="C310" t="n">
-        <v>150009939.3579197</v>
+        <v>248748774.3427503</v>
       </c>
       <c r="D310" t="n">
-        <v>6382655003.177078</v>
+        <v>6629964493.675703</v>
       </c>
       <c r="E310" t="n">
-        <v>2.449539477659246</v>
+        <v>2.462047604386334</v>
+      </c>
+      <c r="F310" t="n">
+        <v>3.874711861686442</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="B311" t="n">
-        <v>16.62514340302664</v>
+        <v>17.26320209231065</v>
       </c>
       <c r="C311" t="n">
-        <v>248748774.3427503</v>
+        <v>315268431.8778776</v>
       </c>
       <c r="D311" t="n">
-        <v>6629964493.675703</v>
+        <v>6903161332.170283</v>
       </c>
       <c r="E311" t="n">
-        <v>2.46204760438634</v>
+        <v>2.45963547658829</v>
+      </c>
+      <c r="F311" t="n">
+        <v>4.120638032906232</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="B312" t="n">
-        <v>17.26320209231065</v>
+        <v>16.64539258023044</v>
       </c>
       <c r="C312" t="n">
-        <v>315268431.8778776</v>
+        <v>295506781.4429373</v>
       </c>
       <c r="D312" t="n">
-        <v>6903161332.170283</v>
+        <v>6663990154.562925</v>
       </c>
       <c r="E312" t="n">
-        <v>2.459635476588296</v>
+        <v>2.454618025349699</v>
+      </c>
+      <c r="F312" t="n">
+        <v>-3.464661567342586</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="B313" t="n">
-        <v>16.64539258023044</v>
+        <v>17.10092758590989</v>
       </c>
       <c r="C313" t="n">
-        <v>295506781.4429373</v>
+        <v>328345333.9238198</v>
       </c>
       <c r="D313" t="n">
-        <v>6663990154.562925</v>
+        <v>6825331675.927217</v>
       </c>
       <c r="E313" t="n">
-        <v>2.454618025349705</v>
+        <v>2.454365723539084</v>
+      </c>
+      <c r="F313" t="n">
+        <v>2.421094833908466</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="B314" t="n">
-        <v>17.10092758590989</v>
+        <v>16.63062758389679</v>
       </c>
       <c r="C314" t="n">
-        <v>328345333.9238198</v>
+        <v>235858972.6096832</v>
       </c>
       <c r="D314" t="n">
-        <v>6825331675.927217</v>
+        <v>6642182122.570187</v>
       </c>
       <c r="E314" t="n">
-        <v>2.45436572353909</v>
+        <v>2.45903710810501</v>
+      </c>
+      <c r="F314" t="n">
+        <v>-2.68337953455059</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="B315" t="n">
-        <v>16.63062758389679</v>
+        <v>16.96011970924781</v>
       </c>
       <c r="C315" t="n">
-        <v>235858972.6096832</v>
+        <v>212892011.9218518</v>
       </c>
       <c r="D315" t="n">
-        <v>6642182122.570187</v>
+        <v>6785842637.336145</v>
       </c>
       <c r="E315" t="n">
-        <v>2.459037108105016</v>
+        <v>2.453046129797337</v>
+      </c>
+      <c r="F315" t="n">
+        <v>2.162851185272374</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="B316" t="n">
-        <v>16.96011970924781</v>
+        <v>16.28401280448042</v>
       </c>
       <c r="C316" t="n">
-        <v>212892011.9218518</v>
+        <v>246629750.0732223</v>
       </c>
       <c r="D316" t="n">
-        <v>6785842637.336145</v>
+        <v>6497000673.693492</v>
       </c>
       <c r="E316" t="n">
-        <v>2.453046129797344</v>
+        <v>2.425831948665856</v>
+      </c>
+      <c r="F316" t="n">
+        <v>-4.256537899264368</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="B317" t="n">
-        <v>16.28401280448042</v>
+        <v>16.60408750457774</v>
       </c>
       <c r="C317" t="n">
-        <v>246629750.0732223</v>
+        <v>232332350.0357121</v>
       </c>
       <c r="D317" t="n">
-        <v>6497000673.693492</v>
+        <v>6626087422.922995</v>
       </c>
       <c r="E317" t="n">
-        <v>2.425831948665862</v>
+        <v>2.366994927179893</v>
+      </c>
+      <c r="F317" t="n">
+        <v>1.986866797662157</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="B318" t="n">
-        <v>16.60408750457774</v>
+        <v>15.99642473559871</v>
       </c>
       <c r="C318" t="n">
-        <v>232332350.0357121</v>
+        <v>301702745.2093872</v>
       </c>
       <c r="D318" t="n">
-        <v>6626087422.922995</v>
+        <v>6403600623.488655</v>
       </c>
       <c r="E318" t="n">
-        <v>2.366994927179899</v>
+        <v>2.320330246254125</v>
+      </c>
+      <c r="F318" t="n">
+        <v>-3.357740175063872</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="B319" t="n">
-        <v>15.99642473559871</v>
+        <v>17.99843980063291</v>
       </c>
       <c r="C319" t="n">
-        <v>301702745.2093872</v>
+        <v>635900925.9452425</v>
       </c>
       <c r="D319" t="n">
-        <v>6403600623.488655</v>
+        <v>7187331652.66652</v>
       </c>
       <c r="E319" t="n">
-        <v>2.320330246254132</v>
+        <v>2.213461731444667</v>
+      </c>
+      <c r="F319" t="n">
+        <v>12.23891175072833</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>45107</v>
+        <v>45108</v>
       </c>
       <c r="B320" t="n">
-        <v>17.99843980063291</v>
+        <v>18.93035984897103</v>
       </c>
       <c r="C320" t="n">
-        <v>635900925.9452425</v>
+        <v>828667787.0041169</v>
       </c>
       <c r="D320" t="n">
-        <v>7187331652.66652</v>
+        <v>7567998783.57058</v>
       </c>
       <c r="E320" t="n">
-        <v>2.213461731444674</v>
+        <v>2.138602219367042</v>
+      </c>
+      <c r="F320" t="n">
+        <v>5.296362395671994</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>45108</v>
+        <v>45109</v>
       </c>
       <c r="B321" t="n">
-        <v>18.93035984897103</v>
+        <v>18.61276970479417</v>
       </c>
       <c r="C321" t="n">
-        <v>828667787.0041169</v>
+        <v>280718699.5696731</v>
       </c>
       <c r="D321" t="n">
-        <v>7567998783.57058</v>
+        <v>7437496981.577963</v>
       </c>
       <c r="E321" t="n">
-        <v>2.13860221936705</v>
+        <v>2.068519939101829</v>
+      </c>
+      <c r="F321" t="n">
+        <v>-1.724389838380058</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>45109</v>
+        <v>45110</v>
       </c>
       <c r="B322" t="n">
-        <v>18.61276970479417</v>
+        <v>19.44673332510388</v>
       </c>
       <c r="C322" t="n">
-        <v>280718699.5696731</v>
+        <v>474851803.7888158</v>
       </c>
       <c r="D322" t="n">
-        <v>7437496981.577963</v>
+        <v>7792444090.125793</v>
       </c>
       <c r="E322" t="n">
-        <v>2.068519939101837</v>
+        <v>1.972716100763114</v>
+      </c>
+      <c r="F322" t="n">
+        <v>4.772400034944591</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>45110</v>
+        <v>45111</v>
       </c>
       <c r="B323" t="n">
-        <v>19.44673332510388</v>
+        <v>19.20521438307814</v>
       </c>
       <c r="C323" t="n">
-        <v>474851803.7888158</v>
+        <v>280766166.6517864</v>
       </c>
       <c r="D323" t="n">
-        <v>7792444090.125793</v>
+        <v>7700930946.150432</v>
       </c>
       <c r="E323" t="n">
-        <v>1.972716100763122</v>
+        <v>1.868470599974046</v>
+      </c>
+      <c r="F323" t="n">
+        <v>-1.174383067968643</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="B324" t="n">
-        <v>19.20521438307814</v>
+        <v>19.2189588729953</v>
       </c>
       <c r="C324" t="n">
-        <v>280766166.6517864</v>
+        <v>303069428.5626485</v>
       </c>
       <c r="D324" t="n">
-        <v>7700930946.150432</v>
+        <v>7724902370.005767</v>
       </c>
       <c r="E324" t="n">
-        <v>1.868470599974054</v>
+        <v>1.692241229296661</v>
+      </c>
+      <c r="F324" t="n">
+        <v>0.3112795585749062</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B325" t="n">
-        <v>19.2189588729953</v>
+        <v>18.97215110747223</v>
       </c>
       <c r="C325" t="n">
-        <v>303069428.5626485</v>
+        <v>234904855.4249562</v>
       </c>
       <c r="D325" t="n">
-        <v>7724902370.005767</v>
+        <v>7619692719.675487</v>
       </c>
       <c r="E325" t="n">
-        <v>1.69224122929667</v>
+        <v>1.635211284551497</v>
+      </c>
+      <c r="F325" t="n">
+        <v>-1.36195443373871</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>45113</v>
+        <v>45114</v>
       </c>
       <c r="B326" t="n">
-        <v>18.97215110747223</v>
+        <v>19.91904778193985</v>
       </c>
       <c r="C326" t="n">
-        <v>234904855.4249562</v>
+        <v>849101386.5457045</v>
       </c>
       <c r="D326" t="n">
-        <v>7619692719.675487</v>
+        <v>8013479115.45537</v>
       </c>
       <c r="E326" t="n">
-        <v>1.635211284551507</v>
+        <v>1.603130961178934</v>
+      </c>
+      <c r="F326" t="n">
+        <v>5.168008872103891</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="B327" t="n">
-        <v>19.91904778193985</v>
+        <v>21.43877643006556</v>
       </c>
       <c r="C327" t="n">
-        <v>849101386.5457045</v>
+        <v>827536919.6324662</v>
       </c>
       <c r="D327" t="n">
-        <v>8013479115.45537</v>
+        <v>8609626131.887451</v>
       </c>
       <c r="E327" t="n">
-        <v>1.603130961178944</v>
+        <v>1.773091874415947</v>
+      </c>
+      <c r="F327" t="n">
+        <v>7.439303301886802</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>45115</v>
+        <v>45116</v>
       </c>
       <c r="B328" t="n">
-        <v>21.43877643006556</v>
+        <v>21.89670111160719</v>
       </c>
       <c r="C328" t="n">
-        <v>827536919.6324662</v>
+        <v>596483861.204096</v>
       </c>
       <c r="D328" t="n">
-        <v>8609626131.887451</v>
+        <v>8804631486.280863</v>
       </c>
       <c r="E328" t="n">
-        <v>1.773091874415956</v>
+        <v>1.952281320447213</v>
+      </c>
+      <c r="F328" t="n">
+        <v>2.264968901160191</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45116</v>
+        <v>45117</v>
       </c>
       <c r="B329" t="n">
-        <v>21.89670111160719</v>
+        <v>21.35139737647799</v>
       </c>
       <c r="C329" t="n">
-        <v>596483861.204096</v>
+        <v>364524219.7872348</v>
       </c>
       <c r="D329" t="n">
-        <v>8804631486.280863</v>
+        <v>8595004420.8743</v>
       </c>
       <c r="E329" t="n">
-        <v>1.952281320447221</v>
+        <v>2.09393910908137</v>
+      </c>
+      <c r="F329" t="n">
+        <v>-2.380872677444801</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45117</v>
+        <v>45118</v>
       </c>
       <c r="B330" t="n">
-        <v>21.35139737647799</v>
+        <v>21.3026471280522</v>
       </c>
       <c r="C330" t="n">
-        <v>364524219.7872348</v>
+        <v>508301719.1371803</v>
       </c>
       <c r="D330" t="n">
-        <v>8595004420.8743</v>
+        <v>8559664093.103448</v>
       </c>
       <c r="E330" t="n">
-        <v>2.093939109081378</v>
+        <v>2.190494253749186</v>
+      </c>
+      <c r="F330" t="n">
+        <v>-0.4111728864853448</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="B331" t="n">
-        <v>21.3026471280522</v>
+        <v>22.06823398993473</v>
       </c>
       <c r="C331" t="n">
-        <v>508301719.1371803</v>
+        <v>431275744.9396116</v>
       </c>
       <c r="D331" t="n">
-        <v>8559664093.103448</v>
+        <v>8875741131.46763</v>
       </c>
       <c r="E331" t="n">
-        <v>2.190494253749193</v>
+        <v>2.307773810838148</v>
+      </c>
+      <c r="F331" t="n">
+        <v>3.692633670272727</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>45119</v>
+        <v>45120</v>
       </c>
       <c r="B332" t="n">
-        <v>22.06823398993473</v>
+        <v>21.99762779997036</v>
       </c>
       <c r="C332" t="n">
-        <v>431275744.9396116</v>
+        <v>553660968.1120811</v>
       </c>
       <c r="D332" t="n">
-        <v>8875741131.46763</v>
+        <v>8862665910.429438</v>
       </c>
       <c r="E332" t="n">
-        <v>2.307773810838154</v>
+        <v>2.382580391890589</v>
+      </c>
+      <c r="F332" t="n">
+        <v>-0.1473141323583227</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="B333" t="n">
-        <v>21.99762779997036</v>
+        <v>25.99036847042115</v>
       </c>
       <c r="C333" t="n">
-        <v>553660968.1120811</v>
+        <v>1191586017.525054</v>
       </c>
       <c r="D333" t="n">
-        <v>8862665910.429438</v>
+        <v>10410892785.97396</v>
       </c>
       <c r="E333" t="n">
-        <v>2.382580391890596</v>
+        <v>2.729528128432421</v>
+      </c>
+      <c r="F333" t="n">
+        <v>17.46908764463975</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>45121</v>
+        <v>45122</v>
       </c>
       <c r="B334" t="n">
-        <v>25.99036847042115</v>
+        <v>26.70837143445151</v>
       </c>
       <c r="C334" t="n">
-        <v>1191586017.525054</v>
+        <v>2112669368.826929</v>
       </c>
       <c r="D334" t="n">
-        <v>10410892785.97396</v>
+        <v>10743046575.07767</v>
       </c>
       <c r="E334" t="n">
-        <v>2.729528128432427</v>
+        <v>3.031686599115509</v>
+      </c>
+      <c r="F334" t="n">
+        <v>3.190444815176585</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45122</v>
+        <v>45123</v>
       </c>
       <c r="B335" t="n">
-        <v>26.70837143445151</v>
+        <v>27.35137594253902</v>
       </c>
       <c r="C335" t="n">
-        <v>2112669368.826929</v>
+        <v>1182553641.312105</v>
       </c>
       <c r="D335" t="n">
-        <v>10743046575.07767</v>
+        <v>11015911503.06582</v>
       </c>
       <c r="E335" t="n">
-        <v>3.031686599115514</v>
+        <v>3.318267264910879</v>
+      </c>
+      <c r="F335" t="n">
+        <v>2.539921297755132</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45123</v>
+        <v>45124</v>
       </c>
       <c r="B336" t="n">
-        <v>27.35137594253902</v>
+        <v>27.36507999821092</v>
       </c>
       <c r="C336" t="n">
-        <v>1182553641.312105</v>
+        <v>747993415.8682022</v>
       </c>
       <c r="D336" t="n">
-        <v>11015911503.06582</v>
+        <v>11002094754.60581</v>
       </c>
       <c r="E336" t="n">
-        <v>3.318267264910884</v>
+        <v>3.556614680231865</v>
+      </c>
+      <c r="F336" t="n">
+        <v>-0.1254253763400159</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45124</v>
+        <v>45125</v>
       </c>
       <c r="B337" t="n">
-        <v>27.36507999821092</v>
+        <v>26.8617980431953</v>
       </c>
       <c r="C337" t="n">
-        <v>747993415.8682022</v>
+        <v>1008258072.198882</v>
       </c>
       <c r="D337" t="n">
-        <v>11002094754.60581</v>
+        <v>10816613437.04451</v>
       </c>
       <c r="E337" t="n">
-        <v>3.55661468023187</v>
+        <v>3.715451939130823</v>
+      </c>
+      <c r="F337" t="n">
+        <v>-1.685872751492656</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="B338" t="n">
-        <v>26.8617980431953</v>
+        <v>25.52617638895461</v>
       </c>
       <c r="C338" t="n">
-        <v>1008258072.198882</v>
+        <v>690701365.242011</v>
       </c>
       <c r="D338" t="n">
-        <v>10816613437.04451</v>
+        <v>10269805534.15249</v>
       </c>
       <c r="E338" t="n">
-        <v>3.715451939130828</v>
+        <v>3.750084732935703</v>
+      </c>
+      <c r="F338" t="n">
+        <v>-5.055259726850636</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45126</v>
+        <v>45127</v>
       </c>
       <c r="B339" t="n">
-        <v>25.52617638895461</v>
+        <v>26.35331168465336</v>
       </c>
       <c r="C339" t="n">
-        <v>690701365.242011</v>
+        <v>591575595.4536291</v>
       </c>
       <c r="D339" t="n">
-        <v>10269805534.15249</v>
+        <v>10633423774.84343</v>
       </c>
       <c r="E339" t="n">
-        <v>3.750084732935707</v>
+        <v>3.820285528986565</v>
+      </c>
+      <c r="F339" t="n">
+        <v>3.54065361297955</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="B340" t="n">
-        <v>26.35331168465336</v>
+        <v>25.3350693194684</v>
       </c>
       <c r="C340" t="n">
-        <v>591575595.4536291</v>
+        <v>586428471.61985</v>
       </c>
       <c r="D340" t="n">
-        <v>10633423774.84343</v>
+        <v>10227156125.30492</v>
       </c>
       <c r="E340" t="n">
-        <v>3.820285528986569</v>
+        <v>3.837080017888743</v>
+      </c>
+      <c r="F340" t="n">
+        <v>-3.820666401913353</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45128</v>
+        <v>45129</v>
       </c>
       <c r="B341" t="n">
-        <v>25.3350693194684</v>
+        <v>25.58950999514426</v>
       </c>
       <c r="C341" t="n">
-        <v>586428471.61985</v>
+        <v>426785949.9273866</v>
       </c>
       <c r="D341" t="n">
-        <v>10227156125.30492</v>
+        <v>10346698670.50916</v>
       </c>
       <c r="E341" t="n">
-        <v>3.837080017888747</v>
+        <v>3.865142284986191</v>
+      </c>
+      <c r="F341" t="n">
+        <v>1.168873768421874</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>45129</v>
+        <v>45130</v>
       </c>
       <c r="B342" t="n">
-        <v>25.58950999514426</v>
+        <v>24.45678468463933</v>
       </c>
       <c r="C342" t="n">
-        <v>426785949.9273866</v>
+        <v>325886121.2160822</v>
       </c>
       <c r="D342" t="n">
-        <v>10346698670.50916</v>
+        <v>9872947825.241152</v>
       </c>
       <c r="E342" t="n">
-        <v>3.865142284986195</v>
+        <v>3.811257632858515</v>
+      </c>
+      <c r="F342" t="n">
+        <v>-4.578763336544489</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45130</v>
+        <v>45131</v>
       </c>
       <c r="B343" t="n">
-        <v>24.45678468463933</v>
+        <v>24.77370350547578</v>
       </c>
       <c r="C343" t="n">
-        <v>325886121.2160822</v>
+        <v>345569811.4364157</v>
       </c>
       <c r="D343" t="n">
-        <v>9872947825.241152</v>
+        <v>10018814299.16206</v>
       </c>
       <c r="E343" t="n">
-        <v>3.811257632858519</v>
+        <v>3.766589998168417</v>
+      </c>
+      <c r="F343" t="n">
+        <v>1.477435883414557</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>45131</v>
+        <v>45132</v>
       </c>
       <c r="B344" t="n">
-        <v>24.77370350547578</v>
+        <v>23.42263357117962</v>
       </c>
       <c r="C344" t="n">
-        <v>345569811.4364157</v>
+        <v>517091585.3710577</v>
       </c>
       <c r="D344" t="n">
-        <v>10018814299.16206</v>
+        <v>9455689036.354588</v>
       </c>
       <c r="E344" t="n">
-        <v>3.766589998168421</v>
+        <v>3.653500776052527</v>
+      </c>
+      <c r="F344" t="n">
+        <v>-5.620677716868872</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="B345" t="n">
-        <v>23.42263357117962</v>
+        <v>23.26771662954078</v>
       </c>
       <c r="C345" t="n">
-        <v>517091585.3710577</v>
+        <v>362056307.6291395</v>
       </c>
       <c r="D345" t="n">
-        <v>9455689036.354588</v>
+        <v>9395875459.492481</v>
       </c>
       <c r="E345" t="n">
-        <v>3.653500776052531</v>
+        <v>3.537199463269651</v>
+      </c>
+      <c r="F345" t="n">
+        <v>-0.6325670887879165</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="B346" t="n">
-        <v>23.26771662954078</v>
+        <v>25.1519878372353</v>
       </c>
       <c r="C346" t="n">
-        <v>362056307.6291395</v>
+        <v>682755887.4427278</v>
       </c>
       <c r="D346" t="n">
-        <v>9395875459.492481</v>
+        <v>10171319431.28272</v>
       </c>
       <c r="E346" t="n">
-        <v>3.537199463269655</v>
+        <v>3.398645015038295</v>
+      </c>
+      <c r="F346" t="n">
+        <v>8.253025225093058</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>45134</v>
+        <v>45135</v>
       </c>
       <c r="B347" t="n">
-        <v>25.1519878372353</v>
+        <v>25.09348805367939</v>
       </c>
       <c r="C347" t="n">
-        <v>682755887.4427278</v>
+        <v>493788462.5548211</v>
       </c>
       <c r="D347" t="n">
-        <v>10171319431.28272</v>
+        <v>10151894149.31194</v>
       </c>
       <c r="E347" t="n">
-        <v>3.3986450150383</v>
+        <v>3.246231888622674</v>
+      </c>
+      <c r="F347" t="n">
+        <v>-0.1909809450191591</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>45135</v>
+        <v>45136</v>
       </c>
       <c r="B348" t="n">
-        <v>25.09348805367939</v>
+        <v>24.82580397062078</v>
       </c>
       <c r="C348" t="n">
-        <v>493788462.5548211</v>
+        <v>354454914.9621894</v>
       </c>
       <c r="D348" t="n">
-        <v>10151894149.31194</v>
+        <v>10051629238.61289</v>
       </c>
       <c r="E348" t="n">
-        <v>3.246231888622679</v>
+        <v>3.007062308089353</v>
+      </c>
+      <c r="F348" t="n">
+        <v>-0.9876473220108428</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>45136</v>
+        <v>45137</v>
       </c>
       <c r="B349" t="n">
-        <v>24.82580397062078</v>
+        <v>25.16504796989767</v>
       </c>
       <c r="C349" t="n">
-        <v>354454914.9621894</v>
+        <v>266002736.5505368</v>
       </c>
       <c r="D349" t="n">
-        <v>10051629238.61289</v>
+        <v>10178962394.37527</v>
       </c>
       <c r="E349" t="n">
-        <v>3.007062308089358</v>
+        <v>2.876681487866704</v>
+      </c>
+      <c r="F349" t="n">
+        <v>1.26679121105302</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>45137</v>
+        <v>45138</v>
       </c>
       <c r="B350" t="n">
-        <v>25.16504796989767</v>
+        <v>24.26678435917668</v>
       </c>
       <c r="C350" t="n">
-        <v>266002736.5505368</v>
+        <v>354202895.0034041</v>
       </c>
       <c r="D350" t="n">
-        <v>10178962394.37527</v>
+        <v>9816173591.432625</v>
       </c>
       <c r="E350" t="n">
-        <v>2.876681487866709</v>
+        <v>2.762892919167933</v>
+      </c>
+      <c r="F350" t="n">
+        <v>-3.564103971374522</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45138</v>
+        <v>45139</v>
       </c>
       <c r="B351" t="n">
-        <v>24.26678435917668</v>
+        <v>23.75665877952372</v>
       </c>
       <c r="C351" t="n">
-        <v>354202895.0034041</v>
+        <v>401006374.0008301</v>
       </c>
       <c r="D351" t="n">
-        <v>9816173591.432625</v>
+        <v>9604285334.638874</v>
       </c>
       <c r="E351" t="n">
-        <v>2.762892919167938</v>
+        <v>2.608875154968195</v>
+      </c>
+      <c r="F351" t="n">
+        <v>-2.158562649897333</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="B352" t="n">
-        <v>23.75665877952372</v>
+        <v>23.92554655853081</v>
       </c>
       <c r="C352" t="n">
-        <v>401006374.0008301</v>
+        <v>433930052.9370583</v>
       </c>
       <c r="D352" t="n">
-        <v>9604285334.638874</v>
+        <v>9663629338.746136</v>
       </c>
       <c r="E352" t="n">
-        <v>2.608875154968201</v>
+        <v>2.488211648571664</v>
+      </c>
+      <c r="F352" t="n">
+        <v>0.6178908897388924</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B353" t="n">
-        <v>23.92554655853081</v>
+        <v>23.13481266408052</v>
       </c>
       <c r="C353" t="n">
-        <v>433930052.9370583</v>
+        <v>426945357.6898426</v>
       </c>
       <c r="D353" t="n">
-        <v>9663629338.746136</v>
+        <v>9376125922.103199</v>
       </c>
       <c r="E353" t="n">
-        <v>2.48821164857167</v>
+        <v>2.339600511242379</v>
+      </c>
+      <c r="F353" t="n">
+        <v>-2.975108073425348</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="B354" t="n">
-        <v>23.13481266408052</v>
+        <v>22.65445193546939</v>
       </c>
       <c r="C354" t="n">
-        <v>426945357.6898426</v>
+        <v>375514604.6347747</v>
       </c>
       <c r="D354" t="n">
-        <v>9376125922.103199</v>
+        <v>9178003135.366844</v>
       </c>
       <c r="E354" t="n">
-        <v>2.339600511242385</v>
+        <v>2.182227369887593</v>
+      </c>
+      <c r="F354" t="n">
+        <v>-2.113055950638443</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45142</v>
+        <v>45143</v>
       </c>
       <c r="B355" t="n">
-        <v>22.65445193546939</v>
+        <v>22.80992032112634</v>
       </c>
       <c r="C355" t="n">
-        <v>375514604.6347747</v>
+        <v>387384158.1790491</v>
       </c>
       <c r="D355" t="n">
-        <v>9178003135.366844</v>
+        <v>9237548520.058439</v>
       </c>
       <c r="E355" t="n">
-        <v>2.1822273698876</v>
+        <v>1.980657611404324</v>
+      </c>
+      <c r="F355" t="n">
+        <v>0.6487836603818575</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45143</v>
+        <v>45144</v>
       </c>
       <c r="B356" t="n">
-        <v>22.80992032112634</v>
+        <v>22.62509186558245</v>
       </c>
       <c r="C356" t="n">
-        <v>387384158.1790491</v>
+        <v>256370671.0600972</v>
       </c>
       <c r="D356" t="n">
-        <v>9237548520.058439</v>
+        <v>9155491618.929426</v>
       </c>
       <c r="E356" t="n">
-        <v>1.980657611404332</v>
+        <v>1.839047536422748</v>
+      </c>
+      <c r="F356" t="n">
+        <v>-0.8882973762014301</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45144</v>
+        <v>45145</v>
       </c>
       <c r="B357" t="n">
-        <v>22.62509186558245</v>
+        <v>23.16031151415157</v>
       </c>
       <c r="C357" t="n">
-        <v>256370671.0600972</v>
+        <v>338171013.5108157</v>
       </c>
       <c r="D357" t="n">
-        <v>9155491618.929426</v>
+        <v>9384285772.437752</v>
       </c>
       <c r="E357" t="n">
-        <v>1.839047536422757</v>
+        <v>1.775163939996237</v>
+      </c>
+      <c r="F357" t="n">
+        <v>2.498982720220977</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="B358" t="n">
-        <v>23.16031151415157</v>
+        <v>23.05200017950495</v>
       </c>
       <c r="C358" t="n">
-        <v>338171013.5108157</v>
+        <v>386012925.7622021</v>
       </c>
       <c r="D358" t="n">
-        <v>9384285772.437752</v>
+        <v>9344630841.913843</v>
       </c>
       <c r="E358" t="n">
-        <v>1.775163939996246</v>
+        <v>1.733888188571863</v>
+      </c>
+      <c r="F358" t="n">
+        <v>-0.4225673800384189</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45146</v>
+        <v>45147</v>
       </c>
       <c r="B359" t="n">
-        <v>23.05200017950495</v>
+        <v>24.20381682491743</v>
       </c>
       <c r="C359" t="n">
-        <v>386012925.7622021</v>
+        <v>561549883.4110975</v>
       </c>
       <c r="D359" t="n">
-        <v>9344630841.913843</v>
+        <v>9819635413.274389</v>
       </c>
       <c r="E359" t="n">
-        <v>1.733888188571872</v>
+        <v>1.641730609500686</v>
+      </c>
+      <c r="F359" t="n">
+        <v>5.08318176925715</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45147</v>
+        <v>45148</v>
       </c>
       <c r="B360" t="n">
-        <v>24.20381682491743</v>
+        <v>24.38461025075594</v>
       </c>
       <c r="C360" t="n">
-        <v>561549883.4110975</v>
+        <v>458039680.4874088</v>
       </c>
       <c r="D360" t="n">
-        <v>9819635413.274389</v>
+        <v>9894698836.091352</v>
       </c>
       <c r="E360" t="n">
-        <v>1.641730609500696</v>
+        <v>1.533677459222594</v>
+      </c>
+      <c r="F360" t="n">
+        <v>0.7644216883601507</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45148</v>
+        <v>45149</v>
       </c>
       <c r="B361" t="n">
-        <v>24.38461025075594</v>
+        <v>24.61887321060917</v>
       </c>
       <c r="C361" t="n">
-        <v>458039680.4874088</v>
+        <v>352124557.4454859</v>
       </c>
       <c r="D361" t="n">
-        <v>9894698836.091352</v>
+        <v>9982518848.598183</v>
       </c>
       <c r="E361" t="n">
-        <v>1.533677459222605</v>
+        <v>1.462748101292263</v>
+      </c>
+      <c r="F361" t="n">
+        <v>0.8875460886843989</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45149</v>
+        <v>45150</v>
       </c>
       <c r="B362" t="n">
-        <v>24.61887321060917</v>
+        <v>24.57980986376842</v>
       </c>
       <c r="C362" t="n">
-        <v>352124557.4454859</v>
+        <v>337807060.8439381</v>
       </c>
       <c r="D362" t="n">
-        <v>9982518848.598183</v>
+        <v>9969763672.692484</v>
       </c>
       <c r="E362" t="n">
-        <v>1.462748101292273</v>
+        <v>1.378212510948176</v>
+      </c>
+      <c r="F362" t="n">
+        <v>-0.1277751246869907</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45150</v>
+        <v>45151</v>
       </c>
       <c r="B363" t="n">
-        <v>24.57980986376842</v>
+        <v>24.89181906698411</v>
       </c>
       <c r="C363" t="n">
-        <v>337807060.8439381</v>
+        <v>277306903.1224978</v>
       </c>
       <c r="D363" t="n">
-        <v>9969763672.692484</v>
+        <v>10095650763.64935</v>
       </c>
       <c r="E363" t="n">
-        <v>1.378212510948188</v>
+        <v>1.35663117539395</v>
+      </c>
+      <c r="F363" t="n">
+        <v>1.262688816803959</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45151</v>
+        <v>45152</v>
       </c>
       <c r="B364" t="n">
-        <v>24.89181906698411</v>
+        <v>24.22329400790152</v>
       </c>
       <c r="C364" t="n">
-        <v>277306903.1224978</v>
+        <v>278182091.4448637</v>
       </c>
       <c r="D364" t="n">
-        <v>10095650763.64935</v>
+        <v>9839554742.689486</v>
       </c>
       <c r="E364" t="n">
-        <v>1.356631175393961</v>
+        <v>1.300944511243472</v>
+      </c>
+      <c r="F364" t="n">
+        <v>-2.536696513730197</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45152</v>
+        <v>45153</v>
       </c>
       <c r="B365" t="n">
-        <v>24.22329400790152</v>
+        <v>25.14772487652887</v>
       </c>
       <c r="C365" t="n">
-        <v>278182091.4448637</v>
+        <v>388025853.4511116</v>
       </c>
       <c r="D365" t="n">
-        <v>9839554742.689486</v>
+        <v>10211324982.8365</v>
       </c>
       <c r="E365" t="n">
-        <v>1.300944511243485</v>
+        <v>1.195927322461189</v>
+      </c>
+      <c r="F365" t="n">
+        <v>3.77832381514247</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45153</v>
+        <v>45154</v>
       </c>
       <c r="B366" t="n">
-        <v>25.14772487652887</v>
+        <v>23.87564131837583</v>
       </c>
       <c r="C366" t="n">
-        <v>388025853.4511116</v>
+        <v>452521516.469082</v>
       </c>
       <c r="D366" t="n">
-        <v>10211324982.8365</v>
+        <v>9697572470.820595</v>
       </c>
       <c r="E366" t="n">
-        <v>1.195927322461202</v>
+        <v>1.069397791496972</v>
+      </c>
+      <c r="F366" t="n">
+        <v>-5.031203226608083</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>45153.17167824074</v>
+        <v>45154.26260416667</v>
       </c>
       <c r="B367" t="n">
-        <v>24.97403680278052</v>
+        <v>23.433591414069</v>
       </c>
       <c r="C367" t="n">
-        <v>399754528.5391614</v>
+        <v>457715010.3532975</v>
       </c>
       <c r="D367" t="n">
-        <v>10138716345.79209</v>
+        <v>9507475129.320454</v>
       </c>
       <c r="E367" t="n">
-        <v>1.070650581604483</v>
+        <v>0.9728841550006956</v>
+      </c>
+      <c r="F367" t="n">
+        <v>-1.960256982581288</v>
       </c>
     </row>
   </sheetData>
